--- a/translations/csvContent.xlsx
+++ b/translations/csvContent.xlsx
@@ -1021,9 +1021,6 @@
     <t>İçeriğe genel bakış</t>
   </si>
   <si>
-    <t xml:space="preserve">Olist-element1-1 </t>
-  </si>
-  <si>
     <t>Come funziona il servizio</t>
   </si>
   <si>
@@ -1048,18 +1045,12 @@
     <t>Kuryeye iade</t>
   </si>
   <si>
-    <t>Olist-element1-2</t>
-  </si>
-  <si>
     <t>Come ricevere supporto</t>
   </si>
   <si>
     <t>Nasıl destek alınır</t>
   </si>
   <si>
-    <t>Olist-element1-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">How to provide the best possible service to customer </t>
   </si>
   <si>
@@ -1069,16 +1060,10 @@
     <t>Müşteriye mümkün olan en iyi hizmet nasıl sağlanır</t>
   </si>
   <si>
-    <t xml:space="preserve"> Olist-element1-3</t>
-  </si>
-  <si>
     <t>Come controllare i pacchi</t>
   </si>
   <si>
     <t>Beklenen paketler nasıl kontrol edilir</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Olist-element1-4</t>
   </si>
   <si>
     <t>Sıkça Sorulan Sorular</t>
@@ -1640,6 +1625,21 @@
   </si>
   <si>
     <t>Lütfen yukarıda ana hatlarıyla belirtildiği gibi müşteri teslimatı için normal süreci izleyin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olist-element-1-1 </t>
+  </si>
+  <si>
+    <t>Olist-element-1-2</t>
+  </si>
+  <si>
+    <t>Olist-element-1-5</t>
+  </si>
+  <si>
+    <t>Olist-element-1-4</t>
+  </si>
+  <si>
+    <t>Olist-element-1-3</t>
   </si>
 </sst>
 </file>
@@ -2033,13 +2033,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="45.8984375" customWidth="1"/>
     <col min="2" max="2" width="29.296875" customWidth="1"/>
     <col min="3" max="3" width="26.296875" customWidth="1"/>
     <col min="4" max="4" width="25.8984375" customWidth="1"/>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2196,10 +2196,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -2222,10 +2222,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="H7" t="s">
         <v>249</v>
@@ -2248,10 +2248,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -2274,10 +2274,10 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>531</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -2300,10 +2300,10 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>532</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
         <v>250</v>
@@ -2326,18 +2326,18 @@
         <v>251</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -2352,10 +2352,10 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -2381,7 +2381,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H13" t="s">
         <v>33</v>
@@ -2392,7 +2392,7 @@
         <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C14" t="s">
         <v>253</v>
@@ -2404,13 +2404,13 @@
         <v>254</v>
       </c>
       <c r="F14" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2430,10 +2430,10 @@
         <v>258</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H15" t="s">
         <v>256</v>
@@ -2444,7 +2444,7 @@
         <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C16" t="s">
         <v>260</v>
@@ -2456,13 +2456,13 @@
         <v>261</v>
       </c>
       <c r="F16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H16" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2470,7 +2470,7 @@
         <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
         <v>263</v>
@@ -2482,13 +2482,13 @@
         <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H17" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2508,10 +2508,10 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -2534,10 +2534,10 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
@@ -2557,16 +2557,16 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F20" t="s">
         <v>265</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2574,7 +2574,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -2583,16 +2583,16 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F21" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2609,13 +2609,13 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F22" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H22" t="s">
         <v>266</v>
@@ -2638,10 +2638,10 @@
         <v>269</v>
       </c>
       <c r="F23" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H23" t="s">
         <v>267</v>
@@ -2652,7 +2652,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C24" t="s">
         <v>270</v>
@@ -2664,13 +2664,13 @@
         <v>271</v>
       </c>
       <c r="F24" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H24" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2690,10 +2690,10 @@
         <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
@@ -2713,13 +2713,13 @@
         <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F26" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H26" t="s">
         <v>272</v>
@@ -2739,13 +2739,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H27" t="s">
         <v>51</v>
@@ -2768,10 +2768,10 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H28" t="s">
         <v>54</v>
@@ -2794,10 +2794,10 @@
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H29" t="s">
         <v>58</v>
@@ -2817,13 +2817,13 @@
         <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F30" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H30" t="s">
         <v>62</v>
@@ -2834,7 +2834,7 @@
         <v>274</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C31" t="s">
         <v>275</v>
@@ -2846,13 +2846,13 @@
         <v>276</v>
       </c>
       <c r="F31" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H31" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
         <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C32" t="s">
         <v>278</v>
@@ -2869,16 +2869,16 @@
         <v>278</v>
       </c>
       <c r="E32" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F32" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H32" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2886,7 +2886,7 @@
         <v>280</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>281</v>
@@ -2898,13 +2898,13 @@
         <v>282</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2912,7 +2912,7 @@
         <v>283</v>
       </c>
       <c r="B34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -2924,13 +2924,13 @@
         <v>284</v>
       </c>
       <c r="F34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2938,7 +2938,7 @@
         <v>285</v>
       </c>
       <c r="B35" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C35" t="s">
         <v>286</v>
@@ -2950,13 +2950,13 @@
         <v>287</v>
       </c>
       <c r="F35" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H35" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3002,10 +3002,10 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H37" t="s">
         <v>69</v>
@@ -3016,7 +3016,7 @@
         <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C38" t="s">
         <v>288</v>
@@ -3025,16 +3025,16 @@
         <v>288</v>
       </c>
       <c r="E38" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F38" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H38" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3042,7 +3042,7 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
@@ -3051,16 +3051,16 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H39" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3080,10 +3080,10 @@
         <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H40" t="s">
         <v>73</v>
@@ -3106,10 +3106,10 @@
         <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H41" t="s">
         <v>77</v>
@@ -3132,10 +3132,10 @@
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H42" t="s">
         <v>81</v>
@@ -3158,10 +3158,10 @@
         <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H43" t="s">
         <v>85</v>
@@ -3184,10 +3184,10 @@
         <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H44" t="s">
         <v>89</v>
@@ -3207,13 +3207,13 @@
         <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F45" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H45" t="s">
         <v>62</v>
@@ -3239,7 +3239,7 @@
         <v>93</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H46" t="s">
         <v>93</v>
@@ -3262,10 +3262,10 @@
         <v>292</v>
       </c>
       <c r="F47" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H47" t="s">
         <v>291</v>
@@ -3285,13 +3285,13 @@
         <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F48" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H48" t="s">
         <v>294</v>
@@ -3314,10 +3314,10 @@
         <v>279</v>
       </c>
       <c r="F49" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H49" t="s">
         <v>296</v>
@@ -3337,13 +3337,13 @@
         <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F50" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H50" t="s">
         <v>97</v>
@@ -3354,7 +3354,7 @@
         <v>298</v>
       </c>
       <c r="B51" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C51" t="s">
         <v>286</v>
@@ -3366,13 +3366,13 @@
         <v>287</v>
       </c>
       <c r="F51" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H51" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3395,7 +3395,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H52" t="s">
         <v>100</v>
@@ -3421,7 +3421,7 @@
         <v>104</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H53" t="s">
         <v>104</v>
@@ -3447,7 +3447,7 @@
         <v>108</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H54" t="s">
         <v>108</v>
@@ -3467,13 +3467,13 @@
         <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F55" t="s">
         <v>112</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H55" t="s">
         <v>112</v>
@@ -3522,10 +3522,10 @@
         <v>26</v>
       </c>
       <c r="F57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="H57" t="s">
         <v>115</v>
@@ -3536,7 +3536,7 @@
         <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C58" t="s">
         <v>299</v>
@@ -3548,13 +3548,13 @@
         <v>300</v>
       </c>
       <c r="F58" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H58" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3562,7 +3562,7 @@
         <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C59" t="s">
         <v>40</v>
@@ -3571,16 +3571,16 @@
         <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F59" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H59" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3600,10 +3600,10 @@
         <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H60" t="s">
         <v>120</v>
@@ -3626,10 +3626,10 @@
         <v>126</v>
       </c>
       <c r="F61" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H61" t="s">
         <v>124</v>
@@ -3640,7 +3640,7 @@
         <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C62" t="s">
         <v>128</v>
@@ -3652,13 +3652,13 @@
         <v>129</v>
       </c>
       <c r="F62" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H62" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3678,10 +3678,10 @@
         <v>133</v>
       </c>
       <c r="F63" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H63" t="s">
         <v>131</v>
@@ -3692,7 +3692,7 @@
         <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C64" t="s">
         <v>135</v>
@@ -3701,16 +3701,16 @@
         <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F64" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H64" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3727,13 +3727,13 @@
         <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F65" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H65" t="s">
         <v>137</v>
@@ -3744,7 +3744,7 @@
         <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C66" t="s">
         <v>140</v>
@@ -3753,16 +3753,16 @@
         <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F66" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H66" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -3782,10 +3782,10 @@
         <v>144</v>
       </c>
       <c r="F67" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H67" t="s">
         <v>142</v>
@@ -3834,10 +3834,10 @@
         <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H69" t="s">
         <v>27</v>
@@ -3848,7 +3848,7 @@
         <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C70" t="s">
         <v>147</v>
@@ -3857,16 +3857,16 @@
         <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F70" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H70" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3883,13 +3883,13 @@
         <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F71" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H71" t="s">
         <v>149</v>
@@ -3900,7 +3900,7 @@
         <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C72" t="s">
         <v>152</v>
@@ -3909,16 +3909,16 @@
         <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F72" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H72" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3935,13 +3935,13 @@
         <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F73" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H73" t="s">
         <v>154</v>
@@ -3964,10 +3964,10 @@
         <v>303</v>
       </c>
       <c r="F74" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H74" t="s">
         <v>301</v>
@@ -3987,13 +3987,13 @@
         <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F75" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H75" t="s">
         <v>158</v>
@@ -4004,7 +4004,7 @@
         <v>304</v>
       </c>
       <c r="B76" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C76" t="s">
         <v>250</v>
@@ -4016,13 +4016,13 @@
         <v>251</v>
       </c>
       <c r="F76" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H76" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4030,7 +4030,7 @@
         <v>305</v>
       </c>
       <c r="B77" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C77" t="s">
         <v>306</v>
@@ -4042,13 +4042,13 @@
         <v>307</v>
       </c>
       <c r="F77" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H77" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4071,7 +4071,7 @@
         <v>309</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H78" t="s">
         <v>309</v>
@@ -4097,7 +4097,7 @@
         <v>313</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H79" t="s">
         <v>313</v>
@@ -4123,7 +4123,7 @@
         <v>317</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H80" t="s">
         <v>317</v>
@@ -4146,10 +4146,10 @@
         <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H81" t="s">
         <v>161</v>
@@ -4172,10 +4172,10 @@
         <v>166</v>
       </c>
       <c r="F82" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H82" t="s">
         <v>164</v>
@@ -4201,7 +4201,7 @@
         <v>168</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H83" t="s">
         <v>168</v>
@@ -4212,7 +4212,7 @@
         <v>171</v>
       </c>
       <c r="B84" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C84" t="s">
         <v>172</v>
@@ -4221,16 +4221,16 @@
         <v>172</v>
       </c>
       <c r="E84" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F84" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H84" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -4253,7 +4253,7 @@
         <v>174</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H85" t="s">
         <v>174</v>
@@ -4264,7 +4264,7 @@
         <v>177</v>
       </c>
       <c r="B86" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C86" t="s">
         <v>178</v>
@@ -4273,16 +4273,16 @@
         <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F86" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H86" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -4290,7 +4290,7 @@
         <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C87" t="s">
         <v>180</v>
@@ -4299,16 +4299,16 @@
         <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F87" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H87" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -4331,7 +4331,7 @@
         <v>182</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H88" t="s">
         <v>182</v>
@@ -4357,7 +4357,7 @@
         <v>186</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H89" t="s">
         <v>186</v>
@@ -4377,13 +4377,13 @@
         <v>191</v>
       </c>
       <c r="E90" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F90" t="s">
         <v>190</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H90" t="s">
         <v>190</v>
@@ -4409,7 +4409,7 @@
         <v>193</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H91" t="s">
         <v>193</v>
@@ -4429,13 +4429,13 @@
         <v>198</v>
       </c>
       <c r="E92" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F92" t="s">
         <v>197</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H92" t="s">
         <v>197</v>
@@ -4461,7 +4461,7 @@
         <v>200</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H93" t="s">
         <v>200</v>
@@ -4487,7 +4487,7 @@
         <v>204</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H94" t="s">
         <v>204</v>
@@ -4513,7 +4513,7 @@
         <v>208</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H95" t="s">
         <v>208</v>
@@ -4533,13 +4533,13 @@
         <v>213</v>
       </c>
       <c r="E96" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F96" t="s">
         <v>212</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H96" t="s">
         <v>212</v>
@@ -4565,7 +4565,7 @@
         <v>215</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H97" t="s">
         <v>215</v>
@@ -4585,13 +4585,13 @@
         <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F98" t="s">
         <v>190</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H98" t="s">
         <v>190</v>
@@ -4617,7 +4617,7 @@
         <v>221</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H99" t="s">
         <v>221</v>
@@ -4628,7 +4628,7 @@
         <v>224</v>
       </c>
       <c r="B100" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C100" t="s">
         <v>219</v>
@@ -4637,16 +4637,16 @@
         <v>219</v>
       </c>
       <c r="E100" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F100" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H100" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -4669,7 +4669,7 @@
         <v>226</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H101" t="s">
         <v>226</v>
@@ -4680,7 +4680,7 @@
         <v>229</v>
       </c>
       <c r="B102" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C102" t="s">
         <v>219</v>
@@ -4689,16 +4689,16 @@
         <v>219</v>
       </c>
       <c r="E102" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F102" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H102" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -4721,7 +4721,7 @@
         <v>231</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H103" t="s">
         <v>231</v>
@@ -4732,7 +4732,7 @@
         <v>234</v>
       </c>
       <c r="B104" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C104" t="s">
         <v>235</v>
@@ -4741,16 +4741,16 @@
         <v>235</v>
       </c>
       <c r="E104" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F104" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H104" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -4773,7 +4773,7 @@
         <v>237</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H105" t="s">
         <v>237</v>
@@ -4784,7 +4784,7 @@
         <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C106" t="s">
         <v>241</v>
@@ -4793,16 +4793,16 @@
         <v>241</v>
       </c>
       <c r="E106" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F106" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H106" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/translations/csvContent.xlsx
+++ b/translations/csvContent.xlsx
@@ -1627,9 +1627,6 @@
     <t>Lütfen yukarıda ana hatlarıyla belirtildiği gibi müşteri teslimatı için normal süreci izleyin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Olist-element-1-1 </t>
-  </si>
-  <si>
     <t>Olist-element-1-2</t>
   </si>
   <si>
@@ -1640,6 +1637,9 @@
   </si>
   <si>
     <t>Olist-element-1-3</t>
+  </si>
+  <si>
+    <t>Olist-element-1-1</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B11" t="s">
         <v>341</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>

--- a/translations/csvContent.xlsx
+++ b/translations/csvContent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="645">
   <si>
     <t>Tags</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Ahora entregue todos los paquetes al cliente.</t>
   </si>
   <si>
-    <t>Wenn Sie alle Pakete gescannt haben, übergeben Sie diese an den Kunden</t>
-  </si>
-  <si>
     <t>title-4-customerpickupdo-6</t>
   </si>
   <si>
@@ -404,18 +401,12 @@
     <t>Haga clic en la notificación y escanee las parcelas. Debe escanear los paquetes caducados dentro de las 2 horas posteriores a la aparición de la notificación. Ahora espere hasta que llegue un conductor (generalmente 1-2 días).</t>
   </si>
   <si>
-    <t>Scannen Sie die Pakete ein, indem Sie jedes Paketetikett in den Scanrahmen platzieren. Wenn Sie alle Pakete eingescannt haben, erscheint der Bildschirm „Fertig“. In 1-2 Tagen wird das Paket abgeholt</t>
-  </si>
-  <si>
     <t>Olist-driverpickupdo-30</t>
   </si>
   <si>
     <t>Si llega un conductor, seleccione "Recogida del conductor" en la pantalla de inicio. Busque las parcelas nombradas en la lista y entréguelas al conductor.</t>
   </si>
   <si>
-    <t>Wenn der Fahrer ankommt, klicken Sie auf "Abholung durch den Fahrer". Suchen Sie nun die Pakete auf der Liste und geben Sie diese dem Fahrer</t>
-  </si>
-  <si>
     <t>title-4-driverpickupmissing-9</t>
   </si>
   <si>
@@ -458,9 +449,6 @@
     <t>Haga clic en "No se puede encontrar". Confirme que no puede encontrar el paquete haciendo clic en "Aceptar".</t>
   </si>
   <si>
-    <t>4. Bitte bestätigen Sie, dass das Paket fehlt</t>
-  </si>
-  <si>
     <t>title-2-support-3</t>
   </si>
   <si>
@@ -554,9 +542,6 @@
     <t>Si hace clic en "Inventario", puede ver la cantidad actual de paquetes en su tienda.</t>
   </si>
   <si>
-    <t>Klicken Sie auf „Lagerbestand” und überprüfen so die aktuelle Zahl an Paketen vor Ort in Ihrer Filiale</t>
-  </si>
-  <si>
     <t>Olist-support-42</t>
   </si>
   <si>
@@ -833,9 +818,6 @@
     <t>Escanee los paquetes lo antes posible después de la entrega. Haga clic en "Escanear entregas ahora".</t>
   </si>
   <si>
-    <t>Bitte scannen Sie Pakete direkt nach der Anlieferung ein. Klicken Sie hierzu auf "Pakete jetzt scannen"</t>
-  </si>
-  <si>
     <t>Escanee todos los paquetes colocando cada etiqueta de paquete en el marco de escaneo. Pruébelo haciendo clic en el cuadro de escaneo a continuación. Puede comprobar si los paquetes están escaneados si tienen una casilla de verificación azul. Si ha terminado, haga clic una vez más en el marco de escaneo.</t>
   </si>
   <si>
@@ -878,9 +860,6 @@
     <t>Olist-driverdeliveryscanissue-4</t>
   </si>
   <si>
-    <t>4. Bitte üben Sie die durchzuführenden Schritte ein drittes Mal, bis der Scanrahmen angezeitg wird. Klicken Sie auf das Symbol, welches einer Tastatur ähnelt. Dies ist eine weitere Option, die Paket ID manuell einzugeben.</t>
-  </si>
-  <si>
     <t>Olist-driverdeliveryscanissue-5</t>
   </si>
   <si>
@@ -935,9 +914,6 @@
     <t>Si aún no encontró el soporte adecuado, puede solicitar una llamada de servicio. Haga clic en "Contactar con el soporte".</t>
   </si>
   <si>
-    <t>Falls Sie keine ausreichende Hilfestellung finden, kontaktieren Sie bitte den Amazon Support. Klicken Sie auf "Wenden Sie sich and en Support".</t>
-  </si>
-  <si>
     <t>Title-2-bestservice-1</t>
   </si>
   <si>
@@ -945,9 +921,6 @@
   </si>
   <si>
     <t>Es importante para Amazon y seguramente para ti brindar un excelente servicio a tus clientes. Amazon ha creado un programa dedicado llamado Performance Improvement Plan (PIP) para ayudarlo a navegar por los defectos y mejorar su servicio. El plan es un programa de 3 meses que lo guiará a través de 2 áreas de mejora del rendimiento con el objetivo de mejorar la experiencia de recolección para los clientes. Las áreas de enfoque son la entrega de paquetes (evitando las entregas de paquetes perdidas o tardías) y el escaneo de paquetes (evitando escaneos perdidos):</t>
-  </si>
-  <si>
-    <t>Es ist wichtig für Amazon und sicher auch Sie einen ausgzeichneten Service für Ihre Kunden anzubieten. Amazon hat hierfür ein Programm ("Performance Improvement Plan - PIP") gegründet, um Ihnen bei Problemen Sicherheit und Unterstützung bieten zu können. Der Plan ist ein 3-monatiges Programm und wird sie in 2 Bereichen unterstützen. Diese sind Anlieferung durch Fahrer (zur Vermeidung von fehlenden Scans/verspäteten Lieferungen) sowie Paketscans (zur Vermeidung von fehlenden Paketen.</t>
   </si>
   <si>
     <t>Olist-bestservice-1</t>
@@ -1002,9 +975,6 @@
 Mağaza İçi Destek</t>
   </si>
   <si>
-    <t>Cosa é Amazon Counter ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Amazon Counter Hizmeti nedir?</t>
   </si>
@@ -1045,9 +1015,6 @@
     <t>Kuryeye iade</t>
   </si>
   <si>
-    <t>Come ricevere supporto</t>
-  </si>
-  <si>
     <t>Nasıl destek alınır</t>
   </si>
   <si>
@@ -1142,13 +1109,7 @@
     <t>Scan all parcels by placing each parcel label in the scan frame. Test it by clicking on the scan frame below. You can check if the parcels are scanned if they have a blue checkbox. If you are done click once again on the scan frame. </t>
   </si>
   <si>
-    <t>Scansiona tutti i pacchi avvicinando inquadrando l'etichetta del pacco con la camera. I pacchi sono scansionati con successo hanno una spunta blu. Quando hai finito, clicca ancora per uscire</t>
-  </si>
-  <si>
     <t>Her bir koli etiketini tarama çerçevesine yerleştirerek tüm paketleri tarayın. Aşağıdaki tarama çerçevesine tıklayarak test edin. Mavi bir onay kutusu varsa, paketlerin taranıp taranmadığını kontrol edebilirsiniz. Bitirdiyseniz, tarama çerçevesine bir kez daha tıklayın.</t>
-  </si>
-  <si>
-    <t>Riponi i pacchi ricevuti in un luogo sicuro e accessibile per ritrovarli facilmente quando arriva il cliente</t>
   </si>
   <si>
     <t>Müşteri geldiğinde kolay erişim sağlamak için paketleri güvenli ve düzenli bir yerde saklayın.</t>
@@ -1167,21 +1128,12 @@
  </t>
   </si>
   <si>
-    <t>I pacchi ricevuti devono essere scansionati entro 30 minuti</t>
-  </si>
-  <si>
     <t>Mağazanıza teslim edilen paketler 30 dakika içinde taranmalıdır.</t>
   </si>
   <si>
-    <t>Se scegli di ritardare la scansione, ti verrà chiesto di confermare la scelta e ti verrà ricordato del limite massimo di 30 minuti</t>
-  </si>
-  <si>
     <t>Taramayı ertelemeyi seçerseniz, seçiminizi onaylamanız istenecek ve 30 dakikalık zaman penceresi size hatırlatılacaktır.</t>
   </si>
   <si>
-    <t>Allo scadere dei 30 minuti, devi immediatemente completare la scansione dei pacchi ricevuti. Finché la scansione di tutti i pacchi ricevuti non é completata, non sarà possibile utilizzare nessuna altra funzionalità della App Amazon</t>
-  </si>
-  <si>
     <t>30 dakikalık zamanlayıcı sona erdiğinde, paketleri hemen taramanız gerekir. Paketler taranana kadar diğer Amazon Hub Counter uygulamasındaki diğer iş akışlarına erişemezsiniz.</t>
   </si>
   <si>
@@ -1197,9 +1149,6 @@
     <t>Please practice the driver delivery workflow again on the app below until the scan frame appears. Now please click on the displayed parcels BELOW the scan frame. </t>
   </si>
   <si>
-    <t>Seleziona consegna corriere e clicca sui pacchi elencati sotto la finestra di scansione </t>
-  </si>
-  <si>
     <t>Lütfen tarama çerçevesi görünene kadar aşağıdaki uygulamada "Kuryeden alım" iş akışını tekrar deneyin. Şimdi lütfen tarama çerçevesinin ALTINDA görüntülenen parsellere tıklayın.</t>
   </si>
   <si>
@@ -1218,9 +1167,6 @@
     <t>The tracking ID usually starts with QC and contains 12 digits in total. Click at the empty line and start to type in the tracking ID.</t>
   </si>
   <si>
-    <t>Il tracking ID di solito inizia con BA, BB, o 166. Clicca sul campo e digita il tracking ID</t>
-  </si>
-  <si>
     <t>Gönderi Takip no genellikle C,D,E gibi bir harf ile başlar ve toplamda 6 rakam içerir. Boş satıra tıklayın ve Gönderi Takip No'yu yazmaya başlayın.</t>
   </si>
   <si>
@@ -1230,9 +1176,6 @@
     <t xml:space="preserve">Please practice the driver delivery a third time and proceed until the scan frame appears. Now please click on the icon resembling a keypad. This is an alternative way to manually enter the tracking ID. </t>
   </si>
   <si>
-    <t xml:space="preserve">Seleziona consegna corriere e procedi finché appare la finestra di scansione. Clicca sull'icona della tastiera. E' un modo alternativo per inserire il tracking ID a mano </t>
-  </si>
-  <si>
     <t>Lütfen üçüncü kez Kuryeden alım alıştırması yapın ve tarama çerçevesi görünene kadar devam edin. Şimdi lütfen bir tuş takımına benzeyen simgeye tıklayın. Bu, Gönderi Takip No'yu manuel olarak girmenin alternatif bir yoludur.</t>
   </si>
   <si>
@@ -1254,9 +1197,6 @@
     <t>Ein Amazon-Kunde kommt in Ihren Store, um die bestellten Pakete abzuholen. Der Kunde zeigt Ihnen eine Benachrichtigung die einen Barcode und einen 6-stelligen Code beinhaltet. Bitte scannen Sie diesen Barcode, finden Sie das Paket und scannen Sie das Paket mit der Amazon-App, bevor Sie dieses dem Kunden aushändigen. Bitte scannen Sie immer den Barcode UND das Paket. Dies entfernt das Paket aus Ihrem Lagerbestand. </t>
   </si>
   <si>
-    <t xml:space="preserve">Un cliente Amazon arriverà al punto vendita per il ritiro dei propri pacchi. Il cliente mostrerà una notifica che include 1) Un codice a barre e 2) Un codice numerico a 6 cifre. Devi scansionare il codice a barre del cliente, prendere il pacco e scansionare il codice a barre del pacco prima di consegnarlo. Devi scansionare ogni codice ritiro del cliente e ogni codice a barre dei pacchi, in modo da cancellarli dal tuo inventario e responsabilità  </t>
-  </si>
-  <si>
     <t>Bir Amazon müşterisi, paketlerini almak için mağazaya varacaktır. Müşteri, 1) bir barkod ve 2) 6 basamaklı bir sayısal kod içeren bir bildirim gösterecektir. Müşteriye teslim etmeden önce barkodu taramanız, koliyi bulmanız ve koliyi taramanız gerekir. Her müşteri teslim kodunu VE paketi taramanız gerekir. Bu işlem, paketi envanterinizden ve sorumluluğunuzdan silecektir.</t>
   </si>
   <si>
@@ -1273,9 +1213,6 @@
   </si>
   <si>
     <t>Müşteriye teslimat barkodunu tarayın. Bunu okuduysanız, devam etmek için tarama çerçevesine tıklayın.</t>
-  </si>
-  <si>
-    <t>Identifica i pacchi del cliente disponibili sulla lista e seleziona "Scansiona i pacchi". Click su “Scansiona i pacchi”</t>
   </si>
   <si>
     <t>Müşteri için mevcut paketleri listede gösterildiği gibi alın ve “Paketleri tara” yı seçin. "Paketleri tara" seçeneğine tıklayın.</t>
@@ -1321,9 +1258,6 @@
 Sie können nun die Paket ID manuell eingeben. Klicken Sie auf den Bildschirm. Nun erscheint “Fertig” und Sie können das Paket aushändigen.</t>
   </si>
   <si>
-    <t>Puoi inserire il tracking ID a mano. Quando l'ID e' riconosciuto, appare "Fatto" e puoi consegnare i pacchi al cliente</t>
-  </si>
-  <si>
     <t>Gönderi Takip No manuel olarak girebilirsiniz. Şimdi "Bitti" görünür ve tüm paketleri müşteriye teslim edebilrsiniz.</t>
   </si>
   <si>
@@ -1348,21 +1282,12 @@
     <t xml:space="preserve">If customers do not pickup their parcel within 14 days, the parcel expires. Then you need to request driver pickup. You need to scan parcels for driver pickup. Otherwise the App will block you from other tasks.A delivery driver will arrive at the retail store location to pick up parcels. You do not need to scan upon driver arrival - just hand the parcels to the driver. </t>
   </si>
   <si>
-    <t>Se i clienti non ritirano i pacchi entro 14 giorni, i pacchi scadono e devi richiedere il ritiro del corriere facendo la scansione dei pacchi. Altrimenti la App non ti permetterà di eseguire altre azioni. Il corriere arriverà al tuo punto vendita per ritirare i pacchi. Non devi fare la scansione dei pacchi quando arriva il corriere, solo consegnare i pacchi</t>
-  </si>
-  <si>
     <t>Müşteriler, paketlerini 14 gün içinde teslim almazlarsa, paketin süresi dolar. O zaman kuryenin teslim alınmasını istemeniz gerekir. Kuryenin teslim alması için paketleri taramanız gerekir. Aksi takdirde, Uygulama sizi diğer görevlerden alıkoyacaktır. Teslimat şoförü, kargoları almak için mağazanıza varacaktır. Kurye vardığında kuryenin size ileteceği R ile başlayan kodu Kuryeye İade menüsü üzerinden girmeniz ve paketleri sürücüye vermeniz yeterlidir.</t>
   </si>
   <si>
-    <t>Se i pacchi scadono, sarà visualizzata una notifica</t>
-  </si>
-  <si>
     <t>Paketlerin süresi dolarsa, ana ekranda bir bildirim görünecektir.</t>
   </si>
   <si>
-    <t>Clicca sulla notifica e scansione i pacchi. Devi scansionare i pacchi scaduti entro 2 ore dalla notifica. Poi attendi l'arrivo del corriere, normalmente entro 1-2 giorni</t>
-  </si>
-  <si>
     <t>Bildirime tıklayın ve paketleri Gönderi Takip No'ları üzerinden tarayın. Bildirim göründükten sonra 2 saat içinde süresi dolan paketleri taramanız gerekir.Şimdi bir kurye gelene kadar bekleyin (genellikle 1-2 gün).</t>
   </si>
   <si>
@@ -1384,18 +1309,12 @@
     <t>Tap on the reminder to scan in expired parcels (customer abandoned parcels). </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Klicken Sie auf die Erinnerung auf Ihrem Bildschirm zu nicht abgeholten Paketen. </t>
-  </si>
-  <si>
     <t>Seleziona la notifica per avviare la scansione dei pacchi scaduti perché  non ritirati dal cliente (abbandonati)</t>
   </si>
   <si>
     <t>Süresi dolan paketleri (müşterinin 14 gün içerisinde teslim almadığı paketler) taramak için hatırlatıcıya dokunun.</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Wählen Sie das fehlende Paket aus. </t>
-  </si>
-  <si>
     <t>Seleziona il pacco mancante dalla lista sotto</t>
   </si>
   <si>
@@ -1405,9 +1324,6 @@
     <t>Click on ‘Unable to find’. </t>
   </si>
   <si>
-    <t xml:space="preserve">3. Klicken Sie auf „Nicht gefunden”. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Seleziona "Non riesco a trovarlo" </t>
   </si>
   <si>
@@ -1426,9 +1342,6 @@
     <t xml:space="preserve">To support the in-store operation of Amazon Hub Counter, Amazon has a Store Support Line to assist you with Application, Device and Delivery issues. </t>
   </si>
   <si>
-    <t xml:space="preserve">Der Amazon Hub Counter Support richtet sich dediziert an Sie als Amazon Hub Counter Service. Unsere Mitarbeiter helfen Ihnen mit Rat und Tat zur Seite und Unterstützen Sie bei Fragen rund um die Prozesse in der App, Ihres Geräts oder Anlieferungsschwierigkeiten. </t>
-  </si>
-  <si>
     <t>Amazon Hub Counter'ın mağaza içi işlemlerini desteklemek için Amazon'un Uygulama, Cihaz ve Teslimat konularında size yardımcı olacak bir Mağaza Destek Hattı vardır.</t>
   </si>
   <si>
@@ -1454,9 +1367,6 @@
   </si>
   <si>
     <t>Navigieren Sie bis zum Ende der Seite. </t>
-  </si>
-  <si>
-    <t>Vai alle Q&amp;A per saperne di più</t>
   </si>
   <si>
     <t>Daha fazla bilgi edinmek için Soru ve Cevap bölümlerinde ilerleyin</t>
@@ -1627,19 +1537,439 @@
     <t>Lütfen yukarıda ana hatlarıyla belirtildiği gibi müşteri teslimatı için normal süreci izleyin.</t>
   </si>
   <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Assistance au point de retrait</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le service Amazon Counter ?</t>
+  </si>
+  <si>
+    <t>Come funziona il servizio Amazon Counter?</t>
+  </si>
+  <si>
+    <t>L'emplacement de votre commerce fournit un service d'Amazon qui permet aux clients d'expédier des commandes dans votre commerce et de les récupérer. Vous apprendrez ici comment utiliser l'application, comment obtenir de l'aide et comment fournir un service de qualité à vos clients.</t>
+  </si>
+  <si>
+    <t>Résumé de la formation</t>
+  </si>
+  <si>
+    <t>So funktioniert der Service</t>
+  </si>
+  <si>
+    <t>Comment fonctionne le service</t>
+  </si>
+  <si>
+    <t>Livraison effectuée par le transporteur</t>
+  </si>
+  <si>
+    <t>Retrait du colis par le client</t>
+  </si>
+  <si>
+    <t>Retrait des colis par le transporteur</t>
+  </si>
+  <si>
+    <t>Comment obtenir de l'aide</t>
+  </si>
+  <si>
+    <t>Come ricevere assistenza</t>
+  </si>
+  <si>
+    <t>Comment offrir le meilleur service possible au client</t>
+  </si>
+  <si>
+    <t>Comment vérifier que les colis sont bien attendus</t>
+  </si>
+  <si>
+    <t>Questions fréquentes</t>
+  </si>
+  <si>
+    <t>Domande frequenti</t>
+  </si>
+  <si>
+    <t>Les principaux points à retenir</t>
+  </si>
+  <si>
+    <t>Scannez chaque colis dès sa réception</t>
+  </si>
+  <si>
+    <t>Mettez régulièrement à jour vos horaires d'ouverture afin que les clients et les livreurs sachent quand vous rendre visite.</t>
+  </si>
+  <si>
+    <t>Assurez-vous que votre appareil est chargé, connecté au Wi-Fi et toujours à votre portée.</t>
+  </si>
+  <si>
+    <t>Un livreur se rendra dans votre magasin pour livrer les colis des clients Amazon qui vous ont choisi comme lieu de retrait. Lorsque le livreur vous remet le colis, vous devez scanner les étiquettes de chaque colis. Veuillez scanner les colis livrés dès que possible. Votre scan envoie une notification au client. Le client dispose de 14 jours pour retirer le colis.</t>
+  </si>
+  <si>
+    <t>Que dois-je faire ? Veuillez suivre les étapes suivantes sur l'application Amazon ci-dessous :</t>
+  </si>
+  <si>
+    <t>Sélectionnez "Livraison transporteur" sur l'écran d'accueil et choisissez Amazon.</t>
+  </si>
+  <si>
+    <t>Bitte scannen Sie Pakete direkt nach der Anlieferung ein. Klicken Sie hierzu auf "Pakete jetzt scannen".</t>
+  </si>
+  <si>
+    <t>Veuillez scanner les colis dès que possible après leur livraison. Cliquez sur "Scanner les colis maintenant".</t>
+  </si>
+  <si>
+    <t>Scannez tous les colis en plaçant chaque étiquette de colis dans le cadre de numérisation. Vous pouvez le tester en cliquant sur le cadre de numérisation ci-dessous. Vous pouvez vérifier si les colis sont scannés si la case à cocher est bleue. Cliquez une nouvelle fois sur le cadre de numérisation une fois que vous avez terminé.</t>
+  </si>
+  <si>
+    <t>Scansiona tutti i pacchi inquadrando l'etichetta del pacco con la camera. I pacchi scansionati con successo hanno una spunta blu. Quando hai finito, clicca ancora per uscire</t>
+  </si>
+  <si>
+    <t>Stockez les colis dans un endroit sûr et structuré afin de pouvoir les récupérer facilement à l'arrivée du client.</t>
+  </si>
+  <si>
+    <t>Riponi i pacchi ricevuti in un luogo sicuro e accessibile per ritrovarli facilmente quando arriverà il cliente</t>
+  </si>
+  <si>
+    <t>Que faire si je suis occupé ?</t>
+  </si>
+  <si>
+    <t>Les colis livrés doivent être scannés dans les 30 minutes après leur réception.</t>
+  </si>
+  <si>
+    <t>I pacchi ricevuti devono essere scansionati entro 30 minuti dalla ricezione</t>
+  </si>
+  <si>
+    <t>Si vous choisissez de reporter le scan des colis, il vous sera demandé de confirmer votre choix et le délai de 30 minutes vous sera alors rappelé.</t>
+  </si>
+  <si>
+    <t>Se scegli di ritardare la scansione, ti verrà chiesto di confermare la scelta e ti verrà ricordato il limite massimo di 30 minuti per completarla</t>
+  </si>
+  <si>
+    <t>Une fois que le délai de 30 minutes a expiré, vous devez scanner les colis immédiatement. Tant que les colis n'auront pas été scannés, vous ne pourrez pas accéder à d'autres fonctionnalités de l'application Amazon Hub Counter.</t>
+  </si>
+  <si>
+    <t>Allo scadere dei 30 minuti, devi eseguire la scansione dei pacchi ricevuti. Finché la scansione di tutti i pacchi ricevuti non é completata, non sarà possibile utilizzare nessuna altra funzionalità della App Amazon</t>
+  </si>
+  <si>
+    <t>Que faire si j'ai des difficultés à scanner les colis ?</t>
+  </si>
+  <si>
+    <t>Veuillez reprendre le processsus de réception des colis jusqu'à ce que le cadre de numérisation apparaisse. Cliquez maintenant sur les colis figurant EN DESSOUS du cadre de numérisation.</t>
+  </si>
+  <si>
+    <t>Seleziona Consegna Corriere e clicca sui pacchi elencati sotto la finestra di scansione </t>
+  </si>
+  <si>
+    <t>Cliquez maintenant sur "Scan impossible" et entrez le numéro de suivi du colis.</t>
+  </si>
+  <si>
+    <t>Le numéro de suivi commence généralement par QC et contient 12 chiffres au total. Cliquez sur la case vide et commencez à taper le numéro de suivi.</t>
+  </si>
+  <si>
+    <t>Il tracking ID inizia di solito con BA, BB, o 166. Clicca sul campo di inserimento e digita il tracking ID</t>
+  </si>
+  <si>
+    <t>Bitte üben Sie die durchzuführenden Schritte ein drittes Mal, bis der Scanrahmen angezeitg wird. Klicken Sie auf das Symbol, welches einer Tastatur ähnelt. Dies ist eine weitere Option, die Paket ID manuell einzugeben.</t>
+  </si>
+  <si>
+    <t>Reprenez une troisième fois le processus de réception des colis et continuez jusqu'à ce que le cadre de numérisation apparaisse. Veuillez alors cliquer sur l'icône ressemblant à un clavier. Il s'agit d'un moyen alternatif de saisir manuellement l'identifiant de suivi.</t>
+  </si>
+  <si>
+    <t>Seleziona Consegna Corriere e nella finestra di scansione clicca sull'icona della tastiera. E' un modo alternativo per inserire il tracking ID a mano </t>
+  </si>
+  <si>
+    <t>Si le problème persiste, vérifiez si votre téléphone est connecté au réseau (et non pas en mode avion), cliquez sur l'icône du flash si la luminosité est trop faible et essayez à nouveau de scanner le code barre. Si cela ne fonctionne pas, veuillez contacter l'assistance comme indiqué ci-dessous ("Comment obtenir de l'aide").</t>
+  </si>
+  <si>
+    <t>//invis.io/NX10OLEBWH2Y</t>
+  </si>
+  <si>
+    <t>//invis.io/BG10Z5M4C8K9</t>
+  </si>
+  <si>
+    <t>Un client Amazon se présentera au magasin pour prendre ou récupérer son ou ses colis. Le client vous montrera une notification, qui comprend 1) un code-barres et 2) un code numérique à 6 chiffres. Vous devez scanner le code barre, trouver le colis et le scanner avant de le remettre au client. Vous devez scanner le code de retrait de chaque client ET le colis. Cela supprimera le colis de votre inventaire et celui-ci ne sera plus sous votre responsabilité.</t>
+  </si>
+  <si>
+    <t>Quando il cliente Amazon si presenta al punto vendita per il ritiro dei propri pacchi, dovrà mostrare la notifica ricevuta. Questa include 1) Un codice a barre e 2) Un codice numerico a 6 cifre. Devi prima scansionare il codice a barre del cliente, poi prendere il pacco. Infine devi scansionare il codice a barre del pacco prima di consegnarlo. Devi scansionare ogni codice ritiro del cliente e ogni codice a barre dei pacchi da consegnare, in modo da cancellarli dal tuo inventario e responsabilità  </t>
+  </si>
+  <si>
+    <t>Sélectionnez "Remise d'un colis au client" sur l'écran d'accueil.</t>
+  </si>
+  <si>
+    <t>Scannez le code barre de retrait du client. Si vous avez lu ceci, cliquez sur le cadre de numérisation pour continuer.</t>
+  </si>
+  <si>
+    <t>Récupérez les colis disponibles pour le client comme indiqué dans la liste et sélectionnez "Scanner les colis". Cliquez sur "Scanner les colis".</t>
+  </si>
+  <si>
+    <t>Identifica nella lista mostrata i pacchi del cliente disponibili al ritiro e seleziona "Scansiona i pacchi". Clicca su “Scansiona i pacchi”</t>
+  </si>
+  <si>
+    <t>Scannez toutes les colis en plaçant chaque étiquette du colis dans le cadre. Cliquez à nouveau sur le cadre de numérisation.</t>
+  </si>
+  <si>
+    <t>Wenn Sie alle Pakete gescannt haben, übergeben Sie diese an den Kunden.</t>
+  </si>
+  <si>
+    <t>Remettez maintenant tous les colis au client.</t>
+  </si>
+  <si>
+    <t>Seleziona “Ritiro cliente” nella schermata principale</t>
+  </si>
+  <si>
+    <t>Cliquez sur "Saisir le code de retrait" pour saisir le code de retrait à 6 chiffres au lieu de scanner le code-barre. Veuillez cliquer sur l'écran.</t>
+  </si>
+  <si>
+    <t>Cliquez sur la taille du colis (par exemple, "petite taille") au lieu de cliquer sur le cadre de numérisation.</t>
+  </si>
+  <si>
+    <t>Cliquez maintenant sur "Scan impossible".</t>
+  </si>
+  <si>
+    <t>Vous pouvez saisir manuellement le numéro de suivi du colis. Le bouton "Terminer" apparaît alors et vous remettez tous les colis au client.</t>
+  </si>
+  <si>
+    <t>Puoi inserire il tracking ID a mano. Quando l'ID e' riconosciuto, appare "Fatto" e puoi consegnare il pacco al cliente</t>
+  </si>
+  <si>
+    <t>Que faire si le colis est introuvable ou si le client ne veut pas du colis ?</t>
+  </si>
+  <si>
+    <t>Che fare se il pacco non si trova o il cliente non vuole ritirarlo?</t>
+  </si>
+  <si>
+    <t>Si le cadre de numérisation apparaît, ne scannez PAS le colis.</t>
+  </si>
+  <si>
+    <t>Se appare la finestra di scansione, NON fare la scansione del pacco</t>
+  </si>
+  <si>
+    <t>Cliquez maintenant sur la taille du colis affichée à l'écran (par exemple, "petite taille").</t>
+  </si>
+  <si>
+    <t>Clicca sulla dimensione del pacco (per esempio "Busta piccola")</t>
+  </si>
+  <si>
+    <t>Vous pouvez choisir "colis introuvable" ou "refusé".</t>
+  </si>
+  <si>
+    <t>Puoi scegliere fra "Non lo trovo" o "Respinto"</t>
+  </si>
+  <si>
+    <t>Retrait des colis par le livreur</t>
+  </si>
+  <si>
+    <t>Si les clients ne récupèrent pas leur colis dans les 14 jours, le colis expire. Vous devez alors demander l'enlèvement par un livreur. Vous devez scanner les colis pour que le livreur vienne les chercher. Autrement, l'application vous empêchera d'effectuer d'autres tâches. Un livreur se rendra dans votre magasin pour récupérer les colis. Vous n'avez pas besoin de scanner les colis à l'arrivée du livreur - il suffit de les lui remettre.</t>
+  </si>
+  <si>
+    <t>Se i clienti non ritirano i pacchi entro 14 giorni, i pacchi sono considerati scaduti o abbandonati. Devi richiedere il ritiro del corriere facendone la scansione, altrimenti la App non ti permetterà di eseguire altre azioni. Il corriere arriverà al tuo punto vendita per ritirare i pacchi scaduti. Non devi fare la scansione dei pacchi quando arriva il corriere, solo consegnare i pacchi</t>
+  </si>
+  <si>
+    <t>Si les colis arrivent à expiration, une notification apparaît sur l'écran principal.</t>
+  </si>
+  <si>
+    <t>Quando i pacchi superano il periodo massimo di giacenza di 14 giorni, viene visualizzata una notifica</t>
+  </si>
+  <si>
+    <t>Scannen Sie die Pakete ein, indem Sie jedes Paketetikett in den Scanrahmen platzieren. Wenn Sie alle Pakete eingescannt haben, erscheint der Bildschirm „Fertig“. In 1-2 Tagen wird das Paket abgeholt.</t>
+  </si>
+  <si>
+    <t>Cliquez sur la notification et scannez les colis. Vous devez scanner les colis arrivés à expiration dans les deux heures qui suivent l'apparition de la notification, puis attendre l'arrivée d'un livreur (généralement sous 1 à 2 jours).</t>
+  </si>
+  <si>
+    <t>Clicca sulla notifica e scansiona i pacchi. Devi scansionare i pacchi scaduti entro 2 ore dalla notifica. Poi attendi l'arrivo del corriere, normalmente entro 1-2 giorni</t>
+  </si>
+  <si>
+    <t>Wenn der Fahrer ankommt, klicken Sie auf "Abholung durch den Fahrer". Suchen Sie nun die Pakete auf der Liste und geben Sie diese dem Fahrer.</t>
+  </si>
+  <si>
+    <t>Lorsqu'un livreur arrive, sélectionnez "Reprise des colis par le transporteur" sur l'écran d'accueil. Trouvez les colis figurant dans la liste et remettez-les au livreur.</t>
+  </si>
+  <si>
+    <t>Que faire si le colis est introuvable ?</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf die Erinnerung auf Ihrem Bildschirm zu nicht abgeholten Paketen. </t>
+  </si>
+  <si>
+    <t>Cliquez sur le rappel pour scanner les colis arrivés à expiration (colis abandonnés par les clients).</t>
+  </si>
+  <si>
+    <t>Wählen Sie das fehlende Paket aus. </t>
+  </si>
+  <si>
+    <t>Sélectionnez le colis manquant et cliquez sur le colis.</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf „Nicht gefunden”. </t>
+  </si>
+  <si>
+    <t>Cliquez sur "Colis introuvable".</t>
+  </si>
+  <si>
+    <t>Bitte bestätigen Sie, dass das Paket fehlt.</t>
+  </si>
+  <si>
+    <t>Confirmez que vous ne trouvez pas le colis en cliquant sur "Ok".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Amazon Hub Counter Support richtet sich dediziert an Sie als Amazon Hub Counter Service. Unsere Mitarbeiter helfen Ihnen mit Rat und Tat zur Seite und unterstützen Sie bei Fragen rund um die Prozesse in der App, Ihres Geräts oder Anlieferungsschwierigkeiten. </t>
+  </si>
+  <si>
+    <t>Afin d'assurer le bon fonctionnement du programme Amazon Hub Counter, Amazon dispose d'une assistance en ligne destinée à vous aider à résoudre les problèmes liés à l'application, aux téléphones et à la livraison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon fornisce un servizio di assistenza per aiutarti a risolvere problemi con la App, il dispositivo di scansione o la consegna </t>
+  </si>
+  <si>
+    <t>Vous obtiendrez de l'aide de la part d'Amazon en cliquant sur "?".</t>
+  </si>
+  <si>
+    <t>Des conseils et des explications utiles concernant le service apparaitront à l'écran.</t>
+  </si>
+  <si>
+    <t>Faites défiler les questions-réponses pour en savoir plus.</t>
+  </si>
+  <si>
+    <t>Vai alle domande ricorrenti per saperne di più</t>
+  </si>
+  <si>
+    <t>Falls Sie keine ausreichende Hilfestellung finden, kontaktieren Sie bitte den Amazon Support (Klicken Sie hierzu ganz unten auf "Wenden Sie sich an den Support").</t>
+  </si>
+  <si>
+    <t>Vous pouvez demander un support technique si vous ne trouvez pas de réponse adéquate. Cliquez sur «Contacter l'assistance».</t>
+  </si>
+  <si>
+    <t>Entrez votre numéro de téléphone et cliquez sur "Appelez-moi maintenant".</t>
+  </si>
+  <si>
+    <t>Es ist wichtig für Amazon und sicher auch Sie einen ausgzeichneten Service für Ihre Kunden anzubieten. Amazon hat hierfür ein Programm ("Performance Improvement Plan - PIP") gegründet, um Ihnen bei Problemen Sicherheit und Unterstützung bieten zu können. Der Plan ist ein 3-monatiges Programm und wird sie in 2 Bereichen unterstützen. Diese sind Anlieferung durch Fahrer (zur Vermeidung von fehlenden Scans/verspäteten Lieferungen) sowie Paketscans (zur Vermeidung von fehlenden Paketen).</t>
+  </si>
+  <si>
+    <t>Il est important pour Amazon et sûrement pour vous aussi de fournir un excellent service à vos clients. Amazon a créé un programme dédié appelé Plan d'Amélioration des Performances (PAP) pour vous aider à gérer les difficultés et à améliorer votre service. Il s'agit d'un programme de 3 mois qui consiste à vous guider sur 2 axes d'amélioration de la performance dans le but d'améliorer votre expérience liée à la collecte des colis pour les clients. Les domaines d'intervention sont la livraison des colis (éviter les livraisons manquantes / tardives) et la numérisation des colis (éviter les scans manquants):</t>
+  </si>
+  <si>
+    <t>Scans manquants: Scanner rapidement tous les colis est essentiel pour que les clients sachent que leur colis est arrivé. Votre "conformité de numérisation" individuelle mesure le pourcentage de colis scannés le jour même de leur livraison.</t>
+  </si>
+  <si>
+    <t>Livraison réussie: Une livraison rapide est primordiale afin d'améliorer l'expérience client. Il est important que vous métiez régulièrement à jour vos horaires d'ouverture afin que les livreurs se présentent lorsque votre magasin est ouvert et que vous soyez disponible pour scanner les colis livrés.</t>
+  </si>
+  <si>
+    <t>Cliquez ici pour en savoir plus sur le Plan d'Amélioration des Performances (le lien sera bientôt disponible)</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que l'inventaire des colis ?</t>
+  </si>
+  <si>
+    <t>L'inventaire fait référence aux colis qui sont en cours de livraison dans votre magasin ou qui ont déjà été livrés dans votre magasin, mais qui n'ont pas encore été récupérés par les clients Amazon ou par un livreur pour les colis qui n'ont jamais été récupérés dans le délai imparti. Les colis en stock doivent être stockés dans un endroit sûr et sécurisé, hors de vue et de portée des clients. Les placards, armoires et les tiroirs situés à proximité de l'endroit où les clients règlent leurs articles sont les meilleurs endroits pour stocker les colis.</t>
+  </si>
+  <si>
+    <t>Cliquez sur l'icône en haut à gauche du menu.</t>
+  </si>
+  <si>
+    <t>Clicca sull'icona nel menu in alto a sinistra</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf „Lagerbestand” und überprüfen so die aktuelle Zahl an Paketen vor Ort in Ihrer Filiale.</t>
+  </si>
+  <si>
+    <t>Si vous cliquez sur "Inventaire", vous pouvez voir le nombre actuel de coliss dans votre boutique</t>
+  </si>
+  <si>
+    <t>Selezionando "Inventario", puoi vedere il numero dei pacchi presenti al momento nel tuo punto vendita</t>
+  </si>
+  <si>
+    <t>Cliquez sur "Sync" pour mettre à jour le statut des colis actuels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premi "Sync" per aggiornare lo stato dei pacchi </t>
+  </si>
+  <si>
+    <t>Si vous souhaitez voir le numéro de suivi, vous pouvez cliquer sur le nom du client. Le numéro de suivi ainsi que le numéro du colis s'affichent.</t>
+  </si>
+  <si>
+    <t>Se vuoi vedere il tracking ID, seleziona il nokme del cliente. Verranno mostrati il tracking ID e l'ID del pacco</t>
+  </si>
+  <si>
+    <t>FAQ - Questions fréquentes</t>
+  </si>
+  <si>
+    <t>Domande ricorrenti</t>
+  </si>
+  <si>
+    <t>J'ai oublié mo,n identifiant et mon mot de passe, que dois-je faire ?</t>
+  </si>
+  <si>
+    <t>Ho dimenticato il nome utente e la ssword della app, cosa devo fare?forgot my username and password, what do I do?</t>
+  </si>
+  <si>
+    <t>Veuillez contacter le service d'assistance d'Amazon en cliquant sur le " ?" (en haut à droite), faites défiler la page jusqu'à la fin et demandez de l'aide.</t>
+  </si>
+  <si>
+    <t>Contatta il servizio assistenza Amazon, premendo "?" (in alto a destra), e richiedendo supporto in fondo alla pagina di aiuto scroll down at the end of the help page and request support.</t>
+  </si>
+  <si>
+    <t>Que faire si le transporteur tente de livrer un colis qui semble endommagé ?</t>
+  </si>
+  <si>
+    <t>Che fare se il corriere cerca di consegnare un pacco che appare danneggiato?</t>
+  </si>
+  <si>
+    <t>Si possible, ne scannez pas le colis endommagé et refusez-le en le rendant au chauffeur. Le chauffeur renverra le colis au dépôt et le client sera remboursé.</t>
+  </si>
+  <si>
+    <t>Se possibile, non scansione il pacco danneggiato e rifiutalo, restituendolo al corriere. Il corriere riporterà il pacco al magazziono e il cliente verrà rimborsatodo not scan in the damaged parcel and reject it by giving it back to the driver. The driver will return the parcel to the depot and the customer will receive a refund.</t>
+  </si>
+  <si>
+    <t>Dois-je vérifier l'identité du client ?</t>
+  </si>
+  <si>
+    <t>Devo controllare il customer ID?</t>
+  </si>
+  <si>
+    <t>Non, les clients doivent seulement présenter leur code de retrait pour récupérer leur colis.</t>
+  </si>
+  <si>
+    <t>No, e' sufficiente che i clienti forniscano il loro codice di ritiro per ricevere i loro pacchi</t>
+  </si>
+  <si>
+    <t>Que dois-je faire si un client n'a pas de code de retrait ?</t>
+  </si>
+  <si>
+    <t>Si le client ne trouve pas son code de retrait, suivez les conseils suivants : Vérifiez l'e-mail : Le code de retrait se trouve dans un e-mail de la rubrique "notifications de livraison". Demandez de l'aide : Demandez au client de contacter le service client en sélectionnant " Contactez-nous " sur le site Web ou l'application mobile d'Amazon. Un conseiller du service client d'Amazon peut renvoyer le code d'enlèvement lorsque le client peut vérifier son compte.</t>
+  </si>
+  <si>
+    <t>Que faire si le téléphone est perdu, volé ou cassé ?</t>
+  </si>
+  <si>
+    <t>Que faire si l'application ne fonctionne pas ?</t>
+  </si>
+  <si>
+    <t>Que faire si je manque d'espace pour stocker les colis ?</t>
+  </si>
+  <si>
+    <t>Que faire si j'ai des colis arrivés à expiration qui attendent l'enlèvement par le transporteur depuis plusieurs jours ?</t>
+  </si>
+  <si>
+    <t>Les colis expirent au bout de 14 jours. Veuillez prévoir quelques jours pour que le transporteur vienne les chercher. Veuillez contacter le service d'assistance d'Amazon en cliquant sur le " ?" (en haut à droite), en faisant défiler la page vers le bas, si un colis n'est pas enlevé dans les 3 jours.</t>
+  </si>
+  <si>
+    <t>Que se passe-t-il si j'ai des colis arrivés à expiration en attente d'enlèvement par le transporteur, mais que le client arrive pour enlever le colis ?</t>
+  </si>
+  <si>
+    <t>Veuillez suivre la procédure habituelle de retrait par le client décrite ci-dessus.</t>
+  </si>
+  <si>
+    <t>Olist-element-1-1</t>
+  </si>
+  <si>
     <t>Olist-element-1-2</t>
   </si>
   <si>
     <t>Olist-element-1-5</t>
   </si>
   <si>
+    <t>Olist-element-1-3</t>
+  </si>
+  <si>
     <t>Olist-element-1-4</t>
-  </si>
-  <si>
-    <t>Olist-element-1-3</t>
-  </si>
-  <si>
-    <t>Olist-element-1-1</t>
   </si>
 </sst>
 </file>
@@ -2031,25 +2361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="45.8984375" customWidth="1"/>
-    <col min="2" max="2" width="29.296875" customWidth="1"/>
-    <col min="3" max="3" width="26.296875" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="29.296875" customWidth="1"/>
-    <col min="7" max="7" width="31.796875" customWidth="1"/>
-    <col min="8" max="8" width="44.296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2060,48 +2380,54 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="G1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="G2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2118,47 +2444,53 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="G4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2167,21 +2499,24 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="G5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>640</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2193,24 +2528,27 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>506</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H6" t="s">
+        <v>507</v>
+      </c>
+      <c r="G6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -2222,16 +2560,19 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="G7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2248,16 +2589,19 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H8" t="s">
+        <v>509</v>
+      </c>
+      <c r="G8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2274,18 +2618,21 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>337</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>641</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -2300,44 +2647,50 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H10" t="s">
+        <v>511</v>
+      </c>
+      <c r="G10" t="s">
+        <v>512</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>642</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="G11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>533</v>
+        <v>643</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -2352,18 +2705,21 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>532</v>
+        <v>644</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -2378,120 +2734,135 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
+        <v>515</v>
+      </c>
+      <c r="G13" t="s">
+        <v>516</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G14" t="s">
+        <v>337</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" t="s">
+        <v>518</v>
+      </c>
+      <c r="G15" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" t="s">
+        <v>519</v>
+      </c>
+      <c r="G16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G17" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" t="s">
-        <v>348</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" t="s">
-        <v>258</v>
-      </c>
-      <c r="F15" t="s">
-        <v>350</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" t="s">
-        <v>260</v>
-      </c>
-      <c r="E16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" t="s">
-        <v>353</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H16" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" t="s">
-        <v>356</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2508,16 +2879,19 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>331</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H18" t="s">
+        <v>507</v>
+      </c>
+      <c r="G18" t="s">
+        <v>321</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2534,21 +2908,24 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" t="s">
+        <v>508</v>
+      </c>
+      <c r="G19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -2557,24 +2934,27 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F20" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H20" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="G20" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -2583,24 +2963,27 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F21" t="s">
-        <v>363</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="G21" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -2609,71 +2992,80 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F22" t="s">
-        <v>366</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="G22" t="s">
+        <v>355</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>269</v>
+        <v>524</v>
       </c>
       <c r="F23" t="s">
-        <v>368</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="G23" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F24" t="s">
-        <v>371</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="G24" t="s">
+        <v>527</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2690,42 +3082,48 @@
         <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>373</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H25" t="s">
+        <v>528</v>
+      </c>
+      <c r="G25" t="s">
+        <v>529</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E26" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F26" t="s">
-        <v>376</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="G26" t="s">
+        <v>363</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2739,19 +3137,22 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F27" t="s">
-        <v>379</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H27" t="s">
+        <v>531</v>
+      </c>
+      <c r="G27" t="s">
+        <v>532</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -2768,16 +3169,19 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>381</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H28" t="s">
+        <v>533</v>
+      </c>
+      <c r="G28" t="s">
+        <v>534</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2794,16 +3198,19 @@
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>383</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="H29" t="s">
+        <v>535</v>
+      </c>
+      <c r="G29" t="s">
+        <v>536</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2817,102 +3224,114 @@
         <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F30" t="s">
-        <v>386</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H30" t="s">
+        <v>537</v>
+      </c>
+      <c r="G30" t="s">
+        <v>370</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" t="s">
+        <v>538</v>
+      </c>
+      <c r="G31" t="s">
+        <v>539</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I31" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" t="s">
+        <v>374</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" t="s">
+        <v>375</v>
+      </c>
+      <c r="F32" t="s">
+        <v>540</v>
+      </c>
+      <c r="G32" t="s">
+        <v>376</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B31" t="s">
-        <v>388</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B33" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="D31" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" t="s">
-        <v>276</v>
-      </c>
-      <c r="F31" t="s">
-        <v>389</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H31" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>277</v>
-      </c>
-      <c r="B32" t="s">
-        <v>391</v>
-      </c>
-      <c r="C32" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" t="s">
-        <v>392</v>
-      </c>
-      <c r="F32" t="s">
-        <v>393</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -2921,45 +3340,51 @@
         <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>284</v>
+        <v>543</v>
       </c>
       <c r="F34" t="s">
-        <v>400</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H34" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="G34" t="s">
+        <v>545</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D35" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F35" t="s">
-        <v>403</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H35" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="G35" t="s">
+        <v>384</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2967,13 +3392,13 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>547</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>547</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>548</v>
       </c>
       <c r="F36" t="s">
         <v>67</v>
@@ -2984,8 +3409,11 @@
       <c r="H36" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -3002,47 +3430,53 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="H37" t="s">
+        <v>509</v>
+      </c>
+      <c r="G37" t="s">
+        <v>325</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="F38" t="s">
-        <v>408</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H38" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="G38" t="s">
+        <v>550</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I38" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
@@ -3051,19 +3485,22 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F39" t="s">
-        <v>361</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H39" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="G39" t="s">
+        <v>352</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3080,16 +3517,19 @@
         <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>411</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H40" t="s">
+        <v>551</v>
+      </c>
+      <c r="G40" t="s">
+        <v>391</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3106,16 +3546,19 @@
         <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>413</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H41" t="s">
+        <v>552</v>
+      </c>
+      <c r="G41" t="s">
+        <v>393</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -3132,16 +3575,19 @@
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>415</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H42" t="s">
+        <v>553</v>
+      </c>
+      <c r="G42" t="s">
+        <v>554</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -3158,16 +3604,19 @@
         <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>417</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H43" t="s">
+        <v>555</v>
+      </c>
+      <c r="G43" t="s">
+        <v>396</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -3181,21 +3630,24 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
+        <v>556</v>
+      </c>
+      <c r="F44" t="s">
+        <v>557</v>
+      </c>
+      <c r="G44" t="s">
+        <v>398</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>91</v>
-      </c>
-      <c r="F44" t="s">
-        <v>419</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>62</v>
@@ -3207,24 +3659,27 @@
         <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F45" t="s">
-        <v>386</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H45" t="s">
+        <v>537</v>
+      </c>
+      <c r="G45" t="s">
+        <v>370</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
         <v>74</v>
@@ -3236,250 +3691,280 @@
         <v>75</v>
       </c>
       <c r="F46" t="s">
+        <v>551</v>
+      </c>
+      <c r="G46" t="s">
+        <v>558</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="D47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="E47" t="s">
+        <v>285</v>
+      </c>
+      <c r="F47" t="s">
+        <v>559</v>
+      </c>
+      <c r="G47" t="s">
+        <v>401</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" t="s">
+        <v>403</v>
+      </c>
+      <c r="F48" t="s">
+        <v>560</v>
+      </c>
+      <c r="G48" t="s">
+        <v>404</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I48" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>288</v>
+      </c>
+      <c r="B49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>273</v>
+      </c>
+      <c r="F49" t="s">
+        <v>561</v>
+      </c>
+      <c r="G49" t="s">
+        <v>406</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>290</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>408</v>
+      </c>
+      <c r="F50" t="s">
+        <v>562</v>
+      </c>
+      <c r="G50" t="s">
+        <v>563</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>291</v>
       </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" t="s">
-        <v>292</v>
-      </c>
-      <c r="F47" t="s">
-        <v>422</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H47" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" t="s">
-        <v>424</v>
-      </c>
-      <c r="F48" t="s">
-        <v>425</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H48" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" t="s">
-        <v>296</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="B51" t="s">
+        <v>410</v>
+      </c>
+      <c r="C51" t="s">
         <v>279</v>
       </c>
-      <c r="F49" t="s">
-        <v>427</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H49" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" t="s">
+        <v>546</v>
+      </c>
+      <c r="G51" t="s">
+        <v>384</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>98</v>
       </c>
-      <c r="D50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" t="s">
-        <v>429</v>
-      </c>
-      <c r="F50" t="s">
-        <v>430</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51" t="s">
-        <v>432</v>
-      </c>
-      <c r="C51" t="s">
-        <v>286</v>
-      </c>
-      <c r="D51" t="s">
-        <v>286</v>
-      </c>
-      <c r="E51" t="s">
-        <v>287</v>
-      </c>
-      <c r="F51" t="s">
-        <v>432</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H51" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>100</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
         <v>101</v>
       </c>
-      <c r="D52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>564</v>
+      </c>
+      <c r="G52" t="s">
+        <v>565</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>102</v>
       </c>
-      <c r="F52" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="H52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>104</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
         <v>105</v>
       </c>
-      <c r="D53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
+        <v>566</v>
+      </c>
+      <c r="G53" t="s">
+        <v>567</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="F53" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>108</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" t="s">
         <v>109</v>
       </c>
-      <c r="D54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>568</v>
+      </c>
+      <c r="G54" t="s">
+        <v>569</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="F54" t="s">
-        <v>108</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>112</v>
       </c>
-      <c r="C55" t="s">
-        <v>113</v>
-      </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="G55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3487,13 +3972,13 @@
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>547</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>547</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>548</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -3504,65 +3989,74 @@
       <c r="H56" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>115</v>
       </c>
-      <c r="C57" t="s">
-        <v>116</v>
-      </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>337</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="G57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>416</v>
+      </c>
+      <c r="C58" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" t="s">
+        <v>573</v>
+      </c>
+      <c r="G58" t="s">
+        <v>574</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I58" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="s">
-        <v>438</v>
-      </c>
-      <c r="C58" t="s">
-        <v>299</v>
-      </c>
-      <c r="D58" t="s">
-        <v>299</v>
-      </c>
-      <c r="E58" t="s">
-        <v>300</v>
-      </c>
-      <c r="F58" t="s">
-        <v>439</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H58" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>118</v>
-      </c>
       <c r="B59" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C59" t="s">
         <v>40</v>
@@ -3571,227 +4065,254 @@
         <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F59" t="s">
-        <v>363</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H59" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="G59" t="s">
+        <v>352</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I59" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
         <v>119</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>120</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" t="s">
         <v>121</v>
       </c>
-      <c r="D60" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>575</v>
+      </c>
+      <c r="G60" t="s">
+        <v>576</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="F60" t="s">
-        <v>441</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>124</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" t="s">
+        <v>577</v>
+      </c>
+      <c r="F61" t="s">
+        <v>578</v>
+      </c>
+      <c r="G61" t="s">
+        <v>579</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B62" t="s">
+        <v>420</v>
+      </c>
+      <c r="C62" t="s">
         <v>126</v>
       </c>
-      <c r="F61" t="s">
-        <v>443</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" t="s">
+        <v>580</v>
+      </c>
+      <c r="F62" t="s">
+        <v>581</v>
+      </c>
+      <c r="G62" t="s">
+        <v>421</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B62" t="s">
-        <v>445</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
         <v>128</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" t="s">
+        <v>582</v>
+      </c>
+      <c r="G63" t="s">
+        <v>423</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I63" t="s">
         <v>128</v>
       </c>
-      <c r="E62" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" t="s">
-        <v>446</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H62" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>131</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>425</v>
+      </c>
+      <c r="C64" t="s">
         <v>132</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>132</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
+        <v>583</v>
+      </c>
+      <c r="F64" t="s">
+        <v>584</v>
+      </c>
+      <c r="G64" t="s">
+        <v>426</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I64" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>133</v>
       </c>
-      <c r="F63" t="s">
-        <v>448</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
         <v>134</v>
       </c>
-      <c r="B64" t="s">
-        <v>450</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>135</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>135</v>
       </c>
-      <c r="E64" t="s">
-        <v>451</v>
-      </c>
-      <c r="F64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="H64" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="E65" t="s">
+        <v>585</v>
+      </c>
+      <c r="F65" t="s">
+        <v>586</v>
+      </c>
+      <c r="G65" t="s">
+        <v>428</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>136</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
+        <v>430</v>
+      </c>
+      <c r="C66" t="s">
         <v>137</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" t="s">
+        <v>587</v>
+      </c>
+      <c r="F66" t="s">
+        <v>588</v>
+      </c>
+      <c r="G66" t="s">
+        <v>431</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I66" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>138</v>
       </c>
-      <c r="D65" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" t="s">
-        <v>454</v>
-      </c>
-      <c r="F65" t="s">
-        <v>455</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B67" t="s">
         <v>139</v>
       </c>
-      <c r="B66" t="s">
-        <v>457</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>140</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>140</v>
       </c>
-      <c r="E66" t="s">
-        <v>458</v>
-      </c>
-      <c r="F66" t="s">
-        <v>459</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H66" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" t="s">
-        <v>143</v>
-      </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>589</v>
       </c>
       <c r="F67" t="s">
-        <v>461</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="G67" t="s">
+        <v>433</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3799,13 +4320,13 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>547</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>547</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>548</v>
       </c>
       <c r="F68" t="s">
         <v>67</v>
@@ -3816,10 +4337,13 @@
       <c r="H68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
         <v>27</v>
@@ -3834,1003 +4358,1114 @@
         <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>339</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H69" t="s">
+        <v>511</v>
+      </c>
+      <c r="G69" t="s">
+        <v>512</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" t="s">
+        <v>591</v>
+      </c>
+      <c r="F70" t="s">
+        <v>592</v>
+      </c>
+      <c r="G70" t="s">
+        <v>593</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I70" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
         <v>146</v>
       </c>
-      <c r="B70" t="s">
-        <v>464</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" t="s">
+        <v>438</v>
+      </c>
+      <c r="F71" t="s">
+        <v>594</v>
+      </c>
+      <c r="G71" t="s">
+        <v>439</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>147</v>
       </c>
-      <c r="D70" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" t="s">
-        <v>465</v>
-      </c>
-      <c r="F70" t="s">
-        <v>464</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H70" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B72" t="s">
+        <v>441</v>
+      </c>
+      <c r="C72" t="s">
         <v>148</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" t="s">
+        <v>442</v>
+      </c>
+      <c r="F72" t="s">
+        <v>595</v>
+      </c>
+      <c r="G72" t="s">
+        <v>443</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I72" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>149</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B73" t="s">
         <v>150</v>
       </c>
-      <c r="D71" t="s">
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" t="s">
+        <v>445</v>
+      </c>
+      <c r="F73" t="s">
+        <v>596</v>
+      </c>
+      <c r="G73" t="s">
+        <v>597</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I73" t="s">
         <v>150</v>
       </c>
-      <c r="E71" t="s">
-        <v>467</v>
-      </c>
-      <c r="F71" t="s">
-        <v>468</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" t="s">
-        <v>470</v>
-      </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>152</v>
       </c>
-      <c r="D72" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" t="s">
-        <v>471</v>
-      </c>
-      <c r="F72" t="s">
-        <v>472</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H72" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" t="s">
+        <v>295</v>
+      </c>
+      <c r="E74" t="s">
+        <v>598</v>
+      </c>
+      <c r="F74" t="s">
+        <v>599</v>
+      </c>
+      <c r="G74" t="s">
+        <v>447</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I74" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>153</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>154</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>155</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D75" t="s">
         <v>155</v>
       </c>
-      <c r="E73" t="s">
-        <v>474</v>
-      </c>
-      <c r="F73" t="s">
-        <v>475</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="E75" t="s">
+        <v>449</v>
+      </c>
+      <c r="F75" t="s">
+        <v>600</v>
+      </c>
+      <c r="G75" t="s">
+        <v>450</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I75" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" t="s">
+        <v>452</v>
+      </c>
+      <c r="C76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" t="s">
+        <v>513</v>
+      </c>
+      <c r="G76" t="s">
+        <v>331</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I76" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" t="s">
+        <v>453</v>
+      </c>
+      <c r="C77" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" t="s">
+        <v>298</v>
+      </c>
+      <c r="E77" t="s">
+        <v>601</v>
+      </c>
+      <c r="F77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G77" t="s">
+        <v>453</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I77" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" t="s">
+        <v>301</v>
+      </c>
+      <c r="D78" t="s">
+        <v>301</v>
+      </c>
+      <c r="E78" t="s">
+        <v>302</v>
+      </c>
+      <c r="F78" t="s">
+        <v>603</v>
+      </c>
+      <c r="G78" t="s">
+        <v>300</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I78" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" t="s">
+        <v>305</v>
+      </c>
+      <c r="E79" t="s">
+        <v>306</v>
+      </c>
+      <c r="F79" t="s">
+        <v>604</v>
+      </c>
+      <c r="G79" t="s">
+        <v>304</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" t="s">
+        <v>309</v>
+      </c>
+      <c r="D80" t="s">
+        <v>309</v>
+      </c>
+      <c r="E80" t="s">
+        <v>310</v>
+      </c>
+      <c r="F80" t="s">
+        <v>605</v>
+      </c>
+      <c r="G80" t="s">
+        <v>308</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I80" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>156</v>
       </c>
-      <c r="B74" t="s">
-        <v>301</v>
-      </c>
-      <c r="C74" t="s">
-        <v>302</v>
-      </c>
-      <c r="D74" t="s">
-        <v>302</v>
-      </c>
-      <c r="E74" t="s">
-        <v>303</v>
-      </c>
-      <c r="F74" t="s">
-        <v>477</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H74" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B81" t="s">
         <v>157</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C81" t="s">
         <v>158</v>
       </c>
-      <c r="C75" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" t="s">
-        <v>479</v>
-      </c>
-      <c r="F75" t="s">
-        <v>480</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="D81" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>304</v>
-      </c>
-      <c r="B76" t="s">
-        <v>482</v>
-      </c>
-      <c r="C76" t="s">
-        <v>250</v>
-      </c>
-      <c r="D76" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" t="s">
-        <v>251</v>
-      </c>
-      <c r="F76" t="s">
-        <v>342</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H76" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>305</v>
-      </c>
-      <c r="B77" t="s">
-        <v>483</v>
-      </c>
-      <c r="C77" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" t="s">
-        <v>307</v>
-      </c>
-      <c r="F77" t="s">
-        <v>483</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H77" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>308</v>
-      </c>
-      <c r="B78" t="s">
-        <v>309</v>
-      </c>
-      <c r="C78" t="s">
-        <v>310</v>
-      </c>
-      <c r="D78" t="s">
-        <v>310</v>
-      </c>
-      <c r="E78" t="s">
-        <v>311</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H78" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>312</v>
-      </c>
-      <c r="B79" t="s">
-        <v>313</v>
-      </c>
-      <c r="C79" t="s">
-        <v>314</v>
-      </c>
-      <c r="D79" t="s">
-        <v>314</v>
-      </c>
-      <c r="E79" t="s">
-        <v>315</v>
-      </c>
-      <c r="F79" t="s">
-        <v>313</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H79" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>316</v>
-      </c>
-      <c r="B80" t="s">
-        <v>317</v>
-      </c>
-      <c r="C80" t="s">
-        <v>318</v>
-      </c>
-      <c r="D80" t="s">
-        <v>318</v>
-      </c>
-      <c r="E80" t="s">
-        <v>319</v>
-      </c>
-      <c r="F80" t="s">
-        <v>317</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H80" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" t="s">
-        <v>162</v>
       </c>
       <c r="E81" t="s">
         <v>32</v>
       </c>
       <c r="F81" t="s">
+        <v>514</v>
+      </c>
+      <c r="G81" t="s">
+        <v>458</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
+        <v>606</v>
+      </c>
+      <c r="G82" t="s">
+        <v>460</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" t="s">
+        <v>166</v>
+      </c>
+      <c r="F83" t="s">
+        <v>607</v>
+      </c>
+      <c r="G83" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
+        <v>463</v>
+      </c>
+      <c r="C84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" t="s">
+        <v>168</v>
+      </c>
+      <c r="E84" t="s">
+        <v>464</v>
+      </c>
+      <c r="F84" t="s">
+        <v>608</v>
+      </c>
+      <c r="G84" t="s">
+        <v>609</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I84" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" t="s">
+        <v>610</v>
+      </c>
+      <c r="F85" t="s">
+        <v>611</v>
+      </c>
+      <c r="G85" t="s">
+        <v>612</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>467</v>
+      </c>
+      <c r="C86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="s">
+        <v>468</v>
+      </c>
+      <c r="F86" t="s">
+        <v>613</v>
+      </c>
+      <c r="G86" t="s">
+        <v>614</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I86" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>470</v>
+      </c>
+      <c r="C87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" t="s">
+        <v>471</v>
+      </c>
+      <c r="F87" t="s">
+        <v>615</v>
+      </c>
+      <c r="G87" t="s">
+        <v>616</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I87" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" t="s">
+        <v>617</v>
+      </c>
+      <c r="G88" t="s">
+        <v>618</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E89" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" t="s">
+        <v>619</v>
+      </c>
+      <c r="G89" t="s">
+        <v>620</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I89" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" t="s">
+        <v>475</v>
+      </c>
+      <c r="F90" t="s">
+        <v>621</v>
+      </c>
+      <c r="G90" t="s">
+        <v>622</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" t="s">
+        <v>623</v>
+      </c>
+      <c r="G91" t="s">
+        <v>624</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" t="s">
+        <v>478</v>
+      </c>
+      <c r="F92" t="s">
+        <v>625</v>
+      </c>
+      <c r="G92" t="s">
+        <v>626</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" t="s">
+        <v>196</v>
+      </c>
+      <c r="D93" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F93" t="s">
+        <v>627</v>
+      </c>
+      <c r="G93" t="s">
+        <v>628</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" t="s">
+        <v>201</v>
+      </c>
+      <c r="F94" t="s">
+        <v>629</v>
+      </c>
+      <c r="G94" t="s">
+        <v>630</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" t="s">
+        <v>631</v>
+      </c>
+      <c r="G95" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I95" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" t="s">
+        <v>483</v>
+      </c>
+      <c r="F96" t="s">
+        <v>632</v>
+      </c>
+      <c r="G96" t="s">
+        <v>207</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" t="s">
+        <v>212</v>
+      </c>
+      <c r="F97" t="s">
+        <v>633</v>
+      </c>
+      <c r="G97" t="s">
+        <v>210</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" t="s">
+        <v>486</v>
+      </c>
+      <c r="F98" t="s">
+        <v>621</v>
+      </c>
+      <c r="G98" t="s">
+        <v>185</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I98" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" t="s">
+        <v>217</v>
+      </c>
+      <c r="E99" t="s">
+        <v>218</v>
+      </c>
+      <c r="F99" t="s">
+        <v>634</v>
+      </c>
+      <c r="G99" t="s">
+        <v>216</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" t="s">
         <v>488</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="C100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" t="s">
+        <v>486</v>
+      </c>
+      <c r="F100" t="s">
+        <v>621</v>
+      </c>
+      <c r="G100" t="s">
+        <v>488</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I100" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" t="s">
+        <v>223</v>
+      </c>
+      <c r="F101" t="s">
+        <v>635</v>
+      </c>
+      <c r="G101" t="s">
+        <v>221</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" t="s">
-        <v>165</v>
-      </c>
-      <c r="D82" t="s">
-        <v>165</v>
-      </c>
-      <c r="E82" t="s">
-        <v>166</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="I101" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" t="s">
+        <v>488</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" t="s">
         <v>490</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="F102" t="s">
+        <v>621</v>
+      </c>
+      <c r="G102" t="s">
+        <v>488</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I102" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" t="s">
+        <v>227</v>
+      </c>
+      <c r="E103" t="s">
+        <v>228</v>
+      </c>
+      <c r="F103" t="s">
+        <v>636</v>
+      </c>
+      <c r="G103" t="s">
+        <v>226</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" t="s">
-        <v>169</v>
-      </c>
-      <c r="E83" t="s">
-        <v>170</v>
-      </c>
-      <c r="F83" t="s">
-        <v>168</v>
-      </c>
-      <c r="G83" s="1" t="s">
+      <c r="I103" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" t="s">
         <v>492</v>
       </c>
-      <c r="H83" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C104" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" t="s">
+        <v>230</v>
+      </c>
+      <c r="E104" t="s">
         <v>493</v>
       </c>
-      <c r="C84" t="s">
-        <v>172</v>
-      </c>
-      <c r="D84" t="s">
-        <v>172</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F104" t="s">
+        <v>637</v>
+      </c>
+      <c r="G104" t="s">
+        <v>492</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F84" t="s">
-        <v>493</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="I104" t="s">
         <v>495</v>
       </c>
-      <c r="H84" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" t="s">
-        <v>175</v>
-      </c>
-      <c r="D85" t="s">
-        <v>175</v>
-      </c>
-      <c r="E85" t="s">
-        <v>176</v>
-      </c>
-      <c r="F85" t="s">
-        <v>174</v>
-      </c>
-      <c r="G85" s="1" t="s">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" t="s">
+        <v>233</v>
+      </c>
+      <c r="E105" t="s">
+        <v>234</v>
+      </c>
+      <c r="F105" t="s">
+        <v>638</v>
+      </c>
+      <c r="G105" t="s">
+        <v>232</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="H85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>177</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="I105" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" t="s">
         <v>497</v>
       </c>
-      <c r="C86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" t="s">
-        <v>178</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C106" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" t="s">
         <v>498</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F106" t="s">
+        <v>639</v>
+      </c>
+      <c r="G106" t="s">
         <v>497</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I106" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" t="s">
-        <v>500</v>
-      </c>
-      <c r="C87" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" t="s">
-        <v>180</v>
-      </c>
-      <c r="E87" t="s">
-        <v>501</v>
-      </c>
-      <c r="F87" t="s">
-        <v>500</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H87" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>181</v>
-      </c>
-      <c r="B88" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" t="s">
-        <v>183</v>
-      </c>
-      <c r="E88" t="s">
-        <v>184</v>
-      </c>
-      <c r="F88" t="s">
-        <v>182</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H88" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>185</v>
-      </c>
-      <c r="B89" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" t="s">
-        <v>187</v>
-      </c>
-      <c r="E89" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" t="s">
-        <v>186</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H89" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" t="s">
-        <v>190</v>
-      </c>
-      <c r="C90" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" t="s">
-        <v>191</v>
-      </c>
-      <c r="E90" t="s">
-        <v>505</v>
-      </c>
-      <c r="F90" t="s">
-        <v>190</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H90" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>192</v>
-      </c>
-      <c r="B91" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" t="s">
-        <v>194</v>
-      </c>
-      <c r="D91" t="s">
-        <v>194</v>
-      </c>
-      <c r="E91" t="s">
-        <v>195</v>
-      </c>
-      <c r="F91" t="s">
-        <v>193</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H91" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>196</v>
-      </c>
-      <c r="B92" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" t="s">
-        <v>198</v>
-      </c>
-      <c r="E92" t="s">
-        <v>508</v>
-      </c>
-      <c r="F92" t="s">
-        <v>197</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="H92" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>199</v>
-      </c>
-      <c r="B93" t="s">
-        <v>200</v>
-      </c>
-      <c r="C93" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" t="s">
-        <v>202</v>
-      </c>
-      <c r="F93" t="s">
-        <v>200</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H93" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" t="s">
-        <v>204</v>
-      </c>
-      <c r="C94" t="s">
-        <v>205</v>
-      </c>
-      <c r="D94" t="s">
-        <v>205</v>
-      </c>
-      <c r="E94" t="s">
-        <v>206</v>
-      </c>
-      <c r="F94" t="s">
-        <v>204</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H94" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>207</v>
-      </c>
-      <c r="B95" t="s">
-        <v>208</v>
-      </c>
-      <c r="C95" t="s">
-        <v>209</v>
-      </c>
-      <c r="D95" t="s">
-        <v>209</v>
-      </c>
-      <c r="E95" t="s">
-        <v>210</v>
-      </c>
-      <c r="F95" t="s">
-        <v>208</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H95" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>211</v>
-      </c>
-      <c r="B96" t="s">
-        <v>212</v>
-      </c>
-      <c r="C96" t="s">
-        <v>213</v>
-      </c>
-      <c r="D96" t="s">
-        <v>213</v>
-      </c>
-      <c r="E96" t="s">
-        <v>513</v>
-      </c>
-      <c r="F96" t="s">
-        <v>212</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H96" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>214</v>
-      </c>
-      <c r="B97" t="s">
-        <v>215</v>
-      </c>
-      <c r="C97" t="s">
-        <v>216</v>
-      </c>
-      <c r="D97" t="s">
-        <v>216</v>
-      </c>
-      <c r="E97" t="s">
-        <v>217</v>
-      </c>
-      <c r="F97" t="s">
-        <v>215</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H97" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>218</v>
-      </c>
-      <c r="B98" t="s">
-        <v>190</v>
-      </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" t="s">
-        <v>219</v>
-      </c>
-      <c r="E98" t="s">
-        <v>516</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H98" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" t="s">
-        <v>221</v>
-      </c>
-      <c r="C99" t="s">
-        <v>222</v>
-      </c>
-      <c r="D99" t="s">
-        <v>222</v>
-      </c>
-      <c r="E99" t="s">
-        <v>223</v>
-      </c>
-      <c r="F99" t="s">
-        <v>221</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H99" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" t="s">
-        <v>518</v>
-      </c>
-      <c r="C100" t="s">
-        <v>219</v>
-      </c>
-      <c r="D100" t="s">
-        <v>219</v>
-      </c>
-      <c r="E100" t="s">
-        <v>516</v>
-      </c>
-      <c r="F100" t="s">
-        <v>518</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H100" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>225</v>
-      </c>
-      <c r="B101" t="s">
-        <v>226</v>
-      </c>
-      <c r="C101" t="s">
-        <v>227</v>
-      </c>
-      <c r="D101" t="s">
-        <v>227</v>
-      </c>
-      <c r="E101" t="s">
-        <v>228</v>
-      </c>
-      <c r="F101" t="s">
-        <v>226</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H101" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>229</v>
-      </c>
-      <c r="B102" t="s">
-        <v>518</v>
-      </c>
-      <c r="C102" t="s">
-        <v>219</v>
-      </c>
-      <c r="D102" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" t="s">
-        <v>520</v>
-      </c>
-      <c r="F102" t="s">
-        <v>518</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H102" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>230</v>
-      </c>
-      <c r="B103" t="s">
-        <v>231</v>
-      </c>
-      <c r="C103" t="s">
-        <v>232</v>
-      </c>
-      <c r="D103" t="s">
-        <v>232</v>
-      </c>
-      <c r="E103" t="s">
-        <v>233</v>
-      </c>
-      <c r="F103" t="s">
-        <v>231</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H103" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>234</v>
-      </c>
-      <c r="B104" t="s">
-        <v>522</v>
-      </c>
-      <c r="C104" t="s">
-        <v>235</v>
-      </c>
-      <c r="D104" t="s">
-        <v>235</v>
-      </c>
-      <c r="E104" t="s">
-        <v>523</v>
-      </c>
-      <c r="F104" t="s">
-        <v>522</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H104" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>236</v>
-      </c>
-      <c r="B105" t="s">
-        <v>237</v>
-      </c>
-      <c r="C105" t="s">
-        <v>238</v>
-      </c>
-      <c r="D105" t="s">
-        <v>238</v>
-      </c>
-      <c r="E105" t="s">
-        <v>239</v>
-      </c>
-      <c r="F105" t="s">
-        <v>237</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H105" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>240</v>
-      </c>
-      <c r="B106" t="s">
-        <v>527</v>
-      </c>
-      <c r="C106" t="s">
-        <v>241</v>
-      </c>
-      <c r="D106" t="s">
-        <v>241</v>
-      </c>
-      <c r="E106" t="s">
-        <v>528</v>
-      </c>
-      <c r="F106" t="s">
-        <v>527</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H106" t="s">
-        <v>527</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B36" r:id="rId1"/>
-    <hyperlink ref="C36" r:id="rId2"/>
-    <hyperlink ref="D36" r:id="rId3"/>
-    <hyperlink ref="E36" r:id="rId4"/>
-    <hyperlink ref="F36" r:id="rId5"/>
-    <hyperlink ref="G36" r:id="rId6"/>
-    <hyperlink ref="H36" r:id="rId7"/>
-    <hyperlink ref="B56" r:id="rId8"/>
-    <hyperlink ref="C56" r:id="rId9"/>
-    <hyperlink ref="D56" r:id="rId10"/>
-    <hyperlink ref="E56" r:id="rId11"/>
-    <hyperlink ref="F56" r:id="rId12"/>
-    <hyperlink ref="G56" r:id="rId13"/>
-    <hyperlink ref="H56" r:id="rId14"/>
-    <hyperlink ref="B68" r:id="rId15"/>
-    <hyperlink ref="C68" r:id="rId16"/>
-    <hyperlink ref="D68" r:id="rId17"/>
-    <hyperlink ref="E68" r:id="rId18"/>
-    <hyperlink ref="F68" r:id="rId19"/>
-    <hyperlink ref="G68" r:id="rId20"/>
-    <hyperlink ref="H68" r:id="rId21"/>
+    <hyperlink ref="E36" r:id="rId2"/>
+    <hyperlink ref="F36" r:id="rId3"/>
+    <hyperlink ref="G36" r:id="rId4"/>
+    <hyperlink ref="H36" r:id="rId5"/>
+    <hyperlink ref="I36" r:id="rId6"/>
+    <hyperlink ref="B56" r:id="rId7"/>
+    <hyperlink ref="E56" r:id="rId8"/>
+    <hyperlink ref="F56" r:id="rId9"/>
+    <hyperlink ref="G56" r:id="rId10"/>
+    <hyperlink ref="H56" r:id="rId11"/>
+    <hyperlink ref="I56" r:id="rId12"/>
+    <hyperlink ref="B68" r:id="rId13"/>
+    <hyperlink ref="E68" r:id="rId14"/>
+    <hyperlink ref="F68" r:id="rId15"/>
+    <hyperlink ref="G68" r:id="rId16"/>
+    <hyperlink ref="H68" r:id="rId17"/>
+    <hyperlink ref="I68" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/translations/csvContent.xlsx
+++ b/translations/csvContent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="651">
   <si>
     <t>Tags</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>proto-link</t>
-  </si>
-  <si>
-    <t>//invis.io/W310O7P5JTXV</t>
   </si>
   <si>
     <t>title-3-customerpickup-2</t>
@@ -1675,12 +1672,6 @@
     <t>Si le problème persiste, vérifiez si votre téléphone est connecté au réseau (et non pas en mode avion), cliquez sur l'icône du flash si la luminosité est trop faible et essayez à nouveau de scanner le code barre. Si cela ne fonctionne pas, veuillez contacter l'assistance comme indiqué ci-dessous ("Comment obtenir de l'aide").</t>
   </si>
   <si>
-    <t>//invis.io/NX10OLEBWH2Y</t>
-  </si>
-  <si>
-    <t>//invis.io/BG10Z5M4C8K9</t>
-  </si>
-  <si>
     <t>Un client Amazon se présentera au magasin pour prendre ou récupérer son ou ses colis. Le client vous montrera une notification, qui comprend 1) un code-barres et 2) un code numérique à 6 chiffres. Vous devez scanner le code barre, trouver le colis et le scanner avant de le remettre au client. Vous devez scanner le code de retrait de chaque client ET le colis. Cela supprimera le colis de votre inventaire et celui-ci ne sera plus sous votre responsabilité.</t>
   </si>
   <si>
@@ -1976,16 +1967,45 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>https://invis.io/GB10O7P4DYTP</t>
+  </si>
+  <si>
+    <t>https://invis.io/BQ10OLEAAVZ8</t>
+  </si>
+  <si>
+    <t>https://invis.io/XT10Z5M393DW</t>
+  </si>
+  <si>
+    <t>https://invis.io/59110U3YZX7E</t>
+  </si>
+  <si>
+    <t>https://invis.io/PN110U3T5K34</t>
+  </si>
+  <si>
+    <t>https://invis.io/KX110U40RMSC</t>
+  </si>
+  <si>
+    <t>https://invis.io/4Y110TY4XWK6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2014,10 +2034,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2028,8 +2049,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2369,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2392,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2401,22 +2424,22 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" t="s">
         <v>310</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>311</v>
-      </c>
-      <c r="J1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2424,31 +2447,31 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="J2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2471,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H3" t="s">
         <v>501</v>
       </c>
-      <c r="H3" t="s">
-        <v>502</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
@@ -2488,31 +2511,31 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
         <v>238</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>238</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>239</v>
       </c>
-      <c r="E4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" t="s">
-        <v>240</v>
-      </c>
       <c r="G4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2520,10 +2543,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2532,24 +2555,24 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H5" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2564,16 +2587,16 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>504</v>
+      </c>
+      <c r="G6" t="s">
         <v>505</v>
       </c>
-      <c r="G6" t="s">
-        <v>506</v>
-      </c>
       <c r="H6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -2584,10 +2607,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -2599,16 +2622,16 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="J7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2631,13 +2654,13 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -2663,13 +2686,13 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -2677,7 +2700,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2695,13 +2718,13 @@
         <v>28</v>
       </c>
       <c r="G10" t="s">
+        <v>509</v>
+      </c>
+      <c r="H10" t="s">
         <v>510</v>
       </c>
-      <c r="H10" t="s">
-        <v>511</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
@@ -2709,39 +2732,39 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" t="s">
+        <v>511</v>
+      </c>
+      <c r="H11" t="s">
         <v>329</v>
       </c>
-      <c r="C11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" t="s">
-        <v>512</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="J11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -2759,13 +2782,13 @@
         <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H12" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="J12" t="s">
         <v>29</v>
@@ -2773,7 +2796,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -2791,13 +2814,13 @@
         <v>32</v>
       </c>
       <c r="G13" t="s">
+        <v>513</v>
+      </c>
+      <c r="H13" t="s">
         <v>514</v>
       </c>
-      <c r="H13" t="s">
-        <v>515</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -2805,130 +2828,130 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" t="s">
         <v>246</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" t="s">
+        <v>515</v>
+      </c>
+      <c r="H14" t="s">
         <v>335</v>
       </c>
-      <c r="C14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" t="s">
-        <v>516</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="J14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" t="s">
         <v>249</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" t="s">
         <v>250</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>250</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>251</v>
       </c>
-      <c r="E15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" t="s">
-        <v>252</v>
-      </c>
       <c r="G15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="J15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" t="s">
         <v>253</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" t="s">
+        <v>517</v>
+      </c>
+      <c r="H16" t="s">
         <v>340</v>
       </c>
-      <c r="C16" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" t="s">
-        <v>518</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="J16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" t="s">
         <v>256</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" t="s">
+        <v>518</v>
+      </c>
+      <c r="H17" t="s">
         <v>343</v>
       </c>
-      <c r="C17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E17" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" t="s">
-        <v>258</v>
-      </c>
-      <c r="G17" t="s">
-        <v>519</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="J17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2948,16 +2971,16 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
+        <v>504</v>
+      </c>
+      <c r="G18" t="s">
         <v>505</v>
       </c>
-      <c r="G18" t="s">
-        <v>506</v>
-      </c>
       <c r="H18" t="s">
+        <v>319</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -2983,13 +3006,13 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H19" t="s">
+        <v>321</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -3000,10 +3023,10 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
@@ -3012,19 +3035,19 @@
         <v>37</v>
       </c>
       <c r="F20" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" t="s">
+        <v>519</v>
+      </c>
+      <c r="H20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G20" t="s">
-        <v>520</v>
-      </c>
-      <c r="H20" t="s">
-        <v>259</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" t="s">
         <v>347</v>
-      </c>
-      <c r="J20" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3032,10 +3055,10 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -3044,19 +3067,19 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" t="s">
+        <v>520</v>
+      </c>
+      <c r="H21" t="s">
         <v>350</v>
       </c>
-      <c r="G21" t="s">
-        <v>521</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="J21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3064,10 +3087,10 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
@@ -3076,19 +3099,19 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
+        <v>352</v>
+      </c>
+      <c r="G22" t="s">
+        <v>521</v>
+      </c>
+      <c r="H22" t="s">
         <v>353</v>
       </c>
-      <c r="G22" t="s">
-        <v>522</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="J22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3096,31 +3119,31 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" t="s">
         <v>261</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>261</v>
       </c>
-      <c r="D23" t="s">
-        <v>262</v>
-      </c>
-      <c r="E23" t="s">
-        <v>262</v>
-      </c>
       <c r="F23" t="s">
+        <v>522</v>
+      </c>
+      <c r="G23" t="s">
         <v>523</v>
       </c>
-      <c r="G23" t="s">
-        <v>524</v>
-      </c>
       <c r="H23" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="J23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3128,31 +3151,31 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" t="s">
+        <v>524</v>
+      </c>
+      <c r="H24" t="s">
+        <v>525</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D24" t="s">
-        <v>263</v>
-      </c>
-      <c r="E24" t="s">
-        <v>263</v>
-      </c>
-      <c r="F24" t="s">
-        <v>264</v>
-      </c>
-      <c r="G24" t="s">
-        <v>525</v>
-      </c>
-      <c r="H24" t="s">
-        <v>526</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="J24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3175,13 +3198,13 @@
         <v>47</v>
       </c>
       <c r="G25" t="s">
+        <v>526</v>
+      </c>
+      <c r="H25" t="s">
         <v>527</v>
       </c>
-      <c r="H25" t="s">
-        <v>528</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
@@ -3192,31 +3215,31 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" t="s">
         <v>265</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>265</v>
       </c>
-      <c r="D26" t="s">
-        <v>266</v>
-      </c>
-      <c r="E26" t="s">
-        <v>266</v>
-      </c>
       <c r="F26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" t="s">
+        <v>528</v>
+      </c>
+      <c r="H26" t="s">
         <v>361</v>
       </c>
-      <c r="G26" t="s">
-        <v>529</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="J26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3236,16 +3259,16 @@
         <v>51</v>
       </c>
       <c r="F27" t="s">
+        <v>363</v>
+      </c>
+      <c r="G27" t="s">
+        <v>529</v>
+      </c>
+      <c r="H27" t="s">
+        <v>530</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="G27" t="s">
-        <v>530</v>
-      </c>
-      <c r="H27" t="s">
-        <v>531</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="J27" t="s">
         <v>50</v>
@@ -3271,13 +3294,13 @@
         <v>55</v>
       </c>
       <c r="G28" t="s">
+        <v>531</v>
+      </c>
+      <c r="H28" t="s">
         <v>532</v>
       </c>
-      <c r="H28" t="s">
-        <v>533</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J28" t="s">
         <v>53</v>
@@ -3303,13 +3326,13 @@
         <v>59</v>
       </c>
       <c r="G29" t="s">
+        <v>533</v>
+      </c>
+      <c r="H29" t="s">
         <v>534</v>
       </c>
-      <c r="H29" t="s">
-        <v>535</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J29" t="s">
         <v>57</v>
@@ -3332,16 +3355,16 @@
         <v>62</v>
       </c>
       <c r="F30" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30" t="s">
+        <v>535</v>
+      </c>
+      <c r="H30" t="s">
         <v>368</v>
       </c>
-      <c r="G30" t="s">
-        <v>536</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="J30" t="s">
         <v>61</v>
@@ -3349,109 +3372,109 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" t="s">
         <v>267</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>536</v>
+      </c>
+      <c r="H31" t="s">
+        <v>537</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C31" t="s">
-        <v>371</v>
-      </c>
-      <c r="D31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" t="s">
-        <v>268</v>
-      </c>
-      <c r="F31" t="s">
-        <v>269</v>
-      </c>
-      <c r="G31" t="s">
-        <v>537</v>
-      </c>
-      <c r="H31" t="s">
-        <v>538</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="J31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D32" t="s">
         <v>270</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
         <v>373</v>
       </c>
-      <c r="C32" t="s">
-        <v>373</v>
-      </c>
-      <c r="D32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" t="s">
-        <v>271</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>538</v>
+      </c>
+      <c r="H32" t="s">
         <v>374</v>
       </c>
-      <c r="G32" t="s">
-        <v>539</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="J32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="I33" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D34" t="s">
         <v>64</v>
@@ -3460,94 +3483,94 @@
         <v>64</v>
       </c>
       <c r="F34" t="s">
+        <v>541</v>
+      </c>
+      <c r="G34" t="s">
         <v>542</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>543</v>
       </c>
-      <c r="H34" t="s">
-        <v>544</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" t="s">
         <v>277</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" t="s">
+        <v>544</v>
+      </c>
+      <c r="H35" t="s">
         <v>382</v>
       </c>
-      <c r="C35" t="s">
-        <v>382</v>
-      </c>
-      <c r="D35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" t="s">
-        <v>278</v>
-      </c>
-      <c r="F35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G35" t="s">
-        <v>545</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="J35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>546</v>
-      </c>
-      <c r="E36" t="s">
-        <v>546</v>
-      </c>
-      <c r="F36" t="s">
-        <v>547</v>
-      </c>
-      <c r="G36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" t="s">
-        <v>66</v>
+      <c r="B36" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -3559,59 +3582,59 @@
         <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
+        <v>385</v>
+      </c>
+      <c r="C38" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" t="s">
+        <v>279</v>
+      </c>
+      <c r="F38" t="s">
         <v>386</v>
       </c>
-      <c r="C38" t="s">
-        <v>386</v>
-      </c>
-      <c r="D38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" t="s">
-        <v>280</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>545</v>
+      </c>
+      <c r="H38" t="s">
+        <v>546</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G38" t="s">
-        <v>548</v>
-      </c>
-      <c r="H38" t="s">
-        <v>549</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="J38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
@@ -3620,184 +3643,184 @@
         <v>39</v>
       </c>
       <c r="F39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G39" t="s">
+        <v>520</v>
+      </c>
+      <c r="H39" t="s">
         <v>350</v>
       </c>
-      <c r="G39" t="s">
-        <v>521</v>
-      </c>
-      <c r="H39" t="s">
-        <v>351</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
         <v>72</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>73</v>
       </c>
-      <c r="E40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
       <c r="G40" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H40" t="s">
+        <v>389</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>76</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>77</v>
       </c>
-      <c r="E41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
-      </c>
       <c r="G41" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H41" t="s">
+        <v>391</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="J41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
         <v>80</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>80</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>81</v>
       </c>
-      <c r="E42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
-      </c>
       <c r="G42" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H42" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
         <v>84</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>84</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>85</v>
       </c>
-      <c r="E43" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
-      </c>
       <c r="G43" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H43" t="s">
+        <v>394</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
         <v>88</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>88</v>
       </c>
-      <c r="D44" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" t="s">
-        <v>89</v>
-      </c>
       <c r="F44" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G44" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H44" t="s">
+        <v>396</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>61</v>
@@ -3812,16 +3835,16 @@
         <v>62</v>
       </c>
       <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>535</v>
+      </c>
+      <c r="H45" t="s">
         <v>368</v>
       </c>
-      <c r="G45" t="s">
-        <v>536</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="J45" t="s">
         <v>61</v>
@@ -3829,429 +3852,429 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s">
         <v>73</v>
       </c>
-      <c r="E46" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" t="s">
-        <v>74</v>
-      </c>
       <c r="G46" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H46" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" t="s">
         <v>282</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" t="s">
         <v>283</v>
       </c>
-      <c r="C47" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" t="s">
-        <v>284</v>
-      </c>
       <c r="G47" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H47" t="s">
+        <v>399</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="J47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" t="s">
         <v>285</v>
       </c>
-      <c r="B48" t="s">
-        <v>286</v>
-      </c>
       <c r="C48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G48" t="s">
+        <v>556</v>
+      </c>
+      <c r="H48" t="s">
         <v>402</v>
       </c>
-      <c r="G48" t="s">
-        <v>559</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="I48" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="J48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" t="s">
         <v>287</v>
       </c>
-      <c r="B49" t="s">
-        <v>288</v>
-      </c>
       <c r="C49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G49" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H49" t="s">
+        <v>404</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="J49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
         <v>95</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>95</v>
       </c>
-      <c r="D50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" t="s">
-        <v>96</v>
-      </c>
       <c r="F50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" t="s">
+        <v>558</v>
+      </c>
+      <c r="H50" t="s">
+        <v>559</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G50" t="s">
-        <v>561</v>
-      </c>
-      <c r="H50" t="s">
-        <v>562</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="J50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" t="s">
         <v>278</v>
       </c>
-      <c r="E51" t="s">
-        <v>278</v>
-      </c>
-      <c r="F51" t="s">
-        <v>279</v>
-      </c>
       <c r="G51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H51" t="s">
+        <v>382</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="J51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" t="s">
         <v>98</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>99</v>
       </c>
-      <c r="E52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
-      </c>
       <c r="G52" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H52" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
         <v>102</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>102</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>103</v>
       </c>
-      <c r="E53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
-      </c>
       <c r="G53" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H53" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
         <v>105</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
         <v>106</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>106</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>107</v>
       </c>
-      <c r="E54" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
-      </c>
       <c r="G54" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H54" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
         <v>109</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
         <v>110</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>110</v>
       </c>
-      <c r="D55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" t="s">
-        <v>111</v>
-      </c>
       <c r="F55" t="s">
+        <v>412</v>
+      </c>
+      <c r="G55" t="s">
+        <v>566</v>
+      </c>
+      <c r="H55" t="s">
+        <v>567</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G55" t="s">
-        <v>569</v>
-      </c>
-      <c r="H55" t="s">
-        <v>570</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="J55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" t="s">
-        <v>546</v>
-      </c>
-      <c r="E56" t="s">
-        <v>546</v>
-      </c>
-      <c r="F56" t="s">
-        <v>547</v>
-      </c>
-      <c r="G56" t="s">
-        <v>66</v>
-      </c>
-      <c r="H56" t="s">
-        <v>66</v>
-      </c>
-      <c r="I56" t="s">
-        <v>66</v>
-      </c>
-      <c r="J56" t="s">
-        <v>66</v>
+      <c r="B56" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
         <v>113</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>113</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" t="s">
-        <v>114</v>
       </c>
       <c r="F57" t="s">
         <v>25</v>
       </c>
       <c r="G57" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H57" t="s">
+        <v>325</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="J57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
+        <v>414</v>
+      </c>
+      <c r="C58" t="s">
+        <v>414</v>
+      </c>
+      <c r="D58" t="s">
+        <v>290</v>
+      </c>
+      <c r="E58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" t="s">
+        <v>291</v>
+      </c>
+      <c r="G58" t="s">
+        <v>569</v>
+      </c>
+      <c r="H58" t="s">
+        <v>570</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C58" t="s">
-        <v>415</v>
-      </c>
-      <c r="D58" t="s">
-        <v>291</v>
-      </c>
-      <c r="E58" t="s">
-        <v>291</v>
-      </c>
-      <c r="F58" t="s">
-        <v>292</v>
-      </c>
-      <c r="G58" t="s">
-        <v>572</v>
-      </c>
-      <c r="H58" t="s">
-        <v>573</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="J58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
         <v>39</v>
@@ -4260,312 +4283,312 @@
         <v>39</v>
       </c>
       <c r="F59" t="s">
+        <v>349</v>
+      </c>
+      <c r="G59" t="s">
+        <v>520</v>
+      </c>
+      <c r="H59" t="s">
         <v>350</v>
       </c>
-      <c r="G59" t="s">
-        <v>521</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="J59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" t="s">
         <v>118</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>118</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>119</v>
       </c>
-      <c r="E60" t="s">
-        <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
-      </c>
       <c r="G60" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H60" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
         <v>121</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
         <v>122</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>122</v>
       </c>
-      <c r="D61" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" t="s">
-        <v>123</v>
-      </c>
       <c r="F61" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G61" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H61" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>418</v>
+      </c>
+      <c r="C62" t="s">
+        <v>418</v>
+      </c>
+      <c r="D62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" t="s">
+        <v>576</v>
+      </c>
+      <c r="G62" t="s">
+        <v>577</v>
+      </c>
+      <c r="H62" t="s">
         <v>419</v>
       </c>
-      <c r="C62" t="s">
-        <v>419</v>
-      </c>
-      <c r="D62" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" t="s">
-        <v>579</v>
-      </c>
-      <c r="G62" t="s">
-        <v>580</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="I62" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="J62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
         <v>127</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>127</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>128</v>
       </c>
-      <c r="E63" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" t="s">
-        <v>129</v>
-      </c>
       <c r="G63" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H63" t="s">
+        <v>421</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="J63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>423</v>
+      </c>
+      <c r="C64" t="s">
+        <v>423</v>
+      </c>
+      <c r="D64" t="s">
         <v>130</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" t="s">
+        <v>579</v>
+      </c>
+      <c r="G64" t="s">
+        <v>580</v>
+      </c>
+      <c r="H64" t="s">
         <v>424</v>
       </c>
-      <c r="C64" t="s">
-        <v>424</v>
-      </c>
-      <c r="D64" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" t="s">
-        <v>582</v>
-      </c>
-      <c r="G64" t="s">
-        <v>583</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="J64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
         <v>132</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" t="s">
         <v>133</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>133</v>
       </c>
-      <c r="D65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" t="s">
-        <v>134</v>
-      </c>
       <c r="F65" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G65" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H65" t="s">
+        <v>426</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="J65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C66" t="s">
+        <v>428</v>
+      </c>
+      <c r="D66" t="s">
         <v>135</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" t="s">
+        <v>583</v>
+      </c>
+      <c r="G66" t="s">
+        <v>584</v>
+      </c>
+      <c r="H66" t="s">
         <v>429</v>
       </c>
-      <c r="C66" t="s">
-        <v>429</v>
-      </c>
-      <c r="D66" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" t="s">
-        <v>136</v>
-      </c>
-      <c r="F66" t="s">
-        <v>586</v>
-      </c>
-      <c r="G66" t="s">
-        <v>587</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="I66" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="J66" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
         <v>138</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>138</v>
       </c>
-      <c r="D67" t="s">
-        <v>139</v>
-      </c>
-      <c r="E67" t="s">
-        <v>139</v>
-      </c>
       <c r="F67" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G67" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H67" t="s">
+        <v>431</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="J67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" t="s">
-        <v>546</v>
-      </c>
-      <c r="E68" t="s">
-        <v>546</v>
-      </c>
-      <c r="F68" t="s">
-        <v>547</v>
-      </c>
-      <c r="G68" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" t="s">
-        <v>66</v>
-      </c>
-      <c r="I68" t="s">
-        <v>66</v>
-      </c>
-      <c r="J68" t="s">
-        <v>66</v>
+      <c r="B68" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -4583,13 +4606,13 @@
         <v>28</v>
       </c>
       <c r="G69" t="s">
+        <v>509</v>
+      </c>
+      <c r="H69" t="s">
         <v>510</v>
       </c>
-      <c r="H69" t="s">
-        <v>511</v>
-      </c>
       <c r="I69" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J69" t="s">
         <v>26</v>
@@ -4597,1214 +4620,1220 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>434</v>
+      </c>
+      <c r="C70" t="s">
+        <v>434</v>
+      </c>
+      <c r="D70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" t="s">
+        <v>587</v>
+      </c>
+      <c r="G70" t="s">
+        <v>588</v>
+      </c>
+      <c r="H70" t="s">
+        <v>589</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C70" t="s">
-        <v>435</v>
-      </c>
-      <c r="D70" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" t="s">
-        <v>590</v>
-      </c>
-      <c r="G70" t="s">
-        <v>591</v>
-      </c>
-      <c r="H70" t="s">
-        <v>592</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="J70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" t="s">
         <v>144</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>144</v>
       </c>
-      <c r="D71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" t="s">
-        <v>145</v>
-      </c>
       <c r="F71" t="s">
+        <v>436</v>
+      </c>
+      <c r="G71" t="s">
+        <v>590</v>
+      </c>
+      <c r="H71" t="s">
         <v>437</v>
       </c>
-      <c r="G71" t="s">
-        <v>593</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="J71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>439</v>
+      </c>
+      <c r="C72" t="s">
+        <v>439</v>
+      </c>
+      <c r="D72" t="s">
         <v>146</v>
       </c>
-      <c r="B72" t="s">
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" t="s">
         <v>440</v>
       </c>
-      <c r="C72" t="s">
-        <v>440</v>
-      </c>
-      <c r="D72" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
+        <v>591</v>
+      </c>
+      <c r="H72" t="s">
         <v>441</v>
       </c>
-      <c r="G72" t="s">
-        <v>594</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I72" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="J72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
         <v>148</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" t="s">
         <v>149</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>149</v>
       </c>
-      <c r="D73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" t="s">
-        <v>150</v>
-      </c>
       <c r="F73" t="s">
+        <v>443</v>
+      </c>
+      <c r="G73" t="s">
+        <v>592</v>
+      </c>
+      <c r="H73" t="s">
+        <v>593</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G73" t="s">
-        <v>595</v>
-      </c>
-      <c r="H73" t="s">
-        <v>596</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="J73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" t="s">
         <v>293</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>293</v>
       </c>
-      <c r="D74" t="s">
-        <v>294</v>
-      </c>
-      <c r="E74" t="s">
-        <v>294</v>
-      </c>
       <c r="F74" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G74" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H74" t="s">
+        <v>445</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="J74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
         <v>152</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
         <v>153</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>153</v>
       </c>
-      <c r="D75" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" t="s">
-        <v>154</v>
-      </c>
       <c r="F75" t="s">
+        <v>447</v>
+      </c>
+      <c r="G75" t="s">
+        <v>596</v>
+      </c>
+      <c r="H75" t="s">
         <v>448</v>
       </c>
-      <c r="G75" t="s">
-        <v>599</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="I75" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="J75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D76" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" t="s">
         <v>244</v>
       </c>
-      <c r="E76" t="s">
-        <v>244</v>
-      </c>
-      <c r="F76" t="s">
-        <v>245</v>
-      </c>
       <c r="G76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H76" t="s">
+        <v>329</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="J76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>295</v>
+      </c>
+      <c r="B77" t="s">
+        <v>641</v>
+      </c>
+      <c r="C77" t="s">
+        <v>451</v>
+      </c>
+      <c r="D77" t="s">
         <v>296</v>
       </c>
-      <c r="B77" t="s">
-        <v>644</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
+        <v>296</v>
+      </c>
+      <c r="F77" t="s">
+        <v>597</v>
+      </c>
+      <c r="G77" t="s">
+        <v>598</v>
+      </c>
+      <c r="H77" t="s">
+        <v>451</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D77" t="s">
-        <v>297</v>
-      </c>
-      <c r="E77" t="s">
-        <v>297</v>
-      </c>
-      <c r="F77" t="s">
-        <v>600</v>
-      </c>
-      <c r="G77" t="s">
-        <v>601</v>
-      </c>
-      <c r="H77" t="s">
-        <v>452</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="J77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" t="s">
+        <v>641</v>
+      </c>
+      <c r="C78" t="s">
         <v>298</v>
       </c>
-      <c r="B78" t="s">
-        <v>644</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>299</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" t="s">
         <v>300</v>
       </c>
-      <c r="E78" t="s">
-        <v>300</v>
-      </c>
-      <c r="F78" t="s">
-        <v>301</v>
-      </c>
       <c r="G78" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H78" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J78" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" t="s">
+        <v>641</v>
+      </c>
+      <c r="C79" t="s">
         <v>302</v>
       </c>
-      <c r="B79" t="s">
-        <v>644</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>303</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>303</v>
+      </c>
+      <c r="F79" t="s">
         <v>304</v>
       </c>
-      <c r="E79" t="s">
-        <v>304</v>
-      </c>
-      <c r="F79" t="s">
-        <v>305</v>
-      </c>
       <c r="G79" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" t="s">
+        <v>641</v>
+      </c>
+      <c r="C80" t="s">
         <v>306</v>
       </c>
-      <c r="B80" t="s">
-        <v>644</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>307</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>307</v>
+      </c>
+      <c r="F80" t="s">
         <v>308</v>
       </c>
-      <c r="E80" t="s">
-        <v>308</v>
-      </c>
-      <c r="F80" t="s">
-        <v>309</v>
-      </c>
       <c r="G80" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>641</v>
+      </c>
+      <c r="C81" t="s">
         <v>155</v>
       </c>
-      <c r="B81" t="s">
-        <v>644</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>156</v>
       </c>
-      <c r="D81" t="s">
-        <v>157</v>
-      </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H81" t="s">
+        <v>456</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="J81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>641</v>
+      </c>
+      <c r="C82" t="s">
         <v>158</v>
       </c>
-      <c r="B82" t="s">
-        <v>644</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>159</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" t="s">
         <v>160</v>
       </c>
-      <c r="E82" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" t="s">
-        <v>161</v>
-      </c>
       <c r="G82" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H82" t="s">
+        <v>458</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="J82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
+        <v>641</v>
+      </c>
+      <c r="C83" t="s">
         <v>162</v>
       </c>
-      <c r="B83" t="s">
-        <v>644</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>163</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" t="s">
         <v>164</v>
       </c>
-      <c r="E83" t="s">
-        <v>164</v>
-      </c>
-      <c r="F83" t="s">
-        <v>165</v>
-      </c>
       <c r="G83" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>461</v>
+      </c>
+      <c r="C84" t="s">
+        <v>461</v>
+      </c>
+      <c r="D84" t="s">
         <v>166</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>462</v>
       </c>
-      <c r="C84" t="s">
-        <v>462</v>
-      </c>
-      <c r="D84" t="s">
-        <v>167</v>
-      </c>
-      <c r="E84" t="s">
-        <v>167</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
+        <v>604</v>
+      </c>
+      <c r="H84" t="s">
+        <v>605</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G84" t="s">
-        <v>607</v>
-      </c>
-      <c r="H84" t="s">
-        <v>608</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="J84" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
         <v>168</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" t="s">
         <v>169</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>169</v>
       </c>
-      <c r="D85" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" t="s">
-        <v>170</v>
-      </c>
       <c r="F85" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G85" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H85" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>465</v>
+      </c>
+      <c r="C86" t="s">
+        <v>465</v>
+      </c>
+      <c r="D86" t="s">
         <v>171</v>
       </c>
-      <c r="B86" t="s">
+      <c r="E86" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" t="s">
         <v>466</v>
       </c>
-      <c r="C86" t="s">
-        <v>466</v>
-      </c>
-      <c r="D86" t="s">
-        <v>172</v>
-      </c>
-      <c r="E86" t="s">
-        <v>172</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
+        <v>609</v>
+      </c>
+      <c r="H86" t="s">
+        <v>610</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G86" t="s">
-        <v>612</v>
-      </c>
-      <c r="H86" t="s">
-        <v>613</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="J86" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>468</v>
+      </c>
+      <c r="C87" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" t="s">
         <v>173</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" t="s">
         <v>469</v>
       </c>
-      <c r="C87" t="s">
-        <v>469</v>
-      </c>
-      <c r="D87" t="s">
-        <v>174</v>
-      </c>
-      <c r="E87" t="s">
-        <v>174</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
+        <v>611</v>
+      </c>
+      <c r="H87" t="s">
+        <v>612</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G87" t="s">
-        <v>614</v>
-      </c>
-      <c r="H87" t="s">
-        <v>615</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="J87" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
         <v>175</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" t="s">
         <v>176</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>176</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>177</v>
       </c>
-      <c r="E88" t="s">
-        <v>177</v>
-      </c>
-      <c r="F88" t="s">
-        <v>178</v>
-      </c>
       <c r="G88" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H88" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" t="s">
         <v>180</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>180</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>181</v>
       </c>
-      <c r="E89" t="s">
-        <v>181</v>
-      </c>
-      <c r="F89" t="s">
-        <v>182</v>
-      </c>
       <c r="G89" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H89" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
         <v>183</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" t="s">
         <v>184</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>184</v>
       </c>
-      <c r="D90" t="s">
-        <v>185</v>
-      </c>
-      <c r="E90" t="s">
-        <v>185</v>
-      </c>
       <c r="F90" t="s">
+        <v>473</v>
+      </c>
+      <c r="G90" t="s">
+        <v>617</v>
+      </c>
+      <c r="H90" t="s">
+        <v>618</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G90" t="s">
-        <v>620</v>
-      </c>
-      <c r="H90" t="s">
-        <v>621</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="J90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
         <v>186</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" t="s">
         <v>187</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>187</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>188</v>
       </c>
-      <c r="E91" t="s">
-        <v>188</v>
-      </c>
-      <c r="F91" t="s">
-        <v>189</v>
-      </c>
       <c r="G91" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H91" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
         <v>190</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" t="s">
         <v>191</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>191</v>
       </c>
-      <c r="D92" t="s">
-        <v>192</v>
-      </c>
-      <c r="E92" t="s">
-        <v>192</v>
-      </c>
       <c r="F92" t="s">
+        <v>476</v>
+      </c>
+      <c r="G92" t="s">
+        <v>621</v>
+      </c>
+      <c r="H92" t="s">
+        <v>622</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G92" t="s">
-        <v>624</v>
-      </c>
-      <c r="H92" t="s">
-        <v>625</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="J92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>642</v>
+      </c>
+      <c r="C93" t="s">
         <v>193</v>
       </c>
-      <c r="B93" t="s">
-        <v>645</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>194</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" t="s">
         <v>195</v>
       </c>
-      <c r="E93" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" t="s">
-        <v>196</v>
-      </c>
       <c r="G93" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H93" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" t="s">
         <v>197</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" t="s">
         <v>198</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>198</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>199</v>
       </c>
-      <c r="E94" t="s">
-        <v>199</v>
-      </c>
-      <c r="F94" t="s">
-        <v>200</v>
-      </c>
       <c r="G94" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H94" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" t="s">
         <v>201</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" t="s">
         <v>202</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>202</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>203</v>
       </c>
-      <c r="E95" t="s">
-        <v>203</v>
-      </c>
-      <c r="F95" t="s">
-        <v>204</v>
-      </c>
       <c r="G95" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>641</v>
+      </c>
+      <c r="C96" t="s">
         <v>205</v>
       </c>
-      <c r="B96" t="s">
-        <v>644</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>206</v>
       </c>
-      <c r="D96" t="s">
-        <v>207</v>
-      </c>
       <c r="E96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F96" t="s">
+        <v>481</v>
+      </c>
+      <c r="G96" t="s">
+        <v>628</v>
+      </c>
+      <c r="H96" t="s">
+        <v>205</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G96" t="s">
-        <v>631</v>
-      </c>
-      <c r="H96" t="s">
-        <v>206</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="J96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" t="s">
         <v>208</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" t="s">
         <v>209</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>209</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
         <v>210</v>
       </c>
-      <c r="E97" t="s">
-        <v>210</v>
-      </c>
-      <c r="F97" t="s">
-        <v>211</v>
-      </c>
       <c r="G97" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" t="s">
         <v>212</v>
       </c>
-      <c r="B98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C98" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" t="s">
-        <v>213</v>
-      </c>
       <c r="E98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F98" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G98" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" t="s">
         <v>214</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" t="s">
         <v>215</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>215</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>216</v>
       </c>
-      <c r="E99" t="s">
-        <v>216</v>
-      </c>
-      <c r="F99" t="s">
-        <v>217</v>
-      </c>
       <c r="G99" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C100" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G100" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H100" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J100" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" t="s">
         <v>219</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" t="s">
         <v>220</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>220</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
         <v>221</v>
       </c>
-      <c r="E101" t="s">
-        <v>221</v>
-      </c>
-      <c r="F101" t="s">
-        <v>222</v>
-      </c>
       <c r="G101" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F102" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G102" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" t="s">
         <v>224</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" t="s">
         <v>225</v>
       </c>
-      <c r="C103" t="s">
+      <c r="E103" t="s">
         <v>225</v>
       </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
         <v>226</v>
       </c>
-      <c r="E103" t="s">
-        <v>226</v>
-      </c>
-      <c r="F103" t="s">
-        <v>227</v>
-      </c>
       <c r="G103" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" t="s">
+        <v>490</v>
+      </c>
+      <c r="C104" t="s">
+        <v>490</v>
+      </c>
+      <c r="D104" t="s">
         <v>228</v>
       </c>
-      <c r="B104" t="s">
+      <c r="E104" t="s">
+        <v>228</v>
+      </c>
+      <c r="F104" t="s">
         <v>491</v>
       </c>
-      <c r="C104" t="s">
-        <v>491</v>
-      </c>
-      <c r="D104" t="s">
-        <v>229</v>
-      </c>
-      <c r="E104" t="s">
-        <v>229</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
+        <v>633</v>
+      </c>
+      <c r="H104" t="s">
+        <v>490</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G104" t="s">
-        <v>636</v>
-      </c>
-      <c r="H104" t="s">
-        <v>491</v>
-      </c>
-      <c r="I104" s="1" t="s">
+      <c r="J104" t="s">
         <v>493</v>
-      </c>
-      <c r="J104" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" t="s">
         <v>230</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" t="s">
         <v>231</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E105" t="s">
         <v>231</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>232</v>
       </c>
-      <c r="E105" t="s">
-        <v>232</v>
-      </c>
-      <c r="F105" t="s">
-        <v>233</v>
-      </c>
       <c r="G105" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" t="s">
+        <v>495</v>
+      </c>
+      <c r="C106" t="s">
+        <v>495</v>
+      </c>
+      <c r="D106" t="s">
         <v>234</v>
       </c>
-      <c r="B106" t="s">
+      <c r="E106" t="s">
+        <v>234</v>
+      </c>
+      <c r="F106" t="s">
         <v>496</v>
       </c>
-      <c r="C106" t="s">
-        <v>496</v>
-      </c>
-      <c r="D106" t="s">
-        <v>235</v>
-      </c>
-      <c r="E106" t="s">
-        <v>235</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
+        <v>635</v>
+      </c>
+      <c r="H106" t="s">
+        <v>495</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G106" t="s">
-        <v>638</v>
-      </c>
-      <c r="H106" t="s">
-        <v>496</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="J106" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B36" r:id="rId1"/>
-    <hyperlink ref="C36" r:id="rId2"/>
-    <hyperlink ref="F36" r:id="rId3"/>
-    <hyperlink ref="G36" r:id="rId4"/>
-    <hyperlink ref="H36" r:id="rId5"/>
-    <hyperlink ref="I36" r:id="rId6"/>
-    <hyperlink ref="J36" r:id="rId7"/>
-    <hyperlink ref="B56" r:id="rId8"/>
-    <hyperlink ref="C56" r:id="rId9"/>
-    <hyperlink ref="F56" r:id="rId10"/>
-    <hyperlink ref="G56" r:id="rId11"/>
-    <hyperlink ref="H56" r:id="rId12"/>
-    <hyperlink ref="I56" r:id="rId13"/>
-    <hyperlink ref="J56" r:id="rId14"/>
-    <hyperlink ref="B68" r:id="rId15"/>
-    <hyperlink ref="C68" r:id="rId16"/>
-    <hyperlink ref="F68" r:id="rId17"/>
+    <hyperlink ref="B56" r:id="rId2"/>
+    <hyperlink ref="B68" r:id="rId3"/>
+    <hyperlink ref="D36" r:id="rId4"/>
+    <hyperlink ref="D56" r:id="rId5"/>
+    <hyperlink ref="D68" r:id="rId6"/>
+    <hyperlink ref="E36" r:id="rId7"/>
+    <hyperlink ref="E56" r:id="rId8"/>
+    <hyperlink ref="E68" r:id="rId9"/>
+    <hyperlink ref="F36" r:id="rId10"/>
+    <hyperlink ref="F56" r:id="rId11"/>
+    <hyperlink ref="F68" r:id="rId12"/>
+    <hyperlink ref="C36" r:id="rId13"/>
+    <hyperlink ref="C56" r:id="rId14"/>
+    <hyperlink ref="C68" r:id="rId15"/>
+    <hyperlink ref="G36" r:id="rId16"/>
+    <hyperlink ref="G56" r:id="rId17"/>
     <hyperlink ref="G68" r:id="rId18"/>
-    <hyperlink ref="H68" r:id="rId19"/>
-    <hyperlink ref="I68" r:id="rId20"/>
-    <hyperlink ref="J68" r:id="rId21"/>
+    <hyperlink ref="H36" r:id="rId19"/>
+    <hyperlink ref="H56" r:id="rId20"/>
+    <hyperlink ref="H68" r:id="rId21"/>
+    <hyperlink ref="I36" r:id="rId22"/>
+    <hyperlink ref="I56" r:id="rId23"/>
+    <hyperlink ref="I68" r:id="rId24"/>
+    <hyperlink ref="J36" r:id="rId25"/>
+    <hyperlink ref="J56" r:id="rId26"/>
+    <hyperlink ref="J68" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/translations/csvContent.xlsx
+++ b/translations/csvContent.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="665">
   <si>
     <t>Tags</t>
   </si>
@@ -973,9 +973,6 @@
 Amazon Counter Hizmeti nedir?</t>
   </si>
   <si>
-    <t>Il tuo punto vendita fornisce il servizio di ritiro degli ordini Amazon. Imparerai come usare la App, ricevere supporto e fornire un servizio best-in-class ai tuoi clienti.</t>
-  </si>
-  <si>
     <t>Konumunuz, müşterilerin siparişleri bulunduğunuz yere göndermesine ve almasına olanak tanıyan bir Amazon hizmeti sağlar. Burada Uygulamayı nasıl kullanacağınızı, nasıl destek alacağınızı ve müşterilerinize sınıfının en iyi hizmeti nasıl sağlayacağınızı öğreneceksiniz.</t>
   </si>
   <si>
@@ -1094,9 +1091,6 @@
     <t>Ana ekrandan "Kuryeden alım"ı seçin ve Amazon'u seçin.</t>
   </si>
   <si>
-    <t>Esegui la scansione dei pacchi immediatamente dopo la ricezione. Premi "Scansiona i pacchi ricevuti ora"</t>
-  </si>
-  <si>
     <t>Lütfen teslimattan sonra mümkün olan en kısa sürede kolileri tarayın. "Teslimatları şimdi tara" yı tıklayın.</t>
   </si>
   <si>
@@ -1110,9 +1104,6 @@
   </si>
   <si>
     <t>Was passiert, wenn ich gerade bechäftigt bin?</t>
-  </si>
-  <si>
-    <t>Sei occupato?</t>
   </si>
   <si>
     <t>Meşgulsem?</t>
@@ -1134,9 +1125,6 @@
     <t>Was ist bei Scanproblemen zu tun? </t>
   </si>
   <si>
-    <t>Problemi di scansione?</t>
-  </si>
-  <si>
     <t>Ya tarama sorunlarım varsa?</t>
   </si>
   <si>
@@ -1152,9 +1140,6 @@
     <t>Klicken Sie nun auf "Scannen nicht möglich". </t>
   </si>
   <si>
-    <t>Seleziona "Non riesco a scansionare" e inserisci il Tracking ID </t>
-  </si>
-  <si>
     <t>Şimdi "Taranamıyor" a tıklayın ve Gönderi Takip No girin.</t>
   </si>
   <si>
@@ -1176,9 +1161,6 @@
     <t>If issues remain, please check whether your phone is connected to the network (not on airplane mode), click on the flash-symbol if the environment is too dark and double check the scanned codes. If this does not work, please contact support as outlined below ("How to get support"). </t>
   </si>
   <si>
-    <t>Se il problema persiste, verifica che il telefono sia connesso a Internet, non in modalità aereo. Premi sul simbolo del flash se l'ambiente é troppo scuro e controlla i codici scansionati. Se questo non risolve il problema, contatta il supporto come riportato in "Come ricevere assistenza"</t>
-  </si>
-  <si>
     <t>Sorun devam ederse, lütfen cihazınızın ağa bağlı olup olmadığını kontrol edin (uçak modunda değil), ortam çok karanlıksa flaş sembolüne tıklayın ve taranan kodları iki kez kontrol edin. Bu işe yaramazsa, lütfen aşağıda belirtildiği gibi destek ile iletişime geçin ("Nasıl destek alınır").</t>
   </si>
   <si>
@@ -1197,9 +1179,6 @@
     <t>Ne yaparım? Lütfen aşağıdaki Amazon uygulamasında aşağıdaki adımları test edin:</t>
   </si>
   <si>
-    <t>Selezione “Ritiro cliente” nella schermata principale</t>
-  </si>
-  <si>
     <t>Ana ekrandan "Müşteri teslim alma" yı seçin.</t>
   </si>
   <si>
@@ -1234,9 +1213,6 @@
   </si>
   <si>
     <t xml:space="preserve">Klicken Sie nun auf die angezeigten Pakete UNTER dem Scanrahmen.  </t>
-  </si>
-  <si>
-    <t>Clicca sulla descrizione della dimensione del pacco (per esempio busta piccola)</t>
   </si>
   <si>
     <t>Tarama çerçevesi yerine paketin boyut açıklamasına (ör. "Küçük koli") tıklayın.</t>
@@ -1288,15 +1264,9 @@
     <t> If a driver arrives, select “Driver pickup” from the home screen. Find the parcels named on the list and hand them to the driver. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quando arriva un corriere, seleziona "Ritiro corriere". Consegna i pacchi riportati nella lista al corriere </t>
-  </si>
-  <si>
     <t>Bir kurye gelirse, ana ekrandan "Kuryeye iade" öğesini seçin. Listede adı geçen paketleri bulun ve bunları sürücüye verin.</t>
   </si>
   <si>
-    <t>Mancano dei pacchi?</t>
-  </si>
-  <si>
     <t>Ya paket eksikse?</t>
   </si>
   <si>
@@ -1366,9 +1336,6 @@
     <t>Daha fazla bilgi edinmek için Soru ve Cevap bölümlerinde ilerleyin</t>
   </si>
   <si>
-    <t>Se non hai trovato ancora adeguata assistenza, puoi chiedere di essere chiamato. Seleziona "Contatta il supporto"</t>
-  </si>
-  <si>
     <t>Henüz yeterli desteği bulamadıysanız, bir servis çağrısı talep edebilirsiniz. "Desteğe başvur" u tıklayın.</t>
   </si>
   <si>
@@ -1397,9 +1364,6 @@
   </si>
   <si>
     <t>Lütfen buradan Performans İyileştirme Planı hakkında daha fazla bilgi edinin (Bağlantı yakında sağlanacaktır).</t>
-  </si>
-  <si>
-    <t>Come controllare i pacchi attesi</t>
   </si>
   <si>
     <t>Beklenen teslimatlar nasıl kontrol edilir?</t>
@@ -1540,9 +1504,6 @@
     <t>Qu'est-ce que le service Amazon Counter ?</t>
   </si>
   <si>
-    <t>Come funziona il servizio Amazon Counter?</t>
-  </si>
-  <si>
     <t>L'emplacement de votre commerce fournit un service d'Amazon qui permet aux clients d'expédier des commandes dans votre commerce et de les récupérer. Vous apprendrez ici comment utiliser l'application, comment obtenir de l'aide et comment fournir un service de qualité à vos clients.</t>
   </si>
   <si>
@@ -1612,15 +1573,9 @@
     <t>Scannez tous les colis en plaçant chaque étiquette de colis dans le cadre de numérisation. Vous pouvez le tester en cliquant sur le cadre de numérisation ci-dessous. Vous pouvez vérifier si les colis sont scannés si la case à cocher est bleue. Cliquez une nouvelle fois sur le cadre de numérisation une fois que vous avez terminé.</t>
   </si>
   <si>
-    <t>Scansiona tutti i pacchi inquadrando l'etichetta del pacco con la camera. I pacchi scansionati con successo hanno una spunta blu. Quando hai finito, clicca ancora per uscire</t>
-  </si>
-  <si>
     <t>Stockez les colis dans un endroit sûr et structuré afin de pouvoir les récupérer facilement à l'arrivée du client.</t>
   </si>
   <si>
-    <t>Riponi i pacchi ricevuti in un luogo sicuro e accessibile per ritrovarli facilmente quando arriverà il cliente</t>
-  </si>
-  <si>
     <t>Que faire si je suis occupé ?</t>
   </si>
   <si>
@@ -1633,15 +1588,9 @@
     <t>Si vous choisissez de reporter le scan des colis, il vous sera demandé de confirmer votre choix et le délai de 30 minutes vous sera alors rappelé.</t>
   </si>
   <si>
-    <t>Se scegli di ritardare la scansione, ti verrà chiesto di confermare la scelta e ti verrà ricordato il limite massimo di 30 minuti per completarla</t>
-  </si>
-  <si>
     <t>Une fois que le délai de 30 minutes a expiré, vous devez scanner les colis immédiatement. Tant que les colis n'auront pas été scannés, vous ne pourrez pas accéder à d'autres fonctionnalités de l'application Amazon Hub Counter.</t>
   </si>
   <si>
-    <t>Allo scadere dei 30 minuti, devi eseguire la scansione dei pacchi ricevuti. Finché la scansione di tutti i pacchi ricevuti non é completata, non sarà possibile utilizzare nessuna altra funzionalità della App Amazon</t>
-  </si>
-  <si>
     <t>Que faire si j'ai des difficultés à scanner les colis ?</t>
   </si>
   <si>
@@ -1657,27 +1606,18 @@
     <t>Le numéro de suivi commence généralement par QC et contient 12 chiffres au total. Cliquez sur la case vide et commencez à taper le numéro de suivi.</t>
   </si>
   <si>
-    <t>Il tracking ID inizia di solito con BA, BB, o 166. Clicca sul campo di inserimento e digita il tracking ID</t>
-  </si>
-  <si>
     <t>Bitte üben Sie die durchzuführenden Schritte ein drittes Mal, bis der Scanrahmen angezeitg wird. Klicken Sie auf das Symbol, welches einer Tastatur ähnelt. Dies ist eine weitere Option, die Paket ID manuell einzugeben.</t>
   </si>
   <si>
     <t>Reprenez une troisième fois le processus de réception des colis et continuez jusqu'à ce que le cadre de numérisation apparaisse. Veuillez alors cliquer sur l'icône ressemblant à un clavier. Il s'agit d'un moyen alternatif de saisir manuellement l'identifiant de suivi.</t>
   </si>
   <si>
-    <t>Seleziona Consegna Corriere e nella finestra di scansione clicca sull'icona della tastiera. E' un modo alternativo per inserire il tracking ID a mano </t>
-  </si>
-  <si>
     <t>Si le problème persiste, vérifiez si votre téléphone est connecté au réseau (et non pas en mode avion), cliquez sur l'icône du flash si la luminosité est trop faible et essayez à nouveau de scanner le code barre. Si cela ne fonctionne pas, veuillez contacter l'assistance comme indiqué ci-dessous ("Comment obtenir de l'aide").</t>
   </si>
   <si>
     <t>Un client Amazon se présentera au magasin pour prendre ou récupérer son ou ses colis. Le client vous montrera une notification, qui comprend 1) un code-barres et 2) un code numérique à 6 chiffres. Vous devez scanner le code barre, trouver le colis et le scanner avant de le remettre au client. Vous devez scanner le code de retrait de chaque client ET le colis. Cela supprimera le colis de votre inventaire et celui-ci ne sera plus sous votre responsabilité.</t>
   </si>
   <si>
-    <t>Quando il cliente Amazon si presenta al punto vendita per il ritiro dei propri pacchi, dovrà mostrare la notifica ricevuta. Questa include 1) Un codice a barre e 2) Un codice numerico a 6 cifre. Devi prima scansionare il codice a barre del cliente, poi prendere il pacco. Infine devi scansionare il codice a barre del pacco prima di consegnarlo. Devi scansionare ogni codice ritiro del cliente e ogni codice a barre dei pacchi da consegnare, in modo da cancellarli dal tuo inventario e responsabilità  </t>
-  </si>
-  <si>
     <t>Sélectionnez "Remise d'un colis au client" sur l'écran d'accueil.</t>
   </si>
   <si>
@@ -1687,9 +1627,6 @@
     <t>Récupérez les colis disponibles pour le client comme indiqué dans la liste et sélectionnez "Scanner les colis". Cliquez sur "Scanner les colis".</t>
   </si>
   <si>
-    <t>Identifica nella lista mostrata i pacchi del cliente disponibili al ritiro e seleziona "Scansiona i pacchi". Clicca su “Scansiona i pacchi”</t>
-  </si>
-  <si>
     <t>Scannez toutes les colis en plaçant chaque étiquette du colis dans le cadre. Cliquez à nouveau sur le cadre de numérisation.</t>
   </si>
   <si>
@@ -1714,15 +1651,9 @@
     <t>Vous pouvez saisir manuellement le numéro de suivi du colis. Le bouton "Terminer" apparaît alors et vous remettez tous les colis au client.</t>
   </si>
   <si>
-    <t>Puoi inserire il tracking ID a mano. Quando l'ID e' riconosciuto, appare "Fatto" e puoi consegnare il pacco al cliente</t>
-  </si>
-  <si>
     <t>Que faire si le colis est introuvable ou si le client ne veut pas du colis ?</t>
   </si>
   <si>
-    <t>Che fare se il pacco non si trova o il cliente non vuole ritirarlo?</t>
-  </si>
-  <si>
     <t>Si le cadre de numérisation apparaît, ne scannez PAS le colis.</t>
   </si>
   <si>
@@ -1732,9 +1663,6 @@
     <t>Cliquez maintenant sur la taille du colis affichée à l'écran (par exemple, "petite taille").</t>
   </si>
   <si>
-    <t>Clicca sulla dimensione del pacco (per esempio "Busta piccola")</t>
-  </si>
-  <si>
     <t>Vous pouvez choisir "colis introuvable" ou "refusé".</t>
   </si>
   <si>
@@ -1747,9 +1675,6 @@
     <t>Si les clients ne récupèrent pas leur colis dans les 14 jours, le colis expire. Vous devez alors demander l'enlèvement par un livreur. Vous devez scanner les colis pour que le livreur vienne les chercher. Autrement, l'application vous empêchera d'effectuer d'autres tâches. Un livreur se rendra dans votre magasin pour récupérer les colis. Vous n'avez pas besoin de scanner les colis à l'arrivée du livreur - il suffit de les lui remettre.</t>
   </si>
   <si>
-    <t>Se i clienti non ritirano i pacchi entro 14 giorni, i pacchi sono considerati scaduti o abbandonati. Devi richiedere il ritiro del corriere facendone la scansione, altrimenti la App non ti permetterà di eseguire altre azioni. Il corriere arriverà al tuo punto vendita per ritirare i pacchi scaduti. Non devi fare la scansione dei pacchi quando arriva il corriere, solo consegnare i pacchi</t>
-  </si>
-  <si>
     <t>Si les colis arrivent à expiration, une notification apparaît sur l'écran principal.</t>
   </si>
   <si>
@@ -1804,9 +1729,6 @@
     <t>Afin d'assurer le bon fonctionnement du programme Amazon Hub Counter, Amazon dispose d'une assistance en ligne destinée à vous aider à résoudre les problèmes liés à l'application, aux téléphones et à la livraison.</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazon fornisce un servizio di assistenza per aiutarti a risolvere problemi con la App, il dispositivo di scansione o la consegna </t>
-  </si>
-  <si>
     <t>Vous obtiendrez de l'aide de la part d'Amazon en cliquant sur "?".</t>
   </si>
   <si>
@@ -1873,9 +1795,6 @@
     <t>Si vous souhaitez voir le numéro de suivi, vous pouvez cliquer sur le nom du client. Le numéro de suivi ainsi que le numéro du colis s'affichent.</t>
   </si>
   <si>
-    <t>Se vuoi vedere il tracking ID, seleziona il nokme del cliente. Verranno mostrati il tracking ID e l'ID del pacco</t>
-  </si>
-  <si>
     <t>FAQ - Questions fréquentes</t>
   </si>
   <si>
@@ -1891,9 +1810,6 @@
     <t>Veuillez contacter le service d'assistance d'Amazon en cliquant sur le " ?" (en haut à droite), faites défiler la page jusqu'à la fin et demandez de l'aide.</t>
   </si>
   <si>
-    <t>Contatta il servizio assistenza Amazon, premendo "?" (in alto a destra), e richiedendo supporto in fondo alla pagina di aiuto scroll down at the end of the help page and request support.</t>
-  </si>
-  <si>
     <t>Que faire si le transporteur tente de livrer un colis qui semble endommagé ?</t>
   </si>
   <si>
@@ -1903,9 +1819,6 @@
     <t>Si possible, ne scannez pas le colis endommagé et refusez-le en le rendant au chauffeur. Le chauffeur renverra le colis au dépôt et le client sera remboursé.</t>
   </si>
   <si>
-    <t>Se possibile, non scansione il pacco danneggiato e rifiutalo, restituendolo al corriere. Il corriere riporterà il pacco al magazziono e il cliente verrà rimborsatodo not scan in the damaged parcel and reject it by giving it back to the driver. The driver will return the parcel to the depot and the customer will receive a refund.</t>
-  </si>
-  <si>
     <t>Dois-je vérifier l'identité du client ?</t>
   </si>
   <si>
@@ -1963,49 +1876,171 @@
     <t/>
   </si>
   <si>
-    <t>Do I need to check the customers ID?</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
-    <t>https://invis.io/GB10O7P4DYTP</t>
-  </si>
-  <si>
-    <t>https://invis.io/BQ10OLEAAVZ8</t>
-  </si>
-  <si>
-    <t>https://invis.io/XT10Z5M393DW</t>
-  </si>
-  <si>
-    <t>https://invis.io/59110U3YZX7E</t>
-  </si>
-  <si>
-    <t>https://invis.io/PN110U3T5K34</t>
-  </si>
-  <si>
-    <t>https://invis.io/KX110U40RMSC</t>
-  </si>
-  <si>
-    <t>https://invis.io/4Y110TY4XWK6</t>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Come funziona il servizio di ritiro Amazon Counter?</t>
+  </si>
+  <si>
+    <t>Il tuo punto vendita fornisce il servizio di ritiro degli ordini Amazon. Imparerai come usare la App, ricevere supporto e fornire un servizio best-in-class ai tuoi clienti</t>
+  </si>
+  <si>
+    <t>Un corriere arriverà al tuo punto vendita per consegnare i pacchi dei clienti Amazon che lo hanno selezionato come punto di ritiro. Quando il corriere ti consegna i pacchi, devi scansionarne le etichette. Cerca di farlo il piu' presto possibile, in modo da inviare le notifiche al cliente per il ritiro. Il cliente ha 14 giorni di tempo per il ritiro</t>
+  </si>
+  <si>
+    <t>Esegui la scansione dei pacchi immediatamente dopo averli ricevuti. Seleziona "Scansiona tutti i pacchi ricevuti dal corriere"</t>
+  </si>
+  <si>
+    <t>Scansiona i codici di tutti i pacchi inquadrandone l'etichetta con la camera. Se la scansione e' riuscita, i pacchi mostreranno una spunta blu. Quando hai finito le scansioni, clicca ancora per uscire</t>
+  </si>
+  <si>
+    <t>Riponi i pacchi ricevuti in un luogo sicuro e accessibile, in modo da recuperarli facilmente quando arriverà il cliente</t>
+  </si>
+  <si>
+    <t>Che fare se sei occupato in altre attività?</t>
+  </si>
+  <si>
+    <t>Se scegli di ritardare la scansione, ti verrà chiesta conferma e ti verrà ricordato il limite massimo di 30 minuti per completarla</t>
+  </si>
+  <si>
+    <t>Allo scadere dei 30 minuti dalla ricezione, e' obbligatorio eseguire la scansione dei pacchi. Finché la scansione di tutti i pacchi ricevuti non verrà completata, non sarà possibile utilizzare nessun'altra funzionalità della App Amazon</t>
+  </si>
+  <si>
+    <t>Che fare se hai problemi con la scansione?</t>
+  </si>
+  <si>
+    <t>Seleziona "Non riesco a scansionare" e inserisci l'identificativo di tracciamento riportato sull'etichetta (Tracking ID)</t>
+  </si>
+  <si>
+    <t>The tracking ID usually starts with TBA or 1z. Click at the empty line and start to type in the tracking ID.</t>
+  </si>
+  <si>
+    <t>Il Tracking ID di solito inizia per BA, BB, o 166. Clicca sul campo di inserimento e digita il Tracking ID</t>
+  </si>
+  <si>
+    <t>Seleziona Consegna Corriere e nella finestra di scansione clicca sull'icona della tastiera. E' un'alternativa alla scansione che permette di digitare direttamente il Tracking ID riportato sull'etichetta</t>
+  </si>
+  <si>
+    <t>Se il problema persiste, verifica che il telefono sia connesso a Internet e non sia in modalità aereo. Se l'ambiente é troppo scuro, premi sul simbolo del flash  e controlla i codici scansionati. Se anche questo non risolve il problema, contatta il supporto come riportato in "Come ricevere assistenza"</t>
+  </si>
+  <si>
+    <t>//invis.io/W310O7P5JTXV</t>
+  </si>
+  <si>
+    <t>//invis.io/NX10OLEBWH2Y</t>
+  </si>
+  <si>
+    <t>//invis.io/BG10Z5M4C8K9</t>
+  </si>
+  <si>
+    <t>Quando il cliente Amazon si presenta al punto vendita per il ritiro dei propri pacchi, dovrà mostrare il messaggio ricevuto che include un codice a barre e un codice numerico a 6 cifre. Devi scansionare il codice a barre del cliente, prima di prendere il pacco. Poi devi scansionare il codice a barre del pacco prima di consegnarlo. Devi scansionare tutti i codici di ritiro del cliente e poi tutti i codice a barre dei pacchi da consegnare, per eliminarli dal tuo inventario e dalla tua  responsabilità  </t>
+  </si>
+  <si>
+    <t>Identifica nella lista mostrata i pacchi del cliente disponibili al ritiro e seleziona "Scansiona i pacchi", poi clicca su “Scansiona i pacchi”</t>
+  </si>
+  <si>
+    <t>Clicca sulla descrizione della dimensione del pacco (per esempio "Busta piccola")</t>
+  </si>
+  <si>
+    <t>Puoi inserire il Tracking Id digitandolo direttamente. Se il codice verrà riconosciuto, comparirà "Fatto" e potrai consegnare il pacco al cliente</t>
+  </si>
+  <si>
+    <t>Che fare se il pacco non si trova o se il cliente non vuole ritirarlo?</t>
+  </si>
+  <si>
+    <t>Se i clienti non ritirano i pacchi entro 14 giorni, i pacchi sono considerati scaduti o abbandonati. Quando ti viene richiesta la scansione dei pacchi abbandonati, devi eseguirla, altrimenti la App non ti permetterà altre azioni. Il corriere arriverà al tuo punto vendita per ritirare i pacchi scaduti entro pochi giorni. Quando arriva il corriere, non devi fare nuovamente la scansione dei pacchi, devi solo consegnarglieli</t>
+  </si>
+  <si>
+    <t>Quando arriva un corriere, seleziona "Ritiro corriere". Consegnagli i pacchi riportati nella lista che viene mostrata </t>
+  </si>
+  <si>
+    <t>Cosa fare se mancano dei pacchi?</t>
+  </si>
+  <si>
+    <t>Amazon fornisce un servizio di assistenza per aiutarti a risolvere problemi con la App, la scansione o la consegna dei pacchi</t>
+  </si>
+  <si>
+    <t>Se non hai ancora trovato un'assistenza adeguata, puoi chiedere di essere chiamato. Seleziona "Contatta il supporto"</t>
+  </si>
+  <si>
+    <t>Come fornire il miglior servizio possibile al cliente</t>
+  </si>
+  <si>
+    <t>È importante per Amazon e per te fornire un ottimo servizio ai tuoi clienti. Amazon ha creato un programma di miglioramento per aiutarti a riportare i problemi e migliorare il servizio. Il programma ha una durata di 3 mesi e copre 2 aree dell'esperienza di ritiro per i clienti. Le aree interessate sono la consegna dei pacchi per evitare consegne di pacchi mancanti o in ritardo e la scansione dei pacchi per evitare scansioni mancate:</t>
+  </si>
+  <si>
+    <t>Scansioni mancanti: una rapida scansione di tutti i pacchi permettere di far sapere ai clienti che il loro pacco è arrivato. La Scan compliance misura la percentuale di pacchi scansionati entro il giorno in cui il pacco viene consegnato</t>
+  </si>
+  <si>
+    <t>Successo nella consegna: la consegna rapida è fondamentale per l'esperienza dei clienti. È importante mantenere sempre aggiornati gli orari di apertura in modo che i corrieri arrivino quando il punto vendita è aperto e tu sia disponibile per la scansione dei pacchi consegnati</t>
+  </si>
+  <si>
+    <t>Ulteriori informazioni sul piano di miglioramento (il link verrà fornito a breve).</t>
+  </si>
+  <si>
+    <t>Come controllare i pacchi in arrivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+L'inventario include sia i pacchi in arrivo al punto vendita, sia quelli già consegnati al negozio che devono ancora essere ritirati dai clienti Amazon o dal corriere. I pacchi riportati nell'inventario devono essere conservati in un'area sicura e protetta dalla vista e dalla portata dei clienti. I luoghi ottimali per conservare i pacchi sono armadi, armadietti e cassetti nella zona in cui i clienti normalmente effettuano i pagamenti</t>
+  </si>
+  <si>
+    <t>Se vuoi vedere il tracking ID, seleziona il nome del cliente. Verranno mostrati il tracking ID e l'ID del pacco</t>
+  </si>
+  <si>
+    <t>Contatta il servizio assistenza Amazon, premendo "?" (in alto a destra), e richiedendo supporto in fondo alla pagina di aiuto</t>
+  </si>
+  <si>
+    <t>Se possibile, non scansionare il pacco danneggiato e rifiutalo, restituendolo al corriere. Il corriere riporterà il pacco al magazzino e il cliente verrà rimborsato</t>
+  </si>
+  <si>
+    <t>Cosa devo fare se il cliente non ha il messaggio di ritiro?</t>
+  </si>
+  <si>
+    <t>Se il cliente non riesce a trovare il messaggio di ritiro, puoi suggerire le seguenti alternative:  Controlla l'e-mail: il codice di ritiro si troverà in un'e-mail inviata da Amazon. Ottieni supporto: chiedi al cliente di contattare il servizio clienti selezionando Contattaci sul sito Web di Amazon o sull'app mobile di Amazon. Il servizio clienti Amazon e' in grado di inviare nuovamente il codice di ritiro, previa verifica dell'account del cliente</t>
+  </si>
+  <si>
+    <t>Che fare se il dispositivo di scansione e' rotto, oppure viene perso o rubato?</t>
+  </si>
+  <si>
+    <t>Che fare se la App non funziona?</t>
+  </si>
+  <si>
+    <t>Che fare se esaurisci lo spazio disponibile per i pacchi?</t>
+  </si>
+  <si>
+    <t>Che fare se ci sono pacchi scaduti in attesa del corriere per diversi giorni?</t>
+  </si>
+  <si>
+    <t>I pacchi scadono dopo 14 giorni. Considera inoltre un paio di giorni necessari al ritiro da parte del corriere. Contatta il supporto Amazon, premendo "?" (in alto a destra), e richiedendo supporto in fondo alla pagina di aiuto se i pacchi non sono ritirati entro 3 giorni</t>
+  </si>
+  <si>
+    <t>Che fare se ho dei pacchi scaduti in attesa del ritiro del corriere, ma il cliente arriva per ritirarli?</t>
+  </si>
+  <si>
+    <t>Segui il regolare processo di consegna dei pacchi al cliente come descritto sopra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2034,11 +2069,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2049,10 +2083,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2390,59 +2422,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F52" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.69921875" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-    <col min="3" max="3" width="29.296875" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="29.796875" customWidth="1"/>
-    <col min="8" max="8" width="29.296875" customWidth="1"/>
-    <col min="9" max="9" width="31.796875" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" customWidth="1"/>
+    <col min="4" max="4" width="29.296875" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" customWidth="1"/>
+    <col min="6" max="6" width="25.8984375" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="29.796875" customWidth="1"/>
+    <col min="9" max="9" width="29.296875" customWidth="1"/>
+    <col min="10" max="10" width="31.796875" customWidth="1"/>
+    <col min="14" max="14" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="C1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>235</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>498</v>
-      </c>
       <c r="H1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" t="s">
         <v>309</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>310</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>615</v>
+      </c>
+      <c r="L1" t="s">
+        <v>616</v>
+      </c>
+      <c r="M1" t="s">
+        <v>617</v>
+      </c>
+      <c r="N1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2462,19 +2506,31 @@
         <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>499</v>
+        <v>236</v>
       </c>
       <c r="H2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I2" t="s">
         <v>312</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>612</v>
+      </c>
+      <c r="L2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2485,28 +2541,40 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
-        <v>500</v>
-      </c>
       <c r="H3" t="s">
-        <v>501</v>
-      </c>
-      <c r="I3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I3" t="s">
+        <v>618</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>612</v>
+      </c>
+      <c r="L3" t="s">
+        <v>612</v>
+      </c>
+      <c r="M3" t="s">
+        <v>612</v>
+      </c>
+      <c r="N3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2517,28 +2585,40 @@
         <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
         <v>238</v>
       </c>
       <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
         <v>239</v>
       </c>
-      <c r="G4" t="s">
-        <v>502</v>
-      </c>
       <c r="H4" t="s">
+        <v>489</v>
+      </c>
+      <c r="I4" t="s">
+        <v>619</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>612</v>
+      </c>
+      <c r="L4" t="s">
+        <v>612</v>
+      </c>
+      <c r="M4" t="s">
+        <v>612</v>
+      </c>
+      <c r="N4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2549,30 +2629,42 @@
         <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>241</v>
       </c>
-      <c r="G5" t="s">
-        <v>503</v>
-      </c>
       <c r="H5" t="s">
+        <v>490</v>
+      </c>
+      <c r="I5" t="s">
+        <v>316</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>612</v>
+      </c>
+      <c r="L5" t="s">
+        <v>612</v>
+      </c>
+      <c r="M5" t="s">
+        <v>612</v>
+      </c>
+      <c r="N5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2581,28 +2673,40 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>504</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="H6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>612</v>
+      </c>
+      <c r="L6" t="s">
+        <v>612</v>
+      </c>
+      <c r="M6" t="s">
+        <v>612</v>
+      </c>
+      <c r="N6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2613,28 +2717,40 @@
         <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>506</v>
-      </c>
       <c r="H7" t="s">
+        <v>493</v>
+      </c>
+      <c r="I7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L7" t="s">
+        <v>612</v>
+      </c>
+      <c r="M7" t="s">
+        <v>612</v>
+      </c>
+      <c r="N7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2645,28 +2761,40 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
-        <v>507</v>
-      </c>
       <c r="H8" t="s">
+        <v>494</v>
+      </c>
+      <c r="I8" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>612</v>
+      </c>
+      <c r="L8" t="s">
+        <v>612</v>
+      </c>
+      <c r="M8" t="s">
+        <v>612</v>
+      </c>
+      <c r="N8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2677,30 +2805,42 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
-        <v>508</v>
-      </c>
       <c r="H9" t="s">
+        <v>495</v>
+      </c>
+      <c r="I9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>612</v>
+      </c>
+      <c r="L9" t="s">
+        <v>612</v>
+      </c>
+      <c r="M9" t="s">
+        <v>612</v>
+      </c>
+      <c r="N9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2709,62 +2849,86 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" t="s">
-        <v>509</v>
-      </c>
       <c r="H10" t="s">
-        <v>510</v>
-      </c>
-      <c r="I10" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I10" t="s">
+        <v>497</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K10" t="s">
+        <v>612</v>
+      </c>
+      <c r="L10" t="s">
+        <v>612</v>
+      </c>
+      <c r="M10" t="s">
+        <v>612</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B11" t="s">
         <v>327</v>
       </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>638</v>
-      </c>
-      <c r="B11" t="s">
-        <v>328</v>
-      </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
         <v>243</v>
       </c>
       <c r="F11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" t="s">
         <v>244</v>
       </c>
-      <c r="G11" t="s">
-        <v>511</v>
-      </c>
       <c r="H11" t="s">
+        <v>498</v>
+      </c>
+      <c r="I11" t="s">
+        <v>328</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>612</v>
+      </c>
+      <c r="L11" t="s">
+        <v>612</v>
+      </c>
+      <c r="M11" t="s">
+        <v>612</v>
+      </c>
+      <c r="N11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -2773,30 +2937,42 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
-        <v>512</v>
-      </c>
       <c r="H12" t="s">
+        <v>499</v>
+      </c>
+      <c r="I12" t="s">
+        <v>330</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>612</v>
+      </c>
+      <c r="L12" t="s">
+        <v>612</v>
+      </c>
+      <c r="M12" t="s">
+        <v>612</v>
+      </c>
+      <c r="N12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -2805,60 +2981,84 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" t="s">
-        <v>513</v>
-      </c>
       <c r="H13" t="s">
-        <v>514</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J13" t="s">
+        <v>500</v>
+      </c>
+      <c r="I13" t="s">
+        <v>501</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" t="s">
+        <v>612</v>
+      </c>
+      <c r="L13" t="s">
+        <v>612</v>
+      </c>
+      <c r="M13" t="s">
+        <v>612</v>
+      </c>
+      <c r="N13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="E14" t="s">
         <v>246</v>
       </c>
       <c r="F14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" t="s">
         <v>247</v>
       </c>
-      <c r="G14" t="s">
-        <v>515</v>
-      </c>
       <c r="H14" t="s">
+        <v>502</v>
+      </c>
+      <c r="I14" t="s">
+        <v>334</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>612</v>
+      </c>
+      <c r="L14" t="s">
+        <v>612</v>
+      </c>
+      <c r="M14" t="s">
+        <v>612</v>
+      </c>
+      <c r="N14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>248</v>
       </c>
@@ -2869,92 +3069,128 @@
         <v>249</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
         <v>250</v>
       </c>
       <c r="F15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G15" t="s">
         <v>251</v>
       </c>
-      <c r="G15" t="s">
-        <v>516</v>
-      </c>
       <c r="H15" t="s">
+        <v>503</v>
+      </c>
+      <c r="I15" t="s">
+        <v>336</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>612</v>
+      </c>
+      <c r="L15" t="s">
+        <v>612</v>
+      </c>
+      <c r="M15" t="s">
+        <v>612</v>
+      </c>
+      <c r="N15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="E16" t="s">
         <v>253</v>
       </c>
       <c r="F16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" t="s">
         <v>254</v>
       </c>
-      <c r="G16" t="s">
-        <v>517</v>
-      </c>
       <c r="H16" t="s">
+        <v>504</v>
+      </c>
+      <c r="I16" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>612</v>
+      </c>
+      <c r="L16" t="s">
+        <v>612</v>
+      </c>
+      <c r="M16" t="s">
+        <v>612</v>
+      </c>
+      <c r="N16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="E17" t="s">
         <v>256</v>
       </c>
       <c r="F17" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" t="s">
         <v>257</v>
       </c>
-      <c r="G17" t="s">
-        <v>518</v>
-      </c>
       <c r="H17" t="s">
+        <v>505</v>
+      </c>
+      <c r="I17" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>612</v>
+      </c>
+      <c r="L17" t="s">
+        <v>612</v>
+      </c>
+      <c r="M17" t="s">
+        <v>612</v>
+      </c>
+      <c r="N17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2965,28 +3201,40 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>504</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="H18" t="s">
+        <v>492</v>
+      </c>
+      <c r="I18" t="s">
+        <v>318</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>612</v>
+      </c>
+      <c r="L18" t="s">
+        <v>612</v>
+      </c>
+      <c r="M18" t="s">
+        <v>612</v>
+      </c>
+      <c r="N18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2997,28 +3245,40 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
-        <v>506</v>
-      </c>
       <c r="H19" t="s">
+        <v>493</v>
+      </c>
+      <c r="I19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>612</v>
+      </c>
+      <c r="L19" t="s">
+        <v>612</v>
+      </c>
+      <c r="M19" t="s">
+        <v>612</v>
+      </c>
+      <c r="N19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -3029,60 +3289,84 @@
         <v>258</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="E20" t="s">
         <v>37</v>
       </c>
       <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>344</v>
+      </c>
+      <c r="H20" t="s">
+        <v>506</v>
+      </c>
+      <c r="I20" t="s">
+        <v>620</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G20" t="s">
-        <v>519</v>
-      </c>
-      <c r="H20" t="s">
-        <v>258</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" t="s">
+        <v>612</v>
+      </c>
+      <c r="L20" t="s">
+        <v>612</v>
+      </c>
+      <c r="M20" t="s">
+        <v>612</v>
+      </c>
+      <c r="N20" t="s">
         <v>346</v>
       </c>
-      <c r="J20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
       </c>
       <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" t="s">
+        <v>507</v>
+      </c>
+      <c r="I21" t="s">
         <v>349</v>
       </c>
-      <c r="G21" t="s">
-        <v>520</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="J21" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J21" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>612</v>
+      </c>
+      <c r="L21" t="s">
+        <v>612</v>
+      </c>
+      <c r="M21" t="s">
+        <v>612</v>
+      </c>
+      <c r="N21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -3093,28 +3377,40 @@
         <v>259</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
       <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H22" t="s">
+        <v>508</v>
+      </c>
+      <c r="I22" t="s">
         <v>352</v>
       </c>
-      <c r="G22" t="s">
-        <v>521</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="J22" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>612</v>
+      </c>
+      <c r="L22" t="s">
+        <v>612</v>
+      </c>
+      <c r="M22" t="s">
+        <v>612</v>
+      </c>
+      <c r="N22" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3125,60 +3421,84 @@
         <v>260</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
         <v>261</v>
       </c>
       <c r="F23" t="s">
-        <v>522</v>
+        <v>261</v>
       </c>
       <c r="G23" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H23" t="s">
-        <v>355</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J23" t="s">
+        <v>510</v>
+      </c>
+      <c r="I23" t="s">
+        <v>621</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K23" t="s">
+        <v>612</v>
+      </c>
+      <c r="L23" t="s">
+        <v>612</v>
+      </c>
+      <c r="M23" t="s">
+        <v>612</v>
+      </c>
+      <c r="N23" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>641</v>
+        <v>355</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="E24" t="s">
         <v>262</v>
       </c>
       <c r="F24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" t="s">
         <v>263</v>
       </c>
-      <c r="G24" t="s">
-        <v>524</v>
-      </c>
       <c r="H24" t="s">
-        <v>525</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J24" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="I24" t="s">
+        <v>622</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K24" t="s">
+        <v>612</v>
+      </c>
+      <c r="L24" t="s">
+        <v>612</v>
+      </c>
+      <c r="M24" t="s">
+        <v>612</v>
+      </c>
+      <c r="N24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -3189,28 +3509,40 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
       </c>
       <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
         <v>47</v>
       </c>
-      <c r="G25" t="s">
-        <v>526</v>
-      </c>
       <c r="H25" t="s">
-        <v>527</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J25" t="s">
+        <v>512</v>
+      </c>
+      <c r="I25" t="s">
+        <v>623</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K25" t="s">
+        <v>612</v>
+      </c>
+      <c r="L25" t="s">
+        <v>612</v>
+      </c>
+      <c r="M25" t="s">
+        <v>612</v>
+      </c>
+      <c r="N25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -3221,28 +3553,40 @@
         <v>264</v>
       </c>
       <c r="D26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
         <v>265</v>
       </c>
       <c r="F26" t="s">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="G26" t="s">
-        <v>528</v>
+        <v>358</v>
       </c>
       <c r="H26" t="s">
-        <v>361</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J26" t="s">
+        <v>513</v>
+      </c>
+      <c r="I26" t="s">
+        <v>624</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K26" t="s">
+        <v>612</v>
+      </c>
+      <c r="L26" t="s">
+        <v>612</v>
+      </c>
+      <c r="M26" t="s">
+        <v>612</v>
+      </c>
+      <c r="N26" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -3253,28 +3597,40 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
         <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>363</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>529</v>
+        <v>360</v>
       </c>
       <c r="H27" t="s">
-        <v>530</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J27" t="s">
+        <v>514</v>
+      </c>
+      <c r="I27" t="s">
+        <v>515</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K27" t="s">
+        <v>612</v>
+      </c>
+      <c r="L27" t="s">
+        <v>612</v>
+      </c>
+      <c r="M27" t="s">
+        <v>612</v>
+      </c>
+      <c r="N27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3285,28 +3641,40 @@
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
         <v>54</v>
       </c>
       <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
         <v>55</v>
       </c>
-      <c r="G28" t="s">
-        <v>531</v>
-      </c>
       <c r="H28" t="s">
-        <v>532</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J28" t="s">
+        <v>516</v>
+      </c>
+      <c r="I28" t="s">
+        <v>625</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K28" t="s">
+        <v>612</v>
+      </c>
+      <c r="L28" t="s">
+        <v>612</v>
+      </c>
+      <c r="M28" t="s">
+        <v>612</v>
+      </c>
+      <c r="N28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3317,28 +3685,40 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
         <v>58</v>
       </c>
       <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
         <v>59</v>
       </c>
-      <c r="G29" t="s">
-        <v>533</v>
-      </c>
       <c r="H29" t="s">
-        <v>534</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J29" t="s">
+        <v>517</v>
+      </c>
+      <c r="I29" t="s">
+        <v>626</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K29" t="s">
+        <v>612</v>
+      </c>
+      <c r="L29" t="s">
+        <v>612</v>
+      </c>
+      <c r="M29" t="s">
+        <v>612</v>
+      </c>
+      <c r="N29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -3349,220 +3729,304 @@
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>367</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>535</v>
+        <v>364</v>
       </c>
       <c r="H30" t="s">
-        <v>368</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J30" t="s">
+        <v>518</v>
+      </c>
+      <c r="I30" t="s">
+        <v>627</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K30" t="s">
+        <v>612</v>
+      </c>
+      <c r="L30" t="s">
+        <v>612</v>
+      </c>
+      <c r="M30" t="s">
+        <v>612</v>
+      </c>
+      <c r="N30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>266</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>366</v>
       </c>
       <c r="E31" t="s">
         <v>267</v>
       </c>
       <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="G31" t="s">
-        <v>536</v>
-      </c>
       <c r="H31" t="s">
-        <v>537</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="I31" t="s">
+        <v>520</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K31" t="s">
+        <v>612</v>
+      </c>
+      <c r="L31" t="s">
+        <v>612</v>
+      </c>
+      <c r="M31" t="s">
+        <v>612</v>
+      </c>
+      <c r="N31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>368</v>
       </c>
       <c r="E32" t="s">
         <v>270</v>
       </c>
       <c r="F32" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>538</v>
+        <v>369</v>
       </c>
       <c r="H32" t="s">
-        <v>374</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J32" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="I32" t="s">
+        <v>628</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K32" t="s">
+        <v>612</v>
+      </c>
+      <c r="L32" t="s">
+        <v>612</v>
+      </c>
+      <c r="M32" t="s">
+        <v>612</v>
+      </c>
+      <c r="N32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>376</v>
+        <v>629</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>376</v>
+        <v>629</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>275</v>
       </c>
       <c r="B34" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C34" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="E34" t="s">
         <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>541</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="H34" t="s">
-        <v>543</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="I34" t="s">
+        <v>631</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K34" t="s">
+        <v>612</v>
+      </c>
+      <c r="L34" t="s">
+        <v>612</v>
+      </c>
+      <c r="M34" t="s">
+        <v>612</v>
+      </c>
+      <c r="N34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>276</v>
       </c>
       <c r="B35" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="E35" t="s">
         <v>277</v>
       </c>
       <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
         <v>278</v>
       </c>
-      <c r="G35" t="s">
-        <v>544</v>
-      </c>
       <c r="H35" t="s">
-        <v>382</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J35" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="I35" t="s">
+        <v>632</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K35" t="s">
+        <v>612</v>
+      </c>
+      <c r="L35" t="s">
+        <v>612</v>
+      </c>
+      <c r="M35" t="s">
+        <v>612</v>
+      </c>
+      <c r="N35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>612</v>
+      </c>
+      <c r="C36" t="s">
+        <v>612</v>
+      </c>
+      <c r="D36" t="s">
+        <v>633</v>
+      </c>
+      <c r="E36" t="s">
+        <v>634</v>
+      </c>
+      <c r="F36" t="s">
+        <v>634</v>
+      </c>
+      <c r="G36" t="s">
+        <v>635</v>
+      </c>
+      <c r="H36" t="s">
+        <v>633</v>
+      </c>
+      <c r="I36" t="s">
+        <v>633</v>
+      </c>
+      <c r="J36" t="s">
+        <v>633</v>
+      </c>
+      <c r="K36" t="s">
+        <v>612</v>
+      </c>
+      <c r="L36" t="s">
+        <v>612</v>
+      </c>
+      <c r="M36" t="s">
+        <v>612</v>
+      </c>
+      <c r="N36" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -3573,92 +4037,128 @@
         <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
         <v>21</v>
       </c>
-      <c r="G37" t="s">
-        <v>507</v>
-      </c>
       <c r="H37" t="s">
-        <v>323</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J37" t="s">
+        <v>494</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K37" t="s">
+        <v>612</v>
+      </c>
+      <c r="L37" t="s">
+        <v>612</v>
+      </c>
+      <c r="M37" t="s">
+        <v>612</v>
+      </c>
+      <c r="N37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C38" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>379</v>
       </c>
       <c r="E38" t="s">
         <v>279</v>
       </c>
       <c r="F38" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="G38" t="s">
-        <v>545</v>
+        <v>380</v>
       </c>
       <c r="H38" t="s">
-        <v>546</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J38" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="I38" t="s">
+        <v>636</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K38" t="s">
+        <v>612</v>
+      </c>
+      <c r="L38" t="s">
+        <v>612</v>
+      </c>
+      <c r="M38" t="s">
+        <v>612</v>
+      </c>
+      <c r="N38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
       </c>
       <c r="F39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>348</v>
+      </c>
+      <c r="H39" t="s">
+        <v>507</v>
+      </c>
+      <c r="I39" t="s">
         <v>349</v>
       </c>
-      <c r="G39" t="s">
-        <v>520</v>
-      </c>
-      <c r="H39" t="s">
-        <v>350</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J39" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J39" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K39" t="s">
+        <v>612</v>
+      </c>
+      <c r="L39" t="s">
+        <v>612</v>
+      </c>
+      <c r="M39" t="s">
+        <v>612</v>
+      </c>
+      <c r="N39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -3669,28 +4169,40 @@
         <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
         <v>72</v>
       </c>
       <c r="F40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" t="s">
         <v>73</v>
       </c>
-      <c r="G40" t="s">
-        <v>547</v>
-      </c>
       <c r="H40" t="s">
-        <v>389</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J40" t="s">
+        <v>527</v>
+      </c>
+      <c r="I40" t="s">
+        <v>533</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K40" t="s">
+        <v>612</v>
+      </c>
+      <c r="L40" t="s">
+        <v>612</v>
+      </c>
+      <c r="M40" t="s">
+        <v>612</v>
+      </c>
+      <c r="N40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -3701,28 +4213,40 @@
         <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
         <v>76</v>
       </c>
       <c r="F41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s">
         <v>77</v>
       </c>
-      <c r="G41" t="s">
-        <v>548</v>
-      </c>
       <c r="H41" t="s">
-        <v>391</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J41" t="s">
+        <v>528</v>
+      </c>
+      <c r="I41" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K41" t="s">
+        <v>612</v>
+      </c>
+      <c r="L41" t="s">
+        <v>612</v>
+      </c>
+      <c r="M41" t="s">
+        <v>612</v>
+      </c>
+      <c r="N41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -3733,28 +4257,40 @@
         <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
         <v>80</v>
       </c>
       <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
         <v>81</v>
       </c>
-      <c r="G42" t="s">
-        <v>549</v>
-      </c>
       <c r="H42" t="s">
-        <v>550</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J42" t="s">
+        <v>529</v>
+      </c>
+      <c r="I42" t="s">
+        <v>637</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K42" t="s">
+        <v>612</v>
+      </c>
+      <c r="L42" t="s">
+        <v>612</v>
+      </c>
+      <c r="M42" t="s">
+        <v>612</v>
+      </c>
+      <c r="N42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3765,28 +4301,40 @@
         <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
         <v>84</v>
       </c>
       <c r="F43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s">
         <v>85</v>
       </c>
-      <c r="G43" t="s">
-        <v>551</v>
-      </c>
       <c r="H43" t="s">
-        <v>394</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J43" t="s">
+        <v>530</v>
+      </c>
+      <c r="I43" t="s">
+        <v>387</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K43" t="s">
+        <v>612</v>
+      </c>
+      <c r="L43" t="s">
+        <v>612</v>
+      </c>
+      <c r="M43" t="s">
+        <v>612</v>
+      </c>
+      <c r="N43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -3797,28 +4345,40 @@
         <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>552</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="H44" t="s">
-        <v>396</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J44" t="s">
+        <v>532</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="K44" t="s">
+        <v>612</v>
+      </c>
+      <c r="L44" t="s">
+        <v>612</v>
+      </c>
+      <c r="M44" t="s">
+        <v>612</v>
+      </c>
+      <c r="N44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3829,28 +4389,40 @@
         <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
         <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>535</v>
+        <v>364</v>
       </c>
       <c r="H45" t="s">
-        <v>368</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J45" t="s">
+        <v>518</v>
+      </c>
+      <c r="I45" t="s">
+        <v>627</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>612</v>
+      </c>
+      <c r="L45" t="s">
+        <v>612</v>
+      </c>
+      <c r="M45" t="s">
+        <v>612</v>
+      </c>
+      <c r="N45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>280</v>
       </c>
@@ -3861,28 +4433,40 @@
         <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
         <v>72</v>
       </c>
       <c r="F46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" t="s">
         <v>73</v>
       </c>
-      <c r="G46" t="s">
-        <v>547</v>
-      </c>
       <c r="H46" t="s">
-        <v>554</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J46" t="s">
+        <v>527</v>
+      </c>
+      <c r="I46" t="s">
+        <v>533</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>612</v>
+      </c>
+      <c r="L46" t="s">
+        <v>612</v>
+      </c>
+      <c r="M46" t="s">
+        <v>612</v>
+      </c>
+      <c r="N46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -3893,28 +4477,40 @@
         <v>282</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="E47" t="s">
         <v>91</v>
       </c>
       <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s">
         <v>283</v>
       </c>
-      <c r="G47" t="s">
-        <v>555</v>
-      </c>
       <c r="H47" t="s">
-        <v>399</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="J47" t="s">
+        <v>534</v>
+      </c>
+      <c r="I47" t="s">
+        <v>392</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K47" t="s">
+        <v>612</v>
+      </c>
+      <c r="L47" t="s">
+        <v>612</v>
+      </c>
+      <c r="M47" t="s">
+        <v>612</v>
+      </c>
+      <c r="N47" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>284</v>
       </c>
@@ -3925,28 +4521,40 @@
         <v>285</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>285</v>
       </c>
       <c r="E48" t="s">
         <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>401</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s">
-        <v>556</v>
+        <v>394</v>
       </c>
       <c r="H48" t="s">
-        <v>402</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J48" t="s">
+        <v>535</v>
+      </c>
+      <c r="I48" t="s">
+        <v>638</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>612</v>
+      </c>
+      <c r="L48" t="s">
+        <v>612</v>
+      </c>
+      <c r="M48" t="s">
+        <v>612</v>
+      </c>
+      <c r="N48" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>286</v>
       </c>
@@ -3957,28 +4565,40 @@
         <v>287</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="E49" t="s">
         <v>93</v>
       </c>
       <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
         <v>271</v>
       </c>
-      <c r="G49" t="s">
-        <v>557</v>
-      </c>
       <c r="H49" t="s">
-        <v>404</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="J49" t="s">
+        <v>536</v>
+      </c>
+      <c r="I49" t="s">
+        <v>396</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K49" t="s">
+        <v>612</v>
+      </c>
+      <c r="L49" t="s">
+        <v>612</v>
+      </c>
+      <c r="M49" t="s">
+        <v>612</v>
+      </c>
+      <c r="N49" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>288</v>
       </c>
@@ -3989,60 +4609,84 @@
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" t="s">
         <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>558</v>
+        <v>398</v>
       </c>
       <c r="H50" t="s">
-        <v>559</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="J50" t="s">
+        <v>537</v>
+      </c>
+      <c r="I50" t="s">
+        <v>639</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K50" t="s">
+        <v>612</v>
+      </c>
+      <c r="L50" t="s">
+        <v>612</v>
+      </c>
+      <c r="M50" t="s">
+        <v>612</v>
+      </c>
+      <c r="N50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>289</v>
       </c>
       <c r="B51" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C51" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="E51" t="s">
         <v>277</v>
       </c>
       <c r="F51" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" t="s">
         <v>278</v>
       </c>
-      <c r="G51" t="s">
-        <v>544</v>
-      </c>
       <c r="H51" t="s">
-        <v>382</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J51" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="I51" t="s">
+        <v>632</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s">
+        <v>612</v>
+      </c>
+      <c r="L51" t="s">
+        <v>612</v>
+      </c>
+      <c r="M51" t="s">
+        <v>612</v>
+      </c>
+      <c r="N51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -4053,28 +4697,40 @@
         <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
         <v>98</v>
       </c>
       <c r="F52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" t="s">
         <v>99</v>
       </c>
-      <c r="G52" t="s">
-        <v>560</v>
-      </c>
       <c r="H52" t="s">
-        <v>561</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J52" t="s">
+        <v>538</v>
+      </c>
+      <c r="I52" t="s">
+        <v>640</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K52" t="s">
+        <v>612</v>
+      </c>
+      <c r="L52" t="s">
+        <v>612</v>
+      </c>
+      <c r="M52" t="s">
+        <v>612</v>
+      </c>
+      <c r="N52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -4085,28 +4741,40 @@
         <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" t="s">
         <v>102</v>
       </c>
       <c r="F53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" t="s">
         <v>103</v>
       </c>
-      <c r="G53" t="s">
-        <v>562</v>
-      </c>
       <c r="H53" t="s">
-        <v>563</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J53" t="s">
+        <v>539</v>
+      </c>
+      <c r="I53" t="s">
+        <v>540</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K53" t="s">
+        <v>612</v>
+      </c>
+      <c r="L53" t="s">
+        <v>612</v>
+      </c>
+      <c r="M53" t="s">
+        <v>612</v>
+      </c>
+      <c r="N53" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -4117,28 +4785,40 @@
         <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>106</v>
       </c>
       <c r="F54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" t="s">
         <v>107</v>
       </c>
-      <c r="G54" t="s">
-        <v>564</v>
-      </c>
       <c r="H54" t="s">
-        <v>565</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="J54" t="s">
+        <v>541</v>
+      </c>
+      <c r="I54" t="s">
+        <v>638</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K54" t="s">
+        <v>612</v>
+      </c>
+      <c r="L54" t="s">
+        <v>612</v>
+      </c>
+      <c r="M54" t="s">
+        <v>612</v>
+      </c>
+      <c r="N54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -4149,60 +4829,84 @@
         <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>412</v>
+        <v>110</v>
       </c>
       <c r="G55" t="s">
-        <v>566</v>
+        <v>404</v>
       </c>
       <c r="H55" t="s">
-        <v>567</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="J55" t="s">
+        <v>542</v>
+      </c>
+      <c r="I55" t="s">
+        <v>543</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K55" t="s">
+        <v>612</v>
+      </c>
+      <c r="L55" t="s">
+        <v>612</v>
+      </c>
+      <c r="M55" t="s">
+        <v>612</v>
+      </c>
+      <c r="N55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>612</v>
+      </c>
+      <c r="C56" t="s">
+        <v>612</v>
+      </c>
+      <c r="D56" t="s">
+        <v>633</v>
+      </c>
+      <c r="E56" t="s">
+        <v>634</v>
+      </c>
+      <c r="F56" t="s">
+        <v>634</v>
+      </c>
+      <c r="G56" t="s">
+        <v>635</v>
+      </c>
+      <c r="H56" t="s">
+        <v>633</v>
+      </c>
+      <c r="I56" t="s">
+        <v>633</v>
+      </c>
+      <c r="J56" t="s">
+        <v>633</v>
+      </c>
+      <c r="K56" t="s">
+        <v>612</v>
+      </c>
+      <c r="L56" t="s">
+        <v>612</v>
+      </c>
+      <c r="M56" t="s">
+        <v>612</v>
+      </c>
+      <c r="N56" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -4213,92 +4917,128 @@
         <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>113</v>
       </c>
       <c r="F57" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" t="s">
         <v>25</v>
       </c>
-      <c r="G57" t="s">
-        <v>568</v>
-      </c>
       <c r="H57" t="s">
+        <v>544</v>
+      </c>
+      <c r="I57" t="s">
+        <v>324</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
+        <v>612</v>
+      </c>
+      <c r="L57" t="s">
+        <v>612</v>
+      </c>
+      <c r="M57" t="s">
+        <v>612</v>
+      </c>
+      <c r="N57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C58" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s">
-        <v>290</v>
+        <v>406</v>
       </c>
       <c r="E58" t="s">
         <v>290</v>
       </c>
       <c r="F58" t="s">
+        <v>290</v>
+      </c>
+      <c r="G58" t="s">
         <v>291</v>
       </c>
-      <c r="G58" t="s">
-        <v>569</v>
-      </c>
       <c r="H58" t="s">
-        <v>570</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="J58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="I58" t="s">
+        <v>641</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K58" t="s">
+        <v>612</v>
+      </c>
+      <c r="L58" t="s">
+        <v>612</v>
+      </c>
+      <c r="M58" t="s">
+        <v>612</v>
+      </c>
+      <c r="N58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="E59" t="s">
         <v>39</v>
       </c>
       <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s">
+        <v>348</v>
+      </c>
+      <c r="H59" t="s">
+        <v>507</v>
+      </c>
+      <c r="I59" t="s">
         <v>349</v>
       </c>
-      <c r="G59" t="s">
-        <v>520</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="J59" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J59" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" t="s">
+        <v>612</v>
+      </c>
+      <c r="L59" t="s">
+        <v>612</v>
+      </c>
+      <c r="M59" t="s">
+        <v>612</v>
+      </c>
+      <c r="N59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -4309,28 +5049,40 @@
         <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
         <v>118</v>
       </c>
       <c r="F60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" t="s">
         <v>119</v>
       </c>
-      <c r="G60" t="s">
-        <v>571</v>
-      </c>
       <c r="H60" t="s">
-        <v>572</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J60" t="s">
+        <v>546</v>
+      </c>
+      <c r="I60" t="s">
+        <v>547</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K60" t="s">
+        <v>612</v>
+      </c>
+      <c r="L60" t="s">
+        <v>612</v>
+      </c>
+      <c r="M60" t="s">
+        <v>612</v>
+      </c>
+      <c r="N60" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -4341,60 +5093,84 @@
         <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
         <v>122</v>
       </c>
       <c r="F61" t="s">
-        <v>573</v>
+        <v>122</v>
       </c>
       <c r="G61" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="H61" t="s">
-        <v>575</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J61" t="s">
+        <v>549</v>
+      </c>
+      <c r="I61" t="s">
+        <v>550</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K61" t="s">
+        <v>612</v>
+      </c>
+      <c r="L61" t="s">
+        <v>612</v>
+      </c>
+      <c r="M61" t="s">
+        <v>612</v>
+      </c>
+      <c r="N61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C62" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="E62" t="s">
         <v>124</v>
       </c>
       <c r="F62" t="s">
-        <v>576</v>
+        <v>124</v>
       </c>
       <c r="G62" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="H62" t="s">
-        <v>419</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J62" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="I62" t="s">
+        <v>642</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="K62" t="s">
+        <v>612</v>
+      </c>
+      <c r="L62" t="s">
+        <v>612</v>
+      </c>
+      <c r="M62" t="s">
+        <v>612</v>
+      </c>
+      <c r="N62" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -4405,60 +5181,84 @@
         <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
         <v>127</v>
       </c>
       <c r="F63" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" t="s">
         <v>128</v>
       </c>
-      <c r="G63" t="s">
-        <v>578</v>
-      </c>
       <c r="H63" t="s">
-        <v>421</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J63" t="s">
+        <v>553</v>
+      </c>
+      <c r="I63" t="s">
+        <v>643</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" t="s">
+        <v>612</v>
+      </c>
+      <c r="L63" t="s">
+        <v>612</v>
+      </c>
+      <c r="M63" t="s">
+        <v>612</v>
+      </c>
+      <c r="N63" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C64" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>413</v>
       </c>
       <c r="E64" t="s">
         <v>130</v>
       </c>
       <c r="F64" t="s">
-        <v>579</v>
+        <v>130</v>
       </c>
       <c r="G64" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="H64" t="s">
-        <v>424</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="J64" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="I64" t="s">
+        <v>414</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K64" t="s">
+        <v>612</v>
+      </c>
+      <c r="L64" t="s">
+        <v>612</v>
+      </c>
+      <c r="M64" t="s">
+        <v>612</v>
+      </c>
+      <c r="N64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -4469,60 +5269,84 @@
         <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E65" t="s">
         <v>133</v>
       </c>
       <c r="F65" t="s">
-        <v>581</v>
+        <v>133</v>
       </c>
       <c r="G65" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="H65" t="s">
-        <v>426</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J65" t="s">
+        <v>557</v>
+      </c>
+      <c r="I65" t="s">
+        <v>416</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K65" t="s">
+        <v>612</v>
+      </c>
+      <c r="L65" t="s">
+        <v>612</v>
+      </c>
+      <c r="M65" t="s">
+        <v>612</v>
+      </c>
+      <c r="N65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C66" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>418</v>
       </c>
       <c r="E66" t="s">
         <v>135</v>
       </c>
       <c r="F66" t="s">
-        <v>583</v>
+        <v>135</v>
       </c>
       <c r="G66" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="H66" t="s">
-        <v>429</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="J66" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+      <c r="I66" t="s">
+        <v>419</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K66" t="s">
+        <v>612</v>
+      </c>
+      <c r="L66" t="s">
+        <v>612</v>
+      </c>
+      <c r="M66" t="s">
+        <v>612</v>
+      </c>
+      <c r="N66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -4533,60 +5357,84 @@
         <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E67" t="s">
         <v>138</v>
       </c>
       <c r="F67" t="s">
-        <v>585</v>
+        <v>138</v>
       </c>
       <c r="G67" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="H67" t="s">
-        <v>431</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J67" t="s">
+        <v>561</v>
+      </c>
+      <c r="I67" t="s">
+        <v>421</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K67" t="s">
+        <v>612</v>
+      </c>
+      <c r="L67" t="s">
+        <v>612</v>
+      </c>
+      <c r="M67" t="s">
+        <v>612</v>
+      </c>
+      <c r="N67" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>633</v>
+      </c>
+      <c r="C68" t="s">
+        <v>633</v>
+      </c>
+      <c r="D68" t="s">
+        <v>633</v>
+      </c>
+      <c r="E68" t="s">
+        <v>634</v>
+      </c>
+      <c r="F68" t="s">
+        <v>634</v>
+      </c>
+      <c r="G68" t="s">
+        <v>635</v>
+      </c>
+      <c r="H68" t="s">
+        <v>633</v>
+      </c>
+      <c r="I68" t="s">
+        <v>633</v>
+      </c>
+      <c r="J68" t="s">
+        <v>633</v>
+      </c>
+      <c r="K68" t="s">
+        <v>612</v>
+      </c>
+      <c r="L68" t="s">
+        <v>612</v>
+      </c>
+      <c r="M68" t="s">
+        <v>612</v>
+      </c>
+      <c r="N68" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -4597,60 +5445,84 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69" t="s">
         <v>27</v>
       </c>
       <c r="F69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
         <v>28</v>
       </c>
-      <c r="G69" t="s">
-        <v>509</v>
-      </c>
       <c r="H69" t="s">
-        <v>510</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J69" t="s">
+        <v>496</v>
+      </c>
+      <c r="I69" t="s">
+        <v>497</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K69" t="s">
+        <v>612</v>
+      </c>
+      <c r="L69" t="s">
+        <v>612</v>
+      </c>
+      <c r="M69" t="s">
+        <v>612</v>
+      </c>
+      <c r="N69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C70" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>424</v>
       </c>
       <c r="E70" t="s">
         <v>141</v>
       </c>
       <c r="F70" t="s">
-        <v>587</v>
+        <v>141</v>
       </c>
       <c r="G70" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="H70" t="s">
-        <v>589</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J70" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="I70" t="s">
+        <v>644</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K70" t="s">
+        <v>612</v>
+      </c>
+      <c r="L70" t="s">
+        <v>612</v>
+      </c>
+      <c r="M70" t="s">
+        <v>612</v>
+      </c>
+      <c r="N70" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -4661,60 +5533,84 @@
         <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E71" t="s">
         <v>144</v>
       </c>
       <c r="F71" t="s">
-        <v>436</v>
+        <v>144</v>
       </c>
       <c r="G71" t="s">
-        <v>590</v>
+        <v>426</v>
       </c>
       <c r="H71" t="s">
-        <v>437</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="J71" t="s">
+        <v>564</v>
+      </c>
+      <c r="I71" t="s">
+        <v>427</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K71" t="s">
+        <v>612</v>
+      </c>
+      <c r="L71" t="s">
+        <v>612</v>
+      </c>
+      <c r="M71" t="s">
+        <v>612</v>
+      </c>
+      <c r="N71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C72" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>429</v>
       </c>
       <c r="E72" t="s">
         <v>146</v>
       </c>
       <c r="F72" t="s">
-        <v>440</v>
+        <v>146</v>
       </c>
       <c r="G72" t="s">
-        <v>591</v>
+        <v>430</v>
       </c>
       <c r="H72" t="s">
-        <v>441</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J72" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="I72" t="s">
+        <v>431</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K72" t="s">
+        <v>612</v>
+      </c>
+      <c r="L72" t="s">
+        <v>612</v>
+      </c>
+      <c r="M72" t="s">
+        <v>612</v>
+      </c>
+      <c r="N72" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -4725,28 +5621,40 @@
         <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
         <v>149</v>
       </c>
       <c r="F73" t="s">
-        <v>443</v>
+        <v>149</v>
       </c>
       <c r="G73" t="s">
-        <v>592</v>
+        <v>433</v>
       </c>
       <c r="H73" t="s">
-        <v>593</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="J73" t="s">
+        <v>566</v>
+      </c>
+      <c r="I73" t="s">
+        <v>567</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K73" t="s">
+        <v>612</v>
+      </c>
+      <c r="L73" t="s">
+        <v>612</v>
+      </c>
+      <c r="M73" t="s">
+        <v>612</v>
+      </c>
+      <c r="N73" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -4757,28 +5665,40 @@
         <v>292</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E74" t="s">
         <v>293</v>
       </c>
       <c r="F74" t="s">
-        <v>594</v>
+        <v>293</v>
       </c>
       <c r="G74" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="H74" t="s">
-        <v>445</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J74" t="s">
+        <v>569</v>
+      </c>
+      <c r="I74" t="s">
+        <v>645</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K74" t="s">
+        <v>612</v>
+      </c>
+      <c r="L74" t="s">
+        <v>612</v>
+      </c>
+      <c r="M74" t="s">
+        <v>612</v>
+      </c>
+      <c r="N74" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -4789,316 +5709,436 @@
         <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
         <v>153</v>
       </c>
       <c r="F75" t="s">
-        <v>447</v>
+        <v>153</v>
       </c>
       <c r="G75" t="s">
-        <v>596</v>
+        <v>436</v>
       </c>
       <c r="H75" t="s">
-        <v>448</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="J75" t="s">
+        <v>570</v>
+      </c>
+      <c r="I75" t="s">
+        <v>437</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K75" t="s">
+        <v>612</v>
+      </c>
+      <c r="L75" t="s">
+        <v>612</v>
+      </c>
+      <c r="M75" t="s">
+        <v>612</v>
+      </c>
+      <c r="N75" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>294</v>
       </c>
       <c r="B76" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C76" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D76" t="s">
-        <v>243</v>
+        <v>439</v>
       </c>
       <c r="E76" t="s">
         <v>243</v>
       </c>
       <c r="F76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G76" t="s">
         <v>244</v>
       </c>
-      <c r="G76" t="s">
-        <v>511</v>
-      </c>
       <c r="H76" t="s">
+        <v>498</v>
+      </c>
+      <c r="I76" t="s">
+        <v>646</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J76" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" t="s">
+        <v>612</v>
+      </c>
+      <c r="L76" t="s">
+        <v>612</v>
+      </c>
+      <c r="M76" t="s">
+        <v>612</v>
+      </c>
+      <c r="N76" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>295</v>
       </c>
       <c r="B77" t="s">
-        <v>641</v>
+        <v>440</v>
       </c>
       <c r="C77" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D77" t="s">
-        <v>296</v>
+        <v>440</v>
       </c>
       <c r="E77" t="s">
         <v>296</v>
       </c>
       <c r="F77" t="s">
-        <v>597</v>
+        <v>296</v>
       </c>
       <c r="G77" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="H77" t="s">
-        <v>451</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J77" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="I77" t="s">
+        <v>647</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K77" t="s">
+        <v>612</v>
+      </c>
+      <c r="L77" t="s">
+        <v>612</v>
+      </c>
+      <c r="M77" t="s">
+        <v>612</v>
+      </c>
+      <c r="N77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>297</v>
       </c>
       <c r="B78" t="s">
-        <v>641</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s">
         <v>298</v>
       </c>
       <c r="D78" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s">
         <v>299</v>
       </c>
       <c r="F78" t="s">
+        <v>299</v>
+      </c>
+      <c r="G78" t="s">
         <v>300</v>
       </c>
-      <c r="G78" t="s">
-        <v>599</v>
-      </c>
       <c r="H78" t="s">
+        <v>573</v>
+      </c>
+      <c r="I78" t="s">
+        <v>648</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K78" t="s">
+        <v>612</v>
+      </c>
+      <c r="L78" t="s">
+        <v>612</v>
+      </c>
+      <c r="M78" t="s">
+        <v>612</v>
+      </c>
+      <c r="N78" t="s">
         <v>298</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>301</v>
       </c>
       <c r="B79" t="s">
-        <v>641</v>
+        <v>302</v>
       </c>
       <c r="C79" t="s">
         <v>302</v>
       </c>
       <c r="D79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E79" t="s">
         <v>303</v>
       </c>
       <c r="F79" t="s">
+        <v>303</v>
+      </c>
+      <c r="G79" t="s">
         <v>304</v>
       </c>
-      <c r="G79" t="s">
-        <v>600</v>
-      </c>
       <c r="H79" t="s">
+        <v>574</v>
+      </c>
+      <c r="I79" t="s">
+        <v>649</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K79" t="s">
+        <v>612</v>
+      </c>
+      <c r="L79" t="s">
+        <v>612</v>
+      </c>
+      <c r="M79" t="s">
+        <v>612</v>
+      </c>
+      <c r="N79" t="s">
         <v>302</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J79" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>305</v>
       </c>
       <c r="B80" t="s">
-        <v>641</v>
+        <v>306</v>
       </c>
       <c r="C80" t="s">
         <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E80" t="s">
         <v>307</v>
       </c>
       <c r="F80" t="s">
+        <v>307</v>
+      </c>
+      <c r="G80" t="s">
         <v>308</v>
       </c>
-      <c r="G80" t="s">
-        <v>601</v>
-      </c>
       <c r="H80" t="s">
+        <v>575</v>
+      </c>
+      <c r="I80" t="s">
+        <v>650</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="K80" t="s">
+        <v>612</v>
+      </c>
+      <c r="L80" t="s">
+        <v>612</v>
+      </c>
+      <c r="M80" t="s">
+        <v>612</v>
+      </c>
+      <c r="N80" t="s">
         <v>306</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J80" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>641</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
         <v>155</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E81" t="s">
         <v>156</v>
       </c>
       <c r="F81" t="s">
+        <v>156</v>
+      </c>
+      <c r="G81" t="s">
         <v>31</v>
       </c>
-      <c r="G81" t="s">
-        <v>512</v>
-      </c>
       <c r="H81" t="s">
-        <v>456</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="J81" t="s">
+        <v>499</v>
+      </c>
+      <c r="I81" t="s">
+        <v>651</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K81" t="s">
+        <v>612</v>
+      </c>
+      <c r="L81" t="s">
+        <v>612</v>
+      </c>
+      <c r="M81" t="s">
+        <v>612</v>
+      </c>
+      <c r="N81" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>157</v>
       </c>
       <c r="B82" t="s">
-        <v>641</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
         <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" t="s">
         <v>159</v>
       </c>
       <c r="F82" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" t="s">
         <v>160</v>
       </c>
-      <c r="G82" t="s">
-        <v>602</v>
-      </c>
       <c r="H82" t="s">
-        <v>458</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J82" t="s">
+        <v>576</v>
+      </c>
+      <c r="I82" t="s">
+        <v>446</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K82" t="s">
+        <v>612</v>
+      </c>
+      <c r="L82" t="s">
+        <v>612</v>
+      </c>
+      <c r="M82" t="s">
+        <v>612</v>
+      </c>
+      <c r="N82" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>641</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
         <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E83" t="s">
         <v>163</v>
       </c>
       <c r="F83" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" t="s">
         <v>164</v>
       </c>
-      <c r="G83" t="s">
-        <v>603</v>
-      </c>
       <c r="H83" t="s">
+        <v>577</v>
+      </c>
+      <c r="I83" t="s">
+        <v>652</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K83" t="s">
+        <v>612</v>
+      </c>
+      <c r="L83" t="s">
+        <v>612</v>
+      </c>
+      <c r="M83" t="s">
+        <v>612</v>
+      </c>
+      <c r="N83" t="s">
         <v>162</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="J83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C84" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>449</v>
       </c>
       <c r="E84" t="s">
         <v>166</v>
       </c>
       <c r="F84" t="s">
-        <v>462</v>
+        <v>166</v>
       </c>
       <c r="G84" t="s">
-        <v>604</v>
+        <v>450</v>
       </c>
       <c r="H84" t="s">
-        <v>605</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="J84" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="I84" t="s">
+        <v>579</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K84" t="s">
+        <v>612</v>
+      </c>
+      <c r="L84" t="s">
+        <v>612</v>
+      </c>
+      <c r="M84" t="s">
+        <v>612</v>
+      </c>
+      <c r="N84" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -5109,92 +6149,128 @@
         <v>168</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
         <v>169</v>
       </c>
       <c r="F85" t="s">
-        <v>606</v>
+        <v>169</v>
       </c>
       <c r="G85" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="H85" t="s">
-        <v>608</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="J85" t="s">
+        <v>581</v>
+      </c>
+      <c r="I85" t="s">
+        <v>582</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K85" t="s">
+        <v>612</v>
+      </c>
+      <c r="L85" t="s">
+        <v>612</v>
+      </c>
+      <c r="M85" t="s">
+        <v>612</v>
+      </c>
+      <c r="N85" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C86" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>453</v>
       </c>
       <c r="E86" t="s">
         <v>171</v>
       </c>
       <c r="F86" t="s">
-        <v>466</v>
+        <v>171</v>
       </c>
       <c r="G86" t="s">
-        <v>609</v>
+        <v>454</v>
       </c>
       <c r="H86" t="s">
-        <v>610</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J86" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="I86" t="s">
+        <v>584</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="K86" t="s">
+        <v>612</v>
+      </c>
+      <c r="L86" t="s">
+        <v>612</v>
+      </c>
+      <c r="M86" t="s">
+        <v>612</v>
+      </c>
+      <c r="N86" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C87" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>456</v>
       </c>
       <c r="E87" t="s">
         <v>173</v>
       </c>
       <c r="F87" t="s">
-        <v>469</v>
+        <v>173</v>
       </c>
       <c r="G87" t="s">
-        <v>611</v>
+        <v>457</v>
       </c>
       <c r="H87" t="s">
-        <v>612</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="J87" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="I87" t="s">
+        <v>653</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K87" t="s">
+        <v>612</v>
+      </c>
+      <c r="L87" t="s">
+        <v>612</v>
+      </c>
+      <c r="M87" t="s">
+        <v>612</v>
+      </c>
+      <c r="N87" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -5205,28 +6281,40 @@
         <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E88" t="s">
         <v>176</v>
       </c>
       <c r="F88" t="s">
+        <v>176</v>
+      </c>
+      <c r="G88" t="s">
         <v>177</v>
       </c>
-      <c r="G88" t="s">
-        <v>613</v>
-      </c>
       <c r="H88" t="s">
-        <v>614</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J88" t="s">
+        <v>586</v>
+      </c>
+      <c r="I88" t="s">
+        <v>587</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K88" t="s">
+        <v>612</v>
+      </c>
+      <c r="L88" t="s">
+        <v>612</v>
+      </c>
+      <c r="M88" t="s">
+        <v>612</v>
+      </c>
+      <c r="N88" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -5237,28 +6325,40 @@
         <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E89" t="s">
         <v>180</v>
       </c>
       <c r="F89" t="s">
+        <v>180</v>
+      </c>
+      <c r="G89" t="s">
         <v>181</v>
       </c>
-      <c r="G89" t="s">
-        <v>615</v>
-      </c>
       <c r="H89" t="s">
-        <v>616</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J89" t="s">
+        <v>588</v>
+      </c>
+      <c r="I89" t="s">
+        <v>589</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K89" t="s">
+        <v>612</v>
+      </c>
+      <c r="L89" t="s">
+        <v>612</v>
+      </c>
+      <c r="M89" t="s">
+        <v>612</v>
+      </c>
+      <c r="N89" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -5269,28 +6369,40 @@
         <v>183</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E90" t="s">
         <v>184</v>
       </c>
       <c r="F90" t="s">
-        <v>473</v>
+        <v>184</v>
       </c>
       <c r="G90" t="s">
-        <v>617</v>
+        <v>461</v>
       </c>
       <c r="H90" t="s">
-        <v>618</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="J90" t="s">
+        <v>590</v>
+      </c>
+      <c r="I90" t="s">
+        <v>654</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="K90" t="s">
+        <v>612</v>
+      </c>
+      <c r="L90" t="s">
+        <v>612</v>
+      </c>
+      <c r="M90" t="s">
+        <v>612</v>
+      </c>
+      <c r="N90" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -5301,28 +6413,40 @@
         <v>186</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E91" t="s">
         <v>187</v>
       </c>
       <c r="F91" t="s">
+        <v>187</v>
+      </c>
+      <c r="G91" t="s">
         <v>188</v>
       </c>
-      <c r="G91" t="s">
-        <v>619</v>
-      </c>
       <c r="H91" t="s">
-        <v>620</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J91" t="s">
+        <v>591</v>
+      </c>
+      <c r="I91" t="s">
+        <v>592</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K91" t="s">
+        <v>612</v>
+      </c>
+      <c r="L91" t="s">
+        <v>612</v>
+      </c>
+      <c r="M91" t="s">
+        <v>612</v>
+      </c>
+      <c r="N91" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>189</v>
       </c>
@@ -5333,60 +6457,84 @@
         <v>190</v>
       </c>
       <c r="D92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
       </c>
       <c r="F92" t="s">
-        <v>476</v>
+        <v>191</v>
       </c>
       <c r="G92" t="s">
-        <v>621</v>
+        <v>464</v>
       </c>
       <c r="H92" t="s">
-        <v>622</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J92" t="s">
+        <v>593</v>
+      </c>
+      <c r="I92" t="s">
+        <v>655</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K92" t="s">
+        <v>612</v>
+      </c>
+      <c r="L92" t="s">
+        <v>612</v>
+      </c>
+      <c r="M92" t="s">
+        <v>612</v>
+      </c>
+      <c r="N92" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>192</v>
       </c>
       <c r="B93" t="s">
-        <v>642</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
         <v>193</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E93" t="s">
         <v>194</v>
       </c>
       <c r="F93" t="s">
+        <v>194</v>
+      </c>
+      <c r="G93" t="s">
         <v>195</v>
       </c>
-      <c r="G93" t="s">
-        <v>623</v>
-      </c>
       <c r="H93" t="s">
-        <v>624</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="J93" t="s">
+        <v>594</v>
+      </c>
+      <c r="I93" t="s">
+        <v>595</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="K93" t="s">
+        <v>612</v>
+      </c>
+      <c r="L93" t="s">
+        <v>612</v>
+      </c>
+      <c r="M93" t="s">
+        <v>612</v>
+      </c>
+      <c r="N93" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>196</v>
       </c>
@@ -5397,28 +6545,40 @@
         <v>197</v>
       </c>
       <c r="D94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E94" t="s">
         <v>198</v>
       </c>
       <c r="F94" t="s">
+        <v>198</v>
+      </c>
+      <c r="G94" t="s">
         <v>199</v>
       </c>
-      <c r="G94" t="s">
-        <v>625</v>
-      </c>
       <c r="H94" t="s">
-        <v>626</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="J94" t="s">
+        <v>596</v>
+      </c>
+      <c r="I94" t="s">
+        <v>597</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="K94" t="s">
+        <v>612</v>
+      </c>
+      <c r="L94" t="s">
+        <v>612</v>
+      </c>
+      <c r="M94" t="s">
+        <v>612</v>
+      </c>
+      <c r="N94" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -5429,60 +6589,84 @@
         <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E95" t="s">
         <v>202</v>
       </c>
       <c r="F95" t="s">
+        <v>202</v>
+      </c>
+      <c r="G95" t="s">
         <v>203</v>
       </c>
-      <c r="G95" t="s">
-        <v>627</v>
-      </c>
       <c r="H95" t="s">
+        <v>598</v>
+      </c>
+      <c r="I95" t="s">
+        <v>656</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="K95" t="s">
+        <v>612</v>
+      </c>
+      <c r="L95" t="s">
+        <v>612</v>
+      </c>
+      <c r="M95" t="s">
+        <v>612</v>
+      </c>
+      <c r="N95" t="s">
         <v>201</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="J95" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>204</v>
       </c>
       <c r="B96" t="s">
-        <v>641</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
         <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E96" t="s">
         <v>206</v>
       </c>
       <c r="F96" t="s">
-        <v>481</v>
+        <v>206</v>
       </c>
       <c r="G96" t="s">
-        <v>628</v>
+        <v>469</v>
       </c>
       <c r="H96" t="s">
+        <v>599</v>
+      </c>
+      <c r="I96" t="s">
+        <v>657</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K96" t="s">
+        <v>612</v>
+      </c>
+      <c r="L96" t="s">
+        <v>612</v>
+      </c>
+      <c r="M96" t="s">
+        <v>612</v>
+      </c>
+      <c r="N96" t="s">
         <v>205</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>207</v>
       </c>
@@ -5493,28 +6677,40 @@
         <v>208</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E97" t="s">
         <v>209</v>
       </c>
       <c r="F97" t="s">
+        <v>209</v>
+      </c>
+      <c r="G97" t="s">
         <v>210</v>
       </c>
-      <c r="G97" t="s">
-        <v>629</v>
-      </c>
       <c r="H97" t="s">
+        <v>600</v>
+      </c>
+      <c r="I97" t="s">
+        <v>658</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K97" t="s">
+        <v>612</v>
+      </c>
+      <c r="L97" t="s">
+        <v>612</v>
+      </c>
+      <c r="M97" t="s">
+        <v>612</v>
+      </c>
+      <c r="N97" t="s">
         <v>208</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="J97" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>211</v>
       </c>
@@ -5525,28 +6721,40 @@
         <v>183</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="E98" t="s">
         <v>212</v>
       </c>
       <c r="F98" t="s">
-        <v>484</v>
+        <v>212</v>
       </c>
       <c r="G98" t="s">
-        <v>617</v>
+        <v>472</v>
       </c>
       <c r="H98" t="s">
+        <v>590</v>
+      </c>
+      <c r="I98" t="s">
+        <v>654</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="K98" t="s">
+        <v>612</v>
+      </c>
+      <c r="L98" t="s">
+        <v>612</v>
+      </c>
+      <c r="M98" t="s">
+        <v>612</v>
+      </c>
+      <c r="N98" t="s">
         <v>183</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="J98" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>213</v>
       </c>
@@ -5557,60 +6765,84 @@
         <v>214</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E99" t="s">
         <v>215</v>
       </c>
       <c r="F99" t="s">
+        <v>215</v>
+      </c>
+      <c r="G99" t="s">
         <v>216</v>
       </c>
-      <c r="G99" t="s">
-        <v>630</v>
-      </c>
       <c r="H99" t="s">
+        <v>601</v>
+      </c>
+      <c r="I99" t="s">
+        <v>659</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K99" t="s">
+        <v>612</v>
+      </c>
+      <c r="L99" t="s">
+        <v>612</v>
+      </c>
+      <c r="M99" t="s">
+        <v>612</v>
+      </c>
+      <c r="N99" t="s">
         <v>214</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="J99" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C100" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D100" t="s">
-        <v>212</v>
+        <v>474</v>
       </c>
       <c r="E100" t="s">
         <v>212</v>
       </c>
       <c r="F100" t="s">
-        <v>484</v>
+        <v>212</v>
       </c>
       <c r="G100" t="s">
-        <v>617</v>
+        <v>472</v>
       </c>
       <c r="H100" t="s">
-        <v>486</v>
-      </c>
-      <c r="I100" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I100" t="s">
+        <v>654</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="K100" t="s">
+        <v>612</v>
+      </c>
+      <c r="L100" t="s">
+        <v>612</v>
+      </c>
+      <c r="M100" t="s">
+        <v>612</v>
+      </c>
+      <c r="N100" t="s">
         <v>474</v>
       </c>
-      <c r="J100" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -5621,60 +6853,84 @@
         <v>219</v>
       </c>
       <c r="D101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E101" t="s">
         <v>220</v>
       </c>
       <c r="F101" t="s">
+        <v>220</v>
+      </c>
+      <c r="G101" t="s">
         <v>221</v>
       </c>
-      <c r="G101" t="s">
-        <v>631</v>
-      </c>
       <c r="H101" t="s">
+        <v>602</v>
+      </c>
+      <c r="I101" t="s">
+        <v>660</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="K101" t="s">
+        <v>612</v>
+      </c>
+      <c r="L101" t="s">
+        <v>612</v>
+      </c>
+      <c r="M101" t="s">
+        <v>612</v>
+      </c>
+      <c r="N101" t="s">
         <v>219</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J101" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>222</v>
       </c>
       <c r="B102" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C102" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D102" t="s">
-        <v>212</v>
+        <v>474</v>
       </c>
       <c r="E102" t="s">
         <v>212</v>
       </c>
       <c r="F102" t="s">
-        <v>488</v>
+        <v>212</v>
       </c>
       <c r="G102" t="s">
-        <v>617</v>
+        <v>476</v>
       </c>
       <c r="H102" t="s">
-        <v>486</v>
-      </c>
-      <c r="I102" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I102" t="s">
+        <v>654</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="K102" t="s">
+        <v>612</v>
+      </c>
+      <c r="L102" t="s">
+        <v>612</v>
+      </c>
+      <c r="M102" t="s">
+        <v>612</v>
+      </c>
+      <c r="N102" t="s">
         <v>474</v>
       </c>
-      <c r="J102" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>223</v>
       </c>
@@ -5685,60 +6941,84 @@
         <v>224</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E103" t="s">
         <v>225</v>
       </c>
       <c r="F103" t="s">
+        <v>225</v>
+      </c>
+      <c r="G103" t="s">
         <v>226</v>
       </c>
-      <c r="G103" t="s">
-        <v>632</v>
-      </c>
       <c r="H103" t="s">
+        <v>603</v>
+      </c>
+      <c r="I103" t="s">
+        <v>661</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="K103" t="s">
+        <v>612</v>
+      </c>
+      <c r="L103" t="s">
+        <v>612</v>
+      </c>
+      <c r="M103" t="s">
+        <v>612</v>
+      </c>
+      <c r="N103" t="s">
         <v>224</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J103" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>227</v>
       </c>
       <c r="B104" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C104" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D104" t="s">
-        <v>228</v>
+        <v>478</v>
       </c>
       <c r="E104" t="s">
         <v>228</v>
       </c>
       <c r="F104" t="s">
-        <v>491</v>
+        <v>228</v>
       </c>
       <c r="G104" t="s">
-        <v>633</v>
+        <v>479</v>
       </c>
       <c r="H104" t="s">
-        <v>490</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="J104" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+      <c r="I104" t="s">
+        <v>662</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="K104" t="s">
+        <v>612</v>
+      </c>
+      <c r="L104" t="s">
+        <v>612</v>
+      </c>
+      <c r="M104" t="s">
+        <v>612</v>
+      </c>
+      <c r="N104" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>229</v>
       </c>
@@ -5749,91 +7029,108 @@
         <v>230</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s">
         <v>231</v>
       </c>
       <c r="F105" t="s">
+        <v>231</v>
+      </c>
+      <c r="G105" t="s">
         <v>232</v>
       </c>
-      <c r="G105" t="s">
-        <v>634</v>
-      </c>
       <c r="H105" t="s">
+        <v>605</v>
+      </c>
+      <c r="I105" t="s">
+        <v>663</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K105" t="s">
+        <v>612</v>
+      </c>
+      <c r="L105" t="s">
+        <v>612</v>
+      </c>
+      <c r="M105" t="s">
+        <v>612</v>
+      </c>
+      <c r="N105" t="s">
         <v>230</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J105" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>233</v>
       </c>
       <c r="B106" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C106" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D106" t="s">
-        <v>234</v>
+        <v>483</v>
       </c>
       <c r="E106" t="s">
         <v>234</v>
       </c>
       <c r="F106" t="s">
-        <v>496</v>
+        <v>234</v>
       </c>
       <c r="G106" t="s">
-        <v>635</v>
+        <v>484</v>
       </c>
       <c r="H106" t="s">
-        <v>495</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="J106" t="s">
-        <v>495</v>
+        <v>606</v>
+      </c>
+      <c r="I106" t="s">
+        <v>664</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K106" t="s">
+        <v>612</v>
+      </c>
+      <c r="L106" t="s">
+        <v>612</v>
+      </c>
+      <c r="M106" t="s">
+        <v>612</v>
+      </c>
+      <c r="N106" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1"/>
-    <hyperlink ref="B56" r:id="rId2"/>
-    <hyperlink ref="B68" r:id="rId3"/>
-    <hyperlink ref="D36" r:id="rId4"/>
-    <hyperlink ref="D56" r:id="rId5"/>
-    <hyperlink ref="D68" r:id="rId6"/>
-    <hyperlink ref="E36" r:id="rId7"/>
-    <hyperlink ref="E56" r:id="rId8"/>
-    <hyperlink ref="E68" r:id="rId9"/>
-    <hyperlink ref="F36" r:id="rId10"/>
-    <hyperlink ref="F56" r:id="rId11"/>
-    <hyperlink ref="F68" r:id="rId12"/>
-    <hyperlink ref="C36" r:id="rId13"/>
-    <hyperlink ref="C56" r:id="rId14"/>
-    <hyperlink ref="C68" r:id="rId15"/>
-    <hyperlink ref="G36" r:id="rId16"/>
-    <hyperlink ref="G56" r:id="rId17"/>
-    <hyperlink ref="G68" r:id="rId18"/>
-    <hyperlink ref="H36" r:id="rId19"/>
-    <hyperlink ref="H56" r:id="rId20"/>
-    <hyperlink ref="H68" r:id="rId21"/>
-    <hyperlink ref="I36" r:id="rId22"/>
-    <hyperlink ref="I56" r:id="rId23"/>
-    <hyperlink ref="I68" r:id="rId24"/>
-    <hyperlink ref="J36" r:id="rId25"/>
-    <hyperlink ref="J56" r:id="rId26"/>
-    <hyperlink ref="J68" r:id="rId27"/>
+    <hyperlink ref="D36" r:id="rId1"/>
+    <hyperlink ref="G36" r:id="rId2"/>
+    <hyperlink ref="H36" r:id="rId3"/>
+    <hyperlink ref="I36" r:id="rId4"/>
+    <hyperlink ref="J36" r:id="rId5"/>
+    <hyperlink ref="N36" r:id="rId6"/>
+    <hyperlink ref="D56" r:id="rId7"/>
+    <hyperlink ref="G56" r:id="rId8"/>
+    <hyperlink ref="H56" r:id="rId9"/>
+    <hyperlink ref="I56" r:id="rId10"/>
+    <hyperlink ref="J56" r:id="rId11"/>
+    <hyperlink ref="N56" r:id="rId12"/>
+    <hyperlink ref="B68" r:id="rId13"/>
+    <hyperlink ref="C68" r:id="rId14"/>
+    <hyperlink ref="D68" r:id="rId15"/>
+    <hyperlink ref="G68" r:id="rId16"/>
+    <hyperlink ref="H68" r:id="rId17"/>
+    <hyperlink ref="I68" r:id="rId18"/>
+    <hyperlink ref="J68" r:id="rId19"/>
+    <hyperlink ref="N68" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
